--- a/BackTest/2020-01-16 BackTest HDAC.xlsx
+++ b/BackTest/2020-01-16 BackTest HDAC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M155"/>
+  <dimension ref="A1:M156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>25.6</v>
       </c>
       <c r="F2" t="n">
-        <v>1451.9018</v>
+        <v>2405.4886</v>
       </c>
       <c r="G2" t="n">
-        <v>25.62600000000001</v>
+        <v>25.63100000000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>25.6</v>
       </c>
       <c r="F3" t="n">
-        <v>1000</v>
+        <v>1451.9018</v>
       </c>
       <c r="G3" t="n">
-        <v>25.62550000000001</v>
+        <v>25.62600000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25.51</v>
+        <v>25.6</v>
       </c>
       <c r="C4" t="n">
-        <v>25.51</v>
+        <v>25.6</v>
       </c>
       <c r="D4" t="n">
-        <v>25.51</v>
+        <v>25.6</v>
       </c>
       <c r="E4" t="n">
-        <v>25.51</v>
+        <v>25.6</v>
       </c>
       <c r="F4" t="n">
-        <v>3214.2036</v>
+        <v>1000</v>
       </c>
       <c r="G4" t="n">
-        <v>25.62400000000001</v>
+        <v>25.62550000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>25.51</v>
       </c>
       <c r="F5" t="n">
-        <v>68119.2668</v>
+        <v>3214.2036</v>
       </c>
       <c r="G5" t="n">
-        <v>25.62250000000001</v>
+        <v>25.62400000000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,19 +573,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>25.7</v>
+        <v>25.51</v>
       </c>
       <c r="C6" t="n">
-        <v>25.7</v>
+        <v>25.51</v>
       </c>
       <c r="D6" t="n">
-        <v>25.7</v>
+        <v>25.51</v>
       </c>
       <c r="E6" t="n">
-        <v>25.7</v>
+        <v>25.51</v>
       </c>
       <c r="F6" t="n">
-        <v>2405.4886</v>
+        <v>68119.2668</v>
       </c>
       <c r="G6" t="n">
         <v>25.62250000000001</v>
@@ -620,10 +620,10 @@
         <v>25.7</v>
       </c>
       <c r="F7" t="n">
-        <v>33000</v>
+        <v>2405.4886</v>
       </c>
       <c r="G7" t="n">
-        <v>25.62416666666668</v>
+        <v>25.62250000000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25.71</v>
+        <v>25.7</v>
       </c>
       <c r="C8" t="n">
-        <v>25.71</v>
+        <v>25.7</v>
       </c>
       <c r="D8" t="n">
-        <v>25.71</v>
+        <v>25.7</v>
       </c>
       <c r="E8" t="n">
-        <v>25.71</v>
+        <v>25.7</v>
       </c>
       <c r="F8" t="n">
-        <v>1577.3384</v>
+        <v>33000</v>
       </c>
       <c r="G8" t="n">
-        <v>25.62100000000001</v>
+        <v>25.62416666666668</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25.7</v>
+        <v>25.71</v>
       </c>
       <c r="C9" t="n">
-        <v>25.6</v>
+        <v>25.71</v>
       </c>
       <c r="D9" t="n">
-        <v>25.7</v>
+        <v>25.71</v>
       </c>
       <c r="E9" t="n">
-        <v>25.6</v>
+        <v>25.71</v>
       </c>
       <c r="F9" t="n">
-        <v>3292.3355</v>
+        <v>1577.3384</v>
       </c>
       <c r="G9" t="n">
-        <v>25.61516666666667</v>
+        <v>25.62100000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="C10" t="n">
         <v>25.6</v>
       </c>
       <c r="D10" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="E10" t="n">
         <v>25.6</v>
       </c>
       <c r="F10" t="n">
-        <v>5000</v>
+        <v>3292.3355</v>
       </c>
       <c r="G10" t="n">
-        <v>25.60933333333334</v>
+        <v>25.61516666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>25.6</v>
       </c>
       <c r="F11" t="n">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="G11" t="n">
-        <v>25.60433333333334</v>
+        <v>25.60933333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>25.6</v>
       </c>
       <c r="F12" t="n">
-        <v>4211.6249</v>
+        <v>1500</v>
       </c>
       <c r="G12" t="n">
-        <v>25.59933333333333</v>
+        <v>25.60433333333334</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>25.6</v>
       </c>
       <c r="F13" t="n">
-        <v>101686.3379</v>
+        <v>4211.6249</v>
       </c>
       <c r="G13" t="n">
-        <v>25.59766666666667</v>
+        <v>25.59933333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>25.6</v>
       </c>
       <c r="C14" t="n">
-        <v>25.54</v>
+        <v>25.6</v>
       </c>
       <c r="D14" t="n">
         <v>25.6</v>
       </c>
       <c r="E14" t="n">
-        <v>25.54</v>
+        <v>25.6</v>
       </c>
       <c r="F14" t="n">
-        <v>100000</v>
+        <v>101686.3379</v>
       </c>
       <c r="G14" t="n">
-        <v>25.59</v>
+        <v>25.59766666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>25.54</v>
+        <v>25.6</v>
       </c>
       <c r="C15" t="n">
         <v>25.54</v>
       </c>
       <c r="D15" t="n">
-        <v>25.54</v>
+        <v>25.6</v>
       </c>
       <c r="E15" t="n">
         <v>25.54</v>
       </c>
       <c r="F15" t="n">
-        <v>10545.8906</v>
+        <v>100000</v>
       </c>
       <c r="G15" t="n">
-        <v>25.58233333333333</v>
+        <v>25.59</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>25.53</v>
+        <v>25.54</v>
       </c>
       <c r="C16" t="n">
-        <v>25.53</v>
+        <v>25.54</v>
       </c>
       <c r="D16" t="n">
-        <v>25.53</v>
+        <v>25.54</v>
       </c>
       <c r="E16" t="n">
-        <v>25.53</v>
+        <v>25.54</v>
       </c>
       <c r="F16" t="n">
-        <v>4043.4581</v>
+        <v>10545.8906</v>
       </c>
       <c r="G16" t="n">
-        <v>25.57833333333333</v>
+        <v>25.58233333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>25.53</v>
       </c>
       <c r="C17" t="n">
-        <v>25.51</v>
+        <v>25.53</v>
       </c>
       <c r="D17" t="n">
         <v>25.53</v>
       </c>
       <c r="E17" t="n">
-        <v>25.51</v>
+        <v>25.53</v>
       </c>
       <c r="F17" t="n">
-        <v>55935.5738</v>
+        <v>4043.4581</v>
       </c>
       <c r="G17" t="n">
-        <v>25.574</v>
+        <v>25.57833333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>25.53</v>
+      </c>
+      <c r="C18" t="n">
         <v>25.51</v>
       </c>
-      <c r="C18" t="n">
-        <v>25.46</v>
-      </c>
       <c r="D18" t="n">
+        <v>25.53</v>
+      </c>
+      <c r="E18" t="n">
         <v>25.51</v>
       </c>
-      <c r="E18" t="n">
-        <v>25.46</v>
-      </c>
       <c r="F18" t="n">
-        <v>55935.5739</v>
+        <v>55935.5738</v>
       </c>
       <c r="G18" t="n">
-        <v>25.56883333333333</v>
+        <v>25.574</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>25.51</v>
       </c>
       <c r="C19" t="n">
-        <v>25.54</v>
+        <v>25.46</v>
       </c>
       <c r="D19" t="n">
-        <v>25.54</v>
+        <v>25.51</v>
       </c>
       <c r="E19" t="n">
-        <v>25.51</v>
+        <v>25.46</v>
       </c>
       <c r="F19" t="n">
-        <v>7791.5548803</v>
+        <v>55935.5739</v>
       </c>
       <c r="G19" t="n">
-        <v>25.56666666666666</v>
+        <v>25.56883333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>25.51</v>
       </c>
       <c r="C20" t="n">
-        <v>25.46</v>
+        <v>25.54</v>
       </c>
       <c r="D20" t="n">
+        <v>25.54</v>
+      </c>
+      <c r="E20" t="n">
         <v>25.51</v>
       </c>
-      <c r="E20" t="n">
-        <v>25.46</v>
-      </c>
       <c r="F20" t="n">
-        <v>17319.9848</v>
+        <v>7791.5548803</v>
       </c>
       <c r="G20" t="n">
-        <v>25.56316666666666</v>
+        <v>25.56666666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>25.54</v>
+        <v>25.51</v>
       </c>
       <c r="C21" t="n">
-        <v>25.54</v>
+        <v>25.46</v>
       </c>
       <c r="D21" t="n">
-        <v>25.54</v>
+        <v>25.51</v>
       </c>
       <c r="E21" t="n">
-        <v>25.54</v>
+        <v>25.46</v>
       </c>
       <c r="F21" t="n">
-        <v>51244.4744</v>
+        <v>17319.9848</v>
       </c>
       <c r="G21" t="n">
-        <v>25.56099999999999</v>
+        <v>25.56316666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>25.47</v>
+        <v>25.54</v>
       </c>
       <c r="C22" t="n">
-        <v>25.46</v>
+        <v>25.54</v>
       </c>
       <c r="D22" t="n">
-        <v>25.47</v>
+        <v>25.54</v>
       </c>
       <c r="E22" t="n">
-        <v>25.46</v>
+        <v>25.54</v>
       </c>
       <c r="F22" t="n">
-        <v>177171.7724</v>
+        <v>51244.4744</v>
       </c>
       <c r="G22" t="n">
-        <v>25.55783333333333</v>
+        <v>25.56099999999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>25.46</v>
+        <v>25.47</v>
       </c>
       <c r="C23" t="n">
         <v>25.46</v>
       </c>
       <c r="D23" t="n">
-        <v>25.46</v>
+        <v>25.47</v>
       </c>
       <c r="E23" t="n">
         <v>25.46</v>
       </c>
       <c r="F23" t="n">
-        <v>47828.2276</v>
+        <v>177171.7724</v>
       </c>
       <c r="G23" t="n">
-        <v>25.55466666666666</v>
+        <v>25.55783333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>25.54</v>
+        <v>25.46</v>
       </c>
       <c r="C24" t="n">
-        <v>25.89</v>
+        <v>25.46</v>
       </c>
       <c r="D24" t="n">
-        <v>25.89</v>
+        <v>25.46</v>
       </c>
       <c r="E24" t="n">
-        <v>25.54</v>
+        <v>25.46</v>
       </c>
       <c r="F24" t="n">
-        <v>34216.40184885</v>
+        <v>47828.2276</v>
       </c>
       <c r="G24" t="n">
-        <v>25.55833333333333</v>
+        <v>25.55466666666666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>25.79</v>
+        <v>25.54</v>
       </c>
       <c r="C25" t="n">
-        <v>25.79</v>
+        <v>25.89</v>
       </c>
       <c r="D25" t="n">
-        <v>25.79</v>
+        <v>25.89</v>
       </c>
       <c r="E25" t="n">
-        <v>25.79</v>
+        <v>25.54</v>
       </c>
       <c r="F25" t="n">
-        <v>8660</v>
+        <v>34216.40184885</v>
       </c>
       <c r="G25" t="n">
-        <v>25.56116666666666</v>
+        <v>25.55833333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>25.79</v>
       </c>
       <c r="F26" t="n">
-        <v>10627.8545</v>
+        <v>8660</v>
       </c>
       <c r="G26" t="n">
-        <v>25.56416666666666</v>
+        <v>25.56116666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>25.79</v>
       </c>
       <c r="C27" t="n">
-        <v>25.89</v>
+        <v>25.79</v>
       </c>
       <c r="D27" t="n">
-        <v>25.89</v>
+        <v>25.79</v>
       </c>
       <c r="E27" t="n">
         <v>25.79</v>
       </c>
       <c r="F27" t="n">
-        <v>39246.43449251</v>
+        <v>10627.8545</v>
       </c>
       <c r="G27" t="n">
-        <v>25.5695</v>
+        <v>25.56416666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>25.89</v>
+        <v>25.79</v>
       </c>
       <c r="C28" t="n">
         <v>25.89</v>
@@ -1352,13 +1352,13 @@
         <v>25.89</v>
       </c>
       <c r="E28" t="n">
-        <v>25.89</v>
+        <v>25.79</v>
       </c>
       <c r="F28" t="n">
-        <v>9370.3886</v>
+        <v>39246.43449251</v>
       </c>
       <c r="G28" t="n">
-        <v>25.575</v>
+        <v>25.5695</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>25.89</v>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>9370.3886</v>
       </c>
       <c r="G29" t="n">
-        <v>25.58066666666667</v>
+        <v>25.575</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>25.89</v>
       </c>
       <c r="F30" t="n">
-        <v>14.7426</v>
+        <v>100</v>
       </c>
       <c r="G30" t="n">
-        <v>25.5865</v>
+        <v>25.58066666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>25.89</v>
       </c>
       <c r="F31" t="n">
-        <v>3546.6081</v>
+        <v>14.7426</v>
       </c>
       <c r="G31" t="n">
-        <v>25.59266666666667</v>
+        <v>25.5865</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>25.89</v>
       </c>
       <c r="F32" t="n">
-        <v>17789.9203</v>
+        <v>3546.6081</v>
       </c>
       <c r="G32" t="n">
-        <v>25.59883333333334</v>
+        <v>25.59266666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>25.79</v>
+        <v>25.89</v>
       </c>
       <c r="C33" t="n">
         <v>25.89</v>
@@ -1527,13 +1527,13 @@
         <v>25.89</v>
       </c>
       <c r="E33" t="n">
-        <v>25.79</v>
+        <v>25.89</v>
       </c>
       <c r="F33" t="n">
-        <v>46179.7245</v>
+        <v>17789.9203</v>
       </c>
       <c r="G33" t="n">
-        <v>25.60450000000001</v>
+        <v>25.59883333333334</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>25.89</v>
+        <v>25.79</v>
       </c>
       <c r="C34" t="n">
         <v>25.89</v>
@@ -1562,13 +1562,13 @@
         <v>25.89</v>
       </c>
       <c r="E34" t="n">
-        <v>25.89</v>
+        <v>25.79</v>
       </c>
       <c r="F34" t="n">
-        <v>50043.8793</v>
+        <v>46179.7245</v>
       </c>
       <c r="G34" t="n">
-        <v>25.61016666666668</v>
+        <v>25.60450000000001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>25.93</v>
+        <v>25.89</v>
       </c>
       <c r="C35" t="n">
-        <v>25.98</v>
+        <v>25.89</v>
       </c>
       <c r="D35" t="n">
-        <v>25.98</v>
+        <v>25.89</v>
       </c>
       <c r="E35" t="n">
-        <v>25.93</v>
+        <v>25.89</v>
       </c>
       <c r="F35" t="n">
-        <v>51536.8448</v>
+        <v>50043.8793</v>
       </c>
       <c r="G35" t="n">
-        <v>25.61650000000002</v>
+        <v>25.61016666666668</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>25.9</v>
+        <v>25.93</v>
       </c>
       <c r="C36" t="n">
-        <v>25.89</v>
+        <v>25.98</v>
       </c>
       <c r="D36" t="n">
-        <v>25.9</v>
+        <v>25.98</v>
       </c>
       <c r="E36" t="n">
-        <v>25.89</v>
+        <v>25.93</v>
       </c>
       <c r="F36" t="n">
-        <v>6389.4056</v>
+        <v>51536.8448</v>
       </c>
       <c r="G36" t="n">
-        <v>25.62133333333335</v>
+        <v>25.61650000000002</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>25.89</v>
+        <v>25.9</v>
       </c>
       <c r="C37" t="n">
         <v>25.89</v>
       </c>
       <c r="D37" t="n">
-        <v>25.89</v>
+        <v>25.9</v>
       </c>
       <c r="E37" t="n">
         <v>25.89</v>
       </c>
       <c r="F37" t="n">
-        <v>6867.5953</v>
+        <v>6389.4056</v>
       </c>
       <c r="G37" t="n">
-        <v>25.62700000000002</v>
+        <v>25.62133333333335</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>25.89</v>
       </c>
       <c r="F38" t="n">
-        <v>1644.3638</v>
+        <v>6867.5953</v>
       </c>
       <c r="G38" t="n">
-        <v>25.63266666666669</v>
+        <v>25.62700000000002</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>25.97</v>
+        <v>25.89</v>
       </c>
       <c r="C39" t="n">
-        <v>25.97</v>
+        <v>25.89</v>
       </c>
       <c r="D39" t="n">
-        <v>25.97</v>
+        <v>25.89</v>
       </c>
       <c r="E39" t="n">
-        <v>25.97</v>
+        <v>25.89</v>
       </c>
       <c r="F39" t="n">
-        <v>1225.6563</v>
+        <v>1644.3638</v>
       </c>
       <c r="G39" t="n">
-        <v>25.64016666666669</v>
+        <v>25.63266666666669</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,28 +1763,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>25.71</v>
+        <v>25.97</v>
       </c>
       <c r="C40" t="n">
-        <v>25.71</v>
+        <v>25.97</v>
       </c>
       <c r="D40" t="n">
-        <v>25.71</v>
+        <v>25.97</v>
       </c>
       <c r="E40" t="n">
-        <v>25.71</v>
+        <v>25.97</v>
       </c>
       <c r="F40" t="n">
-        <v>9943.401</v>
+        <v>1225.6563</v>
       </c>
       <c r="G40" t="n">
-        <v>25.64333333333336</v>
+        <v>25.64016666666669</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1804,16 +1804,16 @@
         <v>25.71</v>
       </c>
       <c r="D41" t="n">
-        <v>25.8</v>
+        <v>25.71</v>
       </c>
       <c r="E41" t="n">
         <v>25.71</v>
       </c>
       <c r="F41" t="n">
-        <v>22494.2292</v>
+        <v>9943.401</v>
       </c>
       <c r="G41" t="n">
-        <v>25.64800000000002</v>
+        <v>25.64333333333336</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>25.9</v>
+        <v>25.71</v>
       </c>
       <c r="C42" t="n">
-        <v>25.96</v>
+        <v>25.71</v>
       </c>
       <c r="D42" t="n">
-        <v>25.96</v>
+        <v>25.8</v>
       </c>
       <c r="E42" t="n">
-        <v>25.9</v>
+        <v>25.71</v>
       </c>
       <c r="F42" t="n">
-        <v>3857.53534175</v>
+        <v>22494.2292</v>
       </c>
       <c r="G42" t="n">
-        <v>25.65783333333336</v>
+        <v>25.64800000000002</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="C43" t="n">
-        <v>25.8</v>
+        <v>25.96</v>
       </c>
       <c r="D43" t="n">
-        <v>25.8</v>
+        <v>25.96</v>
       </c>
       <c r="E43" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="F43" t="n">
-        <v>254.2835</v>
+        <v>3857.53534175</v>
       </c>
       <c r="G43" t="n">
-        <v>25.66500000000003</v>
+        <v>25.65783333333336</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>25.71</v>
+        <v>25.8</v>
       </c>
       <c r="C44" t="n">
-        <v>25.64</v>
+        <v>25.8</v>
       </c>
       <c r="D44" t="n">
-        <v>25.71</v>
+        <v>25.8</v>
       </c>
       <c r="E44" t="n">
-        <v>25.64</v>
+        <v>25.8</v>
       </c>
       <c r="F44" t="n">
-        <v>36932.8064</v>
+        <v>254.2835</v>
       </c>
       <c r="G44" t="n">
-        <v>25.66850000000003</v>
+        <v>25.66500000000003</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>25.7</v>
+        <v>25.71</v>
       </c>
       <c r="C45" t="n">
-        <v>25.7</v>
+        <v>25.64</v>
       </c>
       <c r="D45" t="n">
-        <v>25.7</v>
+        <v>25.71</v>
       </c>
       <c r="E45" t="n">
-        <v>25.7</v>
+        <v>25.64</v>
       </c>
       <c r="F45" t="n">
-        <v>8190.0689</v>
+        <v>36932.8064</v>
       </c>
       <c r="G45" t="n">
-        <v>25.67300000000003</v>
+        <v>25.66850000000003</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="C46" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="D46" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="E46" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="F46" t="n">
-        <v>1563.1628</v>
+        <v>8190.0689</v>
       </c>
       <c r="G46" t="n">
-        <v>25.68050000000003</v>
+        <v>25.67300000000003</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>25.9</v>
       </c>
       <c r="C47" t="n">
-        <v>25.71</v>
+        <v>25.9</v>
       </c>
       <c r="D47" t="n">
         <v>25.9</v>
       </c>
       <c r="E47" t="n">
-        <v>25.71</v>
+        <v>25.9</v>
       </c>
       <c r="F47" t="n">
-        <v>89228.34050000001</v>
+        <v>1563.1628</v>
       </c>
       <c r="G47" t="n">
-        <v>25.6836666666667</v>
+        <v>25.68050000000003</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>25.72</v>
+        <v>25.9</v>
       </c>
       <c r="C48" t="n">
-        <v>25.72</v>
+        <v>25.71</v>
       </c>
       <c r="D48" t="n">
-        <v>25.72</v>
+        <v>25.9</v>
       </c>
       <c r="E48" t="n">
-        <v>25.72</v>
+        <v>25.71</v>
       </c>
       <c r="F48" t="n">
-        <v>34233.5046</v>
+        <v>89228.34050000001</v>
       </c>
       <c r="G48" t="n">
-        <v>25.68700000000003</v>
+        <v>25.6836666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>25.72</v>
       </c>
       <c r="F49" t="n">
-        <v>8766.4954</v>
+        <v>34233.5046</v>
       </c>
       <c r="G49" t="n">
-        <v>25.68983333333336</v>
+        <v>25.68700000000003</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>25.89</v>
+        <v>25.72</v>
       </c>
       <c r="C50" t="n">
-        <v>25.89</v>
+        <v>25.72</v>
       </c>
       <c r="D50" t="n">
-        <v>25.89</v>
+        <v>25.72</v>
       </c>
       <c r="E50" t="n">
-        <v>25.89</v>
+        <v>25.72</v>
       </c>
       <c r="F50" t="n">
-        <v>3862.49517188</v>
+        <v>8766.4954</v>
       </c>
       <c r="G50" t="n">
-        <v>25.69550000000003</v>
+        <v>25.68983333333336</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>25.86</v>
+        <v>25.89</v>
       </c>
       <c r="C51" t="n">
-        <v>25.86</v>
+        <v>25.89</v>
       </c>
       <c r="D51" t="n">
-        <v>25.86</v>
+        <v>25.89</v>
       </c>
       <c r="E51" t="n">
-        <v>25.86</v>
+        <v>25.89</v>
       </c>
       <c r="F51" t="n">
-        <v>43482.1449</v>
+        <v>3862.49517188</v>
       </c>
       <c r="G51" t="n">
-        <v>25.69600000000003</v>
+        <v>25.69550000000003</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>25.75</v>
+        <v>25.86</v>
       </c>
       <c r="C52" t="n">
-        <v>25.71</v>
+        <v>25.86</v>
       </c>
       <c r="D52" t="n">
-        <v>25.75</v>
+        <v>25.86</v>
       </c>
       <c r="E52" t="n">
-        <v>25.71</v>
+        <v>25.86</v>
       </c>
       <c r="F52" t="n">
-        <v>66681.9476</v>
+        <v>43482.1449</v>
       </c>
       <c r="G52" t="n">
-        <v>25.69850000000003</v>
+        <v>25.69600000000003</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>25.71</v>
+        <v>25.75</v>
       </c>
       <c r="C53" t="n">
         <v>25.71</v>
       </c>
       <c r="D53" t="n">
-        <v>25.71</v>
+        <v>25.75</v>
       </c>
       <c r="E53" t="n">
         <v>25.71</v>
       </c>
       <c r="F53" t="n">
-        <v>60927.6648</v>
+        <v>66681.9476</v>
       </c>
       <c r="G53" t="n">
-        <v>25.7011666666667</v>
+        <v>25.69850000000003</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>25.7</v>
+        <v>25.71</v>
       </c>
       <c r="C54" t="n">
-        <v>25.6</v>
+        <v>25.71</v>
       </c>
       <c r="D54" t="n">
-        <v>25.7</v>
+        <v>25.71</v>
       </c>
       <c r="E54" t="n">
-        <v>25.6</v>
+        <v>25.71</v>
       </c>
       <c r="F54" t="n">
-        <v>200813.3938</v>
+        <v>60927.6648</v>
       </c>
       <c r="G54" t="n">
-        <v>25.70200000000004</v>
+        <v>25.7011666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="C55" t="n">
         <v>25.6</v>
       </c>
       <c r="D55" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="E55" t="n">
         <v>25.6</v>
       </c>
       <c r="F55" t="n">
-        <v>56919.5195</v>
+        <v>200813.3938</v>
       </c>
       <c r="G55" t="n">
-        <v>25.7036666666667</v>
+        <v>25.70200000000004</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>25.6</v>
       </c>
       <c r="F56" t="n">
-        <v>50000</v>
+        <v>56919.5195</v>
       </c>
       <c r="G56" t="n">
-        <v>25.70283333333337</v>
+        <v>25.7036666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,19 +2370,23 @@
         <v>25.6</v>
       </c>
       <c r="F57" t="n">
-        <v>1930.502</v>
+        <v>50000</v>
       </c>
       <c r="G57" t="n">
-        <v>25.70200000000003</v>
+        <v>25.70283333333337</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K57" t="n">
+        <v>25.6</v>
+      </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
@@ -2405,20 +2409,28 @@
         <v>25.6</v>
       </c>
       <c r="F58" t="n">
-        <v>10000</v>
+        <v>1930.502</v>
       </c>
       <c r="G58" t="n">
-        <v>25.70116666666669</v>
+        <v>25.70200000000003</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K58" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,32 +2440,40 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>25.66</v>
+        <v>25.6</v>
       </c>
       <c r="C59" t="n">
-        <v>25.66</v>
+        <v>25.6</v>
       </c>
       <c r="D59" t="n">
-        <v>25.66</v>
+        <v>25.6</v>
       </c>
       <c r="E59" t="n">
-        <v>25.66</v>
+        <v>25.6</v>
       </c>
       <c r="F59" t="n">
-        <v>19162.1456</v>
+        <v>10000</v>
       </c>
       <c r="G59" t="n">
-        <v>25.70383333333336</v>
+        <v>25.70116666666669</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K59" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,31 +2483,35 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>25.6</v>
+        <v>25.66</v>
       </c>
       <c r="C60" t="n">
-        <v>25.5</v>
+        <v>25.66</v>
       </c>
       <c r="D60" t="n">
-        <v>25.6</v>
+        <v>25.66</v>
       </c>
       <c r="E60" t="n">
-        <v>25.5</v>
+        <v>25.66</v>
       </c>
       <c r="F60" t="n">
-        <v>6746.9375</v>
+        <v>19162.1456</v>
       </c>
       <c r="G60" t="n">
-        <v>25.70133333333336</v>
+        <v>25.70383333333336</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K60" t="n">
+        <v>25.6</v>
+      </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
@@ -2498,22 +2522,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>25.69</v>
+        <v>25.6</v>
       </c>
       <c r="C61" t="n">
-        <v>25.69</v>
+        <v>25.5</v>
       </c>
       <c r="D61" t="n">
-        <v>25.69</v>
+        <v>25.6</v>
       </c>
       <c r="E61" t="n">
-        <v>25.69</v>
+        <v>25.5</v>
       </c>
       <c r="F61" t="n">
-        <v>37900.2942</v>
+        <v>6746.9375</v>
       </c>
       <c r="G61" t="n">
-        <v>25.70283333333336</v>
+        <v>25.70133333333336</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,8 +2546,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2545,10 +2575,10 @@
         <v>25.69</v>
       </c>
       <c r="F62" t="n">
-        <v>2826.3897</v>
+        <v>37900.2942</v>
       </c>
       <c r="G62" t="n">
-        <v>25.70433333333336</v>
+        <v>25.70283333333336</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2557,8 +2587,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2604,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>25.5</v>
+        <v>25.69</v>
       </c>
       <c r="C63" t="n">
-        <v>25.5</v>
+        <v>25.69</v>
       </c>
       <c r="D63" t="n">
-        <v>25.5</v>
+        <v>25.69</v>
       </c>
       <c r="E63" t="n">
-        <v>25.5</v>
+        <v>25.69</v>
       </c>
       <c r="F63" t="n">
-        <v>2144.0028</v>
+        <v>2826.3897</v>
       </c>
       <c r="G63" t="n">
-        <v>25.7026666666667</v>
+        <v>25.70433333333336</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,8 +2628,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2615,10 +2657,10 @@
         <v>25.5</v>
       </c>
       <c r="F64" t="n">
-        <v>1205.7552</v>
+        <v>2144.0028</v>
       </c>
       <c r="G64" t="n">
-        <v>25.70250000000003</v>
+        <v>25.7026666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,8 +2669,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2650,10 +2698,10 @@
         <v>25.5</v>
       </c>
       <c r="F65" t="n">
-        <v>12000</v>
+        <v>1205.7552</v>
       </c>
       <c r="G65" t="n">
-        <v>25.70233333333336</v>
+        <v>25.70250000000003</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,8 +2710,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2685,10 +2739,10 @@
         <v>25.5</v>
       </c>
       <c r="F66" t="n">
-        <v>11747.1555</v>
+        <v>12000</v>
       </c>
       <c r="G66" t="n">
-        <v>25.69900000000003</v>
+        <v>25.70233333333336</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,8 +2751,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2720,20 +2780,28 @@
         <v>25.5</v>
       </c>
       <c r="F67" t="n">
-        <v>1000</v>
+        <v>11747.1555</v>
       </c>
       <c r="G67" t="n">
-        <v>25.6956666666667</v>
+        <v>25.69900000000003</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2755,20 +2823,28 @@
         <v>25.5</v>
       </c>
       <c r="F68" t="n">
-        <v>4096.539</v>
+        <v>1000</v>
       </c>
       <c r="G68" t="n">
-        <v>25.6921666666667</v>
+        <v>25.6956666666667</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2790,10 +2866,10 @@
         <v>25.5</v>
       </c>
       <c r="F69" t="n">
-        <v>73069.41280000001</v>
+        <v>4096.539</v>
       </c>
       <c r="G69" t="n">
-        <v>25.69050000000003</v>
+        <v>25.6921666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,8 +2878,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2825,24 +2907,26 @@
         <v>25.5</v>
       </c>
       <c r="F70" t="n">
-        <v>8093</v>
+        <v>73069.41280000001</v>
       </c>
       <c r="G70" t="n">
-        <v>25.68883333333337</v>
+        <v>25.69050000000003</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>25.5</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L70" t="inlineStr"/>
+        <v>25.6</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2855,19 +2939,19 @@
         <v>25.5</v>
       </c>
       <c r="C71" t="n">
-        <v>25.48</v>
+        <v>25.5</v>
       </c>
       <c r="D71" t="n">
         <v>25.5</v>
       </c>
       <c r="E71" t="n">
-        <v>25.48</v>
+        <v>25.5</v>
       </c>
       <c r="F71" t="n">
-        <v>949.218</v>
+        <v>8093</v>
       </c>
       <c r="G71" t="n">
-        <v>25.68683333333337</v>
+        <v>25.68883333333337</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,11 +2961,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M71" t="n">
@@ -2893,22 +2977,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>25.69</v>
+        <v>25.5</v>
       </c>
       <c r="C72" t="n">
-        <v>25.69</v>
+        <v>25.48</v>
       </c>
       <c r="D72" t="n">
-        <v>25.69</v>
+        <v>25.5</v>
       </c>
       <c r="E72" t="n">
-        <v>25.69</v>
+        <v>25.48</v>
       </c>
       <c r="F72" t="n">
-        <v>20</v>
+        <v>949.218</v>
       </c>
       <c r="G72" t="n">
-        <v>25.68833333333337</v>
+        <v>25.68683333333337</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,7 +3002,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -2946,22 +3030,20 @@
         <v>25.69</v>
       </c>
       <c r="F73" t="n">
-        <v>413.7364</v>
+        <v>20</v>
       </c>
       <c r="G73" t="n">
-        <v>25.68983333333337</v>
+        <v>25.68833333333337</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>25.69</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -2989,22 +3071,20 @@
         <v>25.69</v>
       </c>
       <c r="F74" t="n">
-        <v>25784.2358</v>
+        <v>413.7364</v>
       </c>
       <c r="G74" t="n">
-        <v>25.69233333333337</v>
+        <v>25.68983333333337</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>25.69</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3020,22 +3100,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>25.7</v>
+        <v>25.69</v>
       </c>
       <c r="C75" t="n">
-        <v>25.8</v>
+        <v>25.69</v>
       </c>
       <c r="D75" t="n">
-        <v>25.8</v>
+        <v>25.69</v>
       </c>
       <c r="E75" t="n">
-        <v>25.7</v>
+        <v>25.69</v>
       </c>
       <c r="F75" t="n">
-        <v>13785.71123604</v>
+        <v>25784.2358</v>
       </c>
       <c r="G75" t="n">
-        <v>25.69666666666671</v>
+        <v>25.69233333333337</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3045,7 +3125,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3061,22 +3141,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>25.79</v>
+        <v>25.7</v>
       </c>
       <c r="C76" t="n">
-        <v>25.79</v>
+        <v>25.8</v>
       </c>
       <c r="D76" t="n">
-        <v>25.79</v>
+        <v>25.8</v>
       </c>
       <c r="E76" t="n">
-        <v>25.79</v>
+        <v>25.7</v>
       </c>
       <c r="F76" t="n">
-        <v>3465.6176</v>
+        <v>13785.71123604</v>
       </c>
       <c r="G76" t="n">
-        <v>25.70100000000004</v>
+        <v>25.69666666666671</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3086,7 +3166,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3114,10 +3194,10 @@
         <v>25.79</v>
       </c>
       <c r="F77" t="n">
-        <v>1000</v>
+        <v>3465.6176</v>
       </c>
       <c r="G77" t="n">
-        <v>25.70566666666671</v>
+        <v>25.70100000000004</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3127,7 +3207,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3143,22 +3223,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>25.7</v>
+        <v>25.79</v>
       </c>
       <c r="C78" t="n">
-        <v>25.7</v>
+        <v>25.79</v>
       </c>
       <c r="D78" t="n">
-        <v>25.7</v>
+        <v>25.79</v>
       </c>
       <c r="E78" t="n">
-        <v>25.7</v>
+        <v>25.79</v>
       </c>
       <c r="F78" t="n">
-        <v>15115.7344</v>
+        <v>1000</v>
       </c>
       <c r="G78" t="n">
-        <v>25.70966666666671</v>
+        <v>25.70566666666671</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3168,7 +3248,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3184,22 +3264,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="C79" t="n">
-        <v>25.51</v>
+        <v>25.7</v>
       </c>
       <c r="D79" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="E79" t="n">
-        <v>25.51</v>
+        <v>25.7</v>
       </c>
       <c r="F79" t="n">
-        <v>10000</v>
+        <v>15115.7344</v>
       </c>
       <c r="G79" t="n">
-        <v>25.70916666666671</v>
+        <v>25.70966666666671</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3209,7 +3289,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3228,19 +3308,19 @@
         <v>25.6</v>
       </c>
       <c r="C80" t="n">
-        <v>25.5</v>
+        <v>25.51</v>
       </c>
       <c r="D80" t="n">
         <v>25.6</v>
       </c>
       <c r="E80" t="n">
-        <v>25.5</v>
+        <v>25.51</v>
       </c>
       <c r="F80" t="n">
-        <v>25225.6499</v>
+        <v>10000</v>
       </c>
       <c r="G80" t="n">
-        <v>25.70983333333337</v>
+        <v>25.70916666666671</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3250,7 +3330,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3269,19 +3349,19 @@
         <v>25.6</v>
       </c>
       <c r="C81" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="D81" t="n">
         <v>25.6</v>
       </c>
       <c r="E81" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="F81" t="n">
-        <v>1225.6563</v>
+        <v>25225.6499</v>
       </c>
       <c r="G81" t="n">
-        <v>25.71083333333337</v>
+        <v>25.70983333333337</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3291,7 +3371,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3319,10 +3399,10 @@
         <v>25.6</v>
       </c>
       <c r="F82" t="n">
-        <v>9603.114600000001</v>
+        <v>1225.6563</v>
       </c>
       <c r="G82" t="n">
-        <v>25.71316666666671</v>
+        <v>25.71083333333337</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3332,7 +3412,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3360,10 +3440,10 @@
         <v>25.6</v>
       </c>
       <c r="F83" t="n">
-        <v>18496.7584</v>
+        <v>9603.114600000001</v>
       </c>
       <c r="G83" t="n">
-        <v>25.71550000000003</v>
+        <v>25.71316666666671</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3373,7 +3453,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3401,10 +3481,10 @@
         <v>25.6</v>
       </c>
       <c r="F84" t="n">
-        <v>29748.3729</v>
+        <v>18496.7584</v>
       </c>
       <c r="G84" t="n">
-        <v>25.7106666666667</v>
+        <v>25.71550000000003</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3414,7 +3494,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3430,22 +3510,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="C85" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="D85" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="E85" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="F85" t="n">
-        <v>12730.7998</v>
+        <v>29748.3729</v>
       </c>
       <c r="G85" t="n">
-        <v>25.7091666666667</v>
+        <v>25.7106666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3455,7 +3535,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3483,10 +3563,10 @@
         <v>25.7</v>
       </c>
       <c r="F86" t="n">
-        <v>3881.3472</v>
+        <v>12730.7998</v>
       </c>
       <c r="G86" t="n">
-        <v>25.7076666666667</v>
+        <v>25.7091666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3496,7 +3576,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3515,19 +3595,19 @@
         <v>25.7</v>
       </c>
       <c r="C87" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="D87" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="E87" t="n">
         <v>25.7</v>
       </c>
       <c r="F87" t="n">
-        <v>31070.32660271</v>
+        <v>3881.3472</v>
       </c>
       <c r="G87" t="n">
-        <v>25.7061666666667</v>
+        <v>25.7076666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3537,7 +3617,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3553,7 +3633,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="C88" t="n">
         <v>25.8</v>
@@ -3562,13 +3642,13 @@
         <v>25.8</v>
       </c>
       <c r="E88" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="F88" t="n">
-        <v>4100</v>
+        <v>31070.32660271</v>
       </c>
       <c r="G88" t="n">
-        <v>25.7046666666667</v>
+        <v>25.7061666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3578,7 +3658,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3594,22 +3674,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>25.71</v>
+        <v>25.8</v>
       </c>
       <c r="C89" t="n">
-        <v>25.71</v>
+        <v>25.8</v>
       </c>
       <c r="D89" t="n">
-        <v>25.71</v>
+        <v>25.8</v>
       </c>
       <c r="E89" t="n">
-        <v>25.71</v>
+        <v>25.8</v>
       </c>
       <c r="F89" t="n">
-        <v>20000</v>
+        <v>4100</v>
       </c>
       <c r="G89" t="n">
-        <v>25.7016666666667</v>
+        <v>25.7046666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3619,7 +3699,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3635,22 +3715,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>25.8</v>
+        <v>25.71</v>
       </c>
       <c r="C90" t="n">
-        <v>25.8</v>
+        <v>25.71</v>
       </c>
       <c r="D90" t="n">
-        <v>25.8</v>
+        <v>25.71</v>
       </c>
       <c r="E90" t="n">
-        <v>25.8</v>
+        <v>25.71</v>
       </c>
       <c r="F90" t="n">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="G90" t="n">
-        <v>25.70016666666669</v>
+        <v>25.7016666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3660,7 +3740,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3676,22 +3756,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>25.79</v>
+        <v>25.8</v>
       </c>
       <c r="C91" t="n">
-        <v>25.79</v>
+        <v>25.8</v>
       </c>
       <c r="D91" t="n">
-        <v>25.79</v>
+        <v>25.8</v>
       </c>
       <c r="E91" t="n">
-        <v>25.79</v>
+        <v>25.8</v>
       </c>
       <c r="F91" t="n">
-        <v>3600.6513</v>
+        <v>20</v>
       </c>
       <c r="G91" t="n">
-        <v>25.69850000000002</v>
+        <v>25.70016666666669</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3701,7 +3781,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3717,22 +3797,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>25.71</v>
+        <v>25.79</v>
       </c>
       <c r="C92" t="n">
-        <v>25.71</v>
+        <v>25.79</v>
       </c>
       <c r="D92" t="n">
-        <v>25.71</v>
+        <v>25.79</v>
       </c>
       <c r="E92" t="n">
-        <v>25.71</v>
+        <v>25.79</v>
       </c>
       <c r="F92" t="n">
-        <v>15920.9074</v>
+        <v>3600.6513</v>
       </c>
       <c r="G92" t="n">
-        <v>25.69550000000002</v>
+        <v>25.69850000000002</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3742,7 +3822,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -3758,22 +3838,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>25.7</v>
+        <v>25.71</v>
       </c>
       <c r="C93" t="n">
-        <v>25.59</v>
+        <v>25.71</v>
       </c>
       <c r="D93" t="n">
-        <v>25.7</v>
+        <v>25.71</v>
       </c>
       <c r="E93" t="n">
-        <v>25.59</v>
+        <v>25.71</v>
       </c>
       <c r="F93" t="n">
-        <v>28424.4286</v>
+        <v>15920.9074</v>
       </c>
       <c r="G93" t="n">
-        <v>25.69050000000002</v>
+        <v>25.69550000000002</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3783,7 +3863,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -3799,22 +3879,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>25.79</v>
+        <v>25.7</v>
       </c>
       <c r="C94" t="n">
-        <v>25.79</v>
+        <v>25.59</v>
       </c>
       <c r="D94" t="n">
-        <v>25.79</v>
+        <v>25.7</v>
       </c>
       <c r="E94" t="n">
-        <v>25.79</v>
+        <v>25.59</v>
       </c>
       <c r="F94" t="n">
-        <v>9476.096100000001</v>
+        <v>28424.4286</v>
       </c>
       <c r="G94" t="n">
-        <v>25.68883333333335</v>
+        <v>25.69050000000002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3824,7 +3904,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -3852,10 +3932,10 @@
         <v>25.79</v>
       </c>
       <c r="F95" t="n">
-        <v>38400</v>
+        <v>9476.096100000001</v>
       </c>
       <c r="G95" t="n">
-        <v>25.68566666666668</v>
+        <v>25.68883333333335</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3865,7 +3945,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -3881,22 +3961,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>25.6</v>
+        <v>25.79</v>
       </c>
       <c r="C96" t="n">
-        <v>25.6</v>
+        <v>25.79</v>
       </c>
       <c r="D96" t="n">
-        <v>25.6</v>
+        <v>25.79</v>
       </c>
       <c r="E96" t="n">
-        <v>25.6</v>
+        <v>25.79</v>
       </c>
       <c r="F96" t="n">
-        <v>10131.0582</v>
+        <v>38400</v>
       </c>
       <c r="G96" t="n">
-        <v>25.68083333333335</v>
+        <v>25.68566666666668</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3906,7 +3986,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -3922,22 +4002,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>25.59</v>
+        <v>25.6</v>
       </c>
       <c r="C97" t="n">
-        <v>25.59</v>
+        <v>25.6</v>
       </c>
       <c r="D97" t="n">
-        <v>25.59</v>
+        <v>25.6</v>
       </c>
       <c r="E97" t="n">
-        <v>25.59</v>
+        <v>25.6</v>
       </c>
       <c r="F97" t="n">
-        <v>25562.8269</v>
+        <v>10131.0582</v>
       </c>
       <c r="G97" t="n">
-        <v>25.67583333333334</v>
+        <v>25.68083333333335</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3947,7 +4027,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -3963,22 +4043,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>25.68</v>
+        <v>25.59</v>
       </c>
       <c r="C98" t="n">
-        <v>25.68</v>
+        <v>25.59</v>
       </c>
       <c r="D98" t="n">
-        <v>25.68</v>
+        <v>25.59</v>
       </c>
       <c r="E98" t="n">
-        <v>25.68</v>
+        <v>25.59</v>
       </c>
       <c r="F98" t="n">
-        <v>280</v>
+        <v>25562.8269</v>
       </c>
       <c r="G98" t="n">
-        <v>25.67233333333334</v>
+        <v>25.67583333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3988,7 +4068,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4004,22 +4084,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>25.59</v>
+        <v>25.68</v>
       </c>
       <c r="C99" t="n">
-        <v>25.36</v>
+        <v>25.68</v>
       </c>
       <c r="D99" t="n">
-        <v>25.59</v>
+        <v>25.68</v>
       </c>
       <c r="E99" t="n">
-        <v>25.36</v>
+        <v>25.68</v>
       </c>
       <c r="F99" t="n">
-        <v>537633.6706</v>
+        <v>280</v>
       </c>
       <c r="G99" t="n">
-        <v>25.66216666666667</v>
+        <v>25.67233333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4029,7 +4109,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4045,22 +4125,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>25.5</v>
+        <v>25.59</v>
       </c>
       <c r="C100" t="n">
         <v>25.36</v>
       </c>
       <c r="D100" t="n">
-        <v>25.5</v>
+        <v>25.59</v>
       </c>
       <c r="E100" t="n">
         <v>25.36</v>
       </c>
       <c r="F100" t="n">
-        <v>74742.53999999999</v>
+        <v>537633.6706</v>
       </c>
       <c r="G100" t="n">
-        <v>25.65633333333334</v>
+        <v>25.66216666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4070,7 +4150,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4086,22 +4166,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>25.38</v>
+        <v>25.5</v>
       </c>
       <c r="C101" t="n">
-        <v>25.38</v>
+        <v>25.36</v>
       </c>
       <c r="D101" t="n">
-        <v>25.38</v>
+        <v>25.5</v>
       </c>
       <c r="E101" t="n">
-        <v>25.38</v>
+        <v>25.36</v>
       </c>
       <c r="F101" t="n">
-        <v>462.2981</v>
+        <v>74742.53999999999</v>
       </c>
       <c r="G101" t="n">
-        <v>25.65083333333334</v>
+        <v>25.65633333333334</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4111,7 +4191,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4127,22 +4207,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>25.37</v>
+        <v>25.38</v>
       </c>
       <c r="C102" t="n">
-        <v>25.37</v>
+        <v>25.38</v>
       </c>
       <c r="D102" t="n">
-        <v>25.37</v>
+        <v>25.38</v>
       </c>
       <c r="E102" t="n">
-        <v>25.37</v>
+        <v>25.38</v>
       </c>
       <c r="F102" t="n">
-        <v>974.8856</v>
+        <v>462.2981</v>
       </c>
       <c r="G102" t="n">
-        <v>25.64100000000001</v>
+        <v>25.65083333333334</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4152,7 +4232,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4168,22 +4248,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>25.38</v>
+        <v>25.37</v>
       </c>
       <c r="C103" t="n">
         <v>25.37</v>
       </c>
       <c r="D103" t="n">
-        <v>25.38</v>
+        <v>25.37</v>
       </c>
       <c r="E103" t="n">
         <v>25.37</v>
       </c>
       <c r="F103" t="n">
-        <v>59124</v>
+        <v>974.8856</v>
       </c>
       <c r="G103" t="n">
-        <v>25.63383333333334</v>
+        <v>25.64100000000001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4193,7 +4273,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4212,19 +4292,19 @@
         <v>25.38</v>
       </c>
       <c r="C104" t="n">
-        <v>25.38</v>
+        <v>25.37</v>
       </c>
       <c r="D104" t="n">
         <v>25.38</v>
       </c>
       <c r="E104" t="n">
-        <v>25.38</v>
+        <v>25.37</v>
       </c>
       <c r="F104" t="n">
-        <v>23450</v>
+        <v>59124</v>
       </c>
       <c r="G104" t="n">
-        <v>25.6295</v>
+        <v>25.63383333333334</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4234,7 +4314,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4250,22 +4330,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>25.39</v>
+        <v>25.38</v>
       </c>
       <c r="C105" t="n">
         <v>25.38</v>
       </c>
       <c r="D105" t="n">
-        <v>25.39</v>
+        <v>25.38</v>
       </c>
       <c r="E105" t="n">
         <v>25.38</v>
       </c>
       <c r="F105" t="n">
-        <v>37118.7161</v>
+        <v>23450</v>
       </c>
       <c r="G105" t="n">
-        <v>25.62416666666667</v>
+        <v>25.6295</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4275,7 +4355,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4291,22 +4371,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>25.58</v>
+        <v>25.39</v>
       </c>
       <c r="C106" t="n">
-        <v>25.58</v>
+        <v>25.38</v>
       </c>
       <c r="D106" t="n">
-        <v>25.58</v>
+        <v>25.39</v>
       </c>
       <c r="E106" t="n">
-        <v>25.58</v>
+        <v>25.38</v>
       </c>
       <c r="F106" t="n">
-        <v>7519.0557</v>
+        <v>37118.7161</v>
       </c>
       <c r="G106" t="n">
-        <v>25.61883333333333</v>
+        <v>25.62416666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4316,7 +4396,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4332,22 +4412,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>25.48</v>
+        <v>25.58</v>
       </c>
       <c r="C107" t="n">
-        <v>25.38</v>
+        <v>25.58</v>
       </c>
       <c r="D107" t="n">
-        <v>25.48</v>
+        <v>25.58</v>
       </c>
       <c r="E107" t="n">
-        <v>25.38</v>
+        <v>25.58</v>
       </c>
       <c r="F107" t="n">
-        <v>2000</v>
+        <v>7519.0557</v>
       </c>
       <c r="G107" t="n">
-        <v>25.61333333333334</v>
+        <v>25.61883333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4357,7 +4437,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4376,19 +4456,19 @@
         <v>25.48</v>
       </c>
       <c r="C108" t="n">
-        <v>25.39</v>
+        <v>25.38</v>
       </c>
       <c r="D108" t="n">
         <v>25.48</v>
       </c>
       <c r="E108" t="n">
-        <v>25.39</v>
+        <v>25.38</v>
       </c>
       <c r="F108" t="n">
-        <v>3751</v>
+        <v>2000</v>
       </c>
       <c r="G108" t="n">
-        <v>25.60783333333334</v>
+        <v>25.61333333333334</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4398,7 +4478,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4414,22 +4494,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>25.58</v>
+        <v>25.48</v>
       </c>
       <c r="C109" t="n">
-        <v>25.6</v>
+        <v>25.39</v>
       </c>
       <c r="D109" t="n">
-        <v>25.6</v>
+        <v>25.48</v>
       </c>
       <c r="E109" t="n">
-        <v>25.58</v>
+        <v>25.39</v>
       </c>
       <c r="F109" t="n">
-        <v>13424.7841</v>
+        <v>3751</v>
       </c>
       <c r="G109" t="n">
-        <v>25.60583333333334</v>
+        <v>25.60783333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4439,7 +4519,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4455,22 +4535,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>25.64</v>
+        <v>25.58</v>
       </c>
       <c r="C110" t="n">
-        <v>25.64</v>
+        <v>25.6</v>
       </c>
       <c r="D110" t="n">
-        <v>25.64</v>
+        <v>25.6</v>
       </c>
       <c r="E110" t="n">
-        <v>25.64</v>
+        <v>25.58</v>
       </c>
       <c r="F110" t="n">
-        <v>2266.5391</v>
+        <v>13424.7841</v>
       </c>
       <c r="G110" t="n">
-        <v>25.60166666666667</v>
+        <v>25.60583333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4480,7 +4560,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4496,22 +4576,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>25.6</v>
+        <v>25.64</v>
       </c>
       <c r="C111" t="n">
-        <v>25.38</v>
+        <v>25.64</v>
       </c>
       <c r="D111" t="n">
-        <v>25.6</v>
+        <v>25.64</v>
       </c>
       <c r="E111" t="n">
-        <v>25.38</v>
+        <v>25.64</v>
       </c>
       <c r="F111" t="n">
-        <v>70000</v>
+        <v>2266.5391</v>
       </c>
       <c r="G111" t="n">
-        <v>25.59366666666667</v>
+        <v>25.60166666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4521,7 +4601,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4537,22 +4617,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>25.62</v>
+        <v>25.6</v>
       </c>
       <c r="C112" t="n">
-        <v>25.62</v>
+        <v>25.38</v>
       </c>
       <c r="D112" t="n">
-        <v>25.62</v>
+        <v>25.6</v>
       </c>
       <c r="E112" t="n">
-        <v>25.62</v>
+        <v>25.38</v>
       </c>
       <c r="F112" t="n">
-        <v>15735.8383</v>
+        <v>70000</v>
       </c>
       <c r="G112" t="n">
-        <v>25.59216666666667</v>
+        <v>25.59366666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4562,7 +4642,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4578,22 +4658,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>25.5</v>
+        <v>25.62</v>
       </c>
       <c r="C113" t="n">
-        <v>25.39</v>
+        <v>25.62</v>
       </c>
       <c r="D113" t="n">
-        <v>25.5</v>
+        <v>25.62</v>
       </c>
       <c r="E113" t="n">
-        <v>25.39</v>
+        <v>25.62</v>
       </c>
       <c r="F113" t="n">
-        <v>55049.149</v>
+        <v>15735.8383</v>
       </c>
       <c r="G113" t="n">
-        <v>25.58683333333334</v>
+        <v>25.59216666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4603,7 +4683,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4619,19 +4699,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="C114" t="n">
-        <v>25.6</v>
+        <v>25.39</v>
       </c>
       <c r="D114" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="E114" t="n">
-        <v>25.6</v>
+        <v>25.39</v>
       </c>
       <c r="F114" t="n">
-        <v>2393.1387</v>
+        <v>55049.149</v>
       </c>
       <c r="G114" t="n">
         <v>25.58683333333334</v>
@@ -4644,7 +4724,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4672,7 +4752,7 @@
         <v>25.6</v>
       </c>
       <c r="F115" t="n">
-        <v>562.0999</v>
+        <v>2393.1387</v>
       </c>
       <c r="G115" t="n">
         <v>25.58683333333334</v>
@@ -4685,7 +4765,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4701,22 +4781,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>25.49</v>
+        <v>25.6</v>
       </c>
       <c r="C116" t="n">
-        <v>25.49</v>
+        <v>25.6</v>
       </c>
       <c r="D116" t="n">
-        <v>25.49</v>
+        <v>25.6</v>
       </c>
       <c r="E116" t="n">
-        <v>25.49</v>
+        <v>25.6</v>
       </c>
       <c r="F116" t="n">
-        <v>6125.3761</v>
+        <v>562.0999</v>
       </c>
       <c r="G116" t="n">
-        <v>25.585</v>
+        <v>25.58683333333334</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4726,7 +4806,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4745,19 +4825,19 @@
         <v>25.49</v>
       </c>
       <c r="C117" t="n">
-        <v>25.4</v>
+        <v>25.49</v>
       </c>
       <c r="D117" t="n">
         <v>25.49</v>
       </c>
       <c r="E117" t="n">
-        <v>25.4</v>
+        <v>25.49</v>
       </c>
       <c r="F117" t="n">
-        <v>51916.1713</v>
+        <v>6125.3761</v>
       </c>
       <c r="G117" t="n">
-        <v>25.58166666666667</v>
+        <v>25.585</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4767,7 +4847,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4783,22 +4863,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>25.44</v>
+        <v>25.49</v>
       </c>
       <c r="C118" t="n">
         <v>25.4</v>
       </c>
       <c r="D118" t="n">
-        <v>25.44</v>
+        <v>25.49</v>
       </c>
       <c r="E118" t="n">
         <v>25.4</v>
       </c>
       <c r="F118" t="n">
-        <v>20000</v>
+        <v>51916.1713</v>
       </c>
       <c r="G118" t="n">
-        <v>25.57833333333334</v>
+        <v>25.58166666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4808,7 +4888,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4824,22 +4904,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>25.6</v>
+        <v>25.44</v>
       </c>
       <c r="C119" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="D119" t="n">
-        <v>25.6</v>
+        <v>25.44</v>
       </c>
       <c r="E119" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="F119" t="n">
-        <v>5257.0912</v>
+        <v>20000</v>
       </c>
       <c r="G119" t="n">
-        <v>25.57733333333334</v>
+        <v>25.57833333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4849,7 +4929,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -4865,22 +4945,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>25.55</v>
+        <v>25.6</v>
       </c>
       <c r="C120" t="n">
-        <v>25.55</v>
+        <v>25.6</v>
       </c>
       <c r="D120" t="n">
-        <v>25.55</v>
+        <v>25.6</v>
       </c>
       <c r="E120" t="n">
-        <v>25.55</v>
+        <v>25.6</v>
       </c>
       <c r="F120" t="n">
-        <v>1144.1549</v>
+        <v>5257.0912</v>
       </c>
       <c r="G120" t="n">
-        <v>25.57816666666668</v>
+        <v>25.57733333333334</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4890,7 +4970,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -4906,22 +4986,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>25.48</v>
+        <v>25.55</v>
       </c>
       <c r="C121" t="n">
-        <v>25.48</v>
+        <v>25.55</v>
       </c>
       <c r="D121" t="n">
-        <v>25.48</v>
+        <v>25.55</v>
       </c>
       <c r="E121" t="n">
-        <v>25.4</v>
+        <v>25.55</v>
       </c>
       <c r="F121" t="n">
-        <v>120799.5547</v>
+        <v>1144.1549</v>
       </c>
       <c r="G121" t="n">
-        <v>25.57466666666668</v>
+        <v>25.57816666666668</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4931,7 +5011,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -4947,22 +5027,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>25.39</v>
+        <v>25.48</v>
       </c>
       <c r="C122" t="n">
-        <v>25.39</v>
+        <v>25.48</v>
       </c>
       <c r="D122" t="n">
-        <v>25.39</v>
+        <v>25.48</v>
       </c>
       <c r="E122" t="n">
-        <v>25.39</v>
+        <v>25.4</v>
       </c>
       <c r="F122" t="n">
-        <v>1855.8451</v>
+        <v>120799.5547</v>
       </c>
       <c r="G122" t="n">
-        <v>25.56966666666667</v>
+        <v>25.57466666666668</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4972,7 +5052,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -4988,22 +5068,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>25.4</v>
+        <v>25.39</v>
       </c>
       <c r="C123" t="n">
-        <v>25.4</v>
+        <v>25.39</v>
       </c>
       <c r="D123" t="n">
-        <v>25.4</v>
+        <v>25.39</v>
       </c>
       <c r="E123" t="n">
-        <v>25.4</v>
+        <v>25.39</v>
       </c>
       <c r="F123" t="n">
-        <v>21911.94</v>
+        <v>1855.8451</v>
       </c>
       <c r="G123" t="n">
-        <v>25.56800000000001</v>
+        <v>25.56966666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5013,7 +5093,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5029,22 +5109,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>25.39</v>
+        <v>25.4</v>
       </c>
       <c r="C124" t="n">
-        <v>25.39</v>
+        <v>25.4</v>
       </c>
       <c r="D124" t="n">
-        <v>25.39</v>
+        <v>25.4</v>
       </c>
       <c r="E124" t="n">
-        <v>25.39</v>
+        <v>25.4</v>
       </c>
       <c r="F124" t="n">
-        <v>6594.7</v>
+        <v>21911.94</v>
       </c>
       <c r="G124" t="n">
-        <v>25.56616666666668</v>
+        <v>25.56800000000001</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5054,7 +5134,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5070,22 +5150,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>25.6</v>
+        <v>25.39</v>
       </c>
       <c r="C125" t="n">
-        <v>25.6</v>
+        <v>25.39</v>
       </c>
       <c r="D125" t="n">
-        <v>25.6</v>
+        <v>25.39</v>
       </c>
       <c r="E125" t="n">
-        <v>25.6</v>
+        <v>25.39</v>
       </c>
       <c r="F125" t="n">
-        <v>4180.8089</v>
+        <v>6594.7</v>
       </c>
       <c r="G125" t="n">
-        <v>25.56783333333334</v>
+        <v>25.56616666666668</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5095,7 +5175,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5114,19 +5194,19 @@
         <v>25.6</v>
       </c>
       <c r="C126" t="n">
-        <v>25.39</v>
+        <v>25.6</v>
       </c>
       <c r="D126" t="n">
         <v>25.6</v>
       </c>
       <c r="E126" t="n">
-        <v>25.39</v>
+        <v>25.6</v>
       </c>
       <c r="F126" t="n">
-        <v>10900</v>
+        <v>4180.8089</v>
       </c>
       <c r="G126" t="n">
-        <v>25.56600000000001</v>
+        <v>25.56783333333334</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5136,7 +5216,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5155,19 +5235,19 @@
         <v>25.6</v>
       </c>
       <c r="C127" t="n">
-        <v>25.6</v>
+        <v>25.39</v>
       </c>
       <c r="D127" t="n">
         <v>25.6</v>
       </c>
       <c r="E127" t="n">
-        <v>25.6</v>
+        <v>25.39</v>
       </c>
       <c r="F127" t="n">
-        <v>2474.0522</v>
+        <v>10900</v>
       </c>
       <c r="G127" t="n">
-        <v>25.56766666666668</v>
+        <v>25.56600000000001</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5177,7 +5257,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5193,22 +5273,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>25.68</v>
+        <v>25.6</v>
       </c>
       <c r="C128" t="n">
-        <v>25.68</v>
+        <v>25.6</v>
       </c>
       <c r="D128" t="n">
-        <v>25.68</v>
+        <v>25.6</v>
       </c>
       <c r="E128" t="n">
-        <v>25.68</v>
+        <v>25.6</v>
       </c>
       <c r="F128" t="n">
-        <v>1947.04049844</v>
+        <v>2474.0522</v>
       </c>
       <c r="G128" t="n">
-        <v>25.57066666666668</v>
+        <v>25.56766666666668</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5218,7 +5298,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5234,22 +5314,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>25.6</v>
+        <v>25.68</v>
       </c>
       <c r="C129" t="n">
-        <v>25.41</v>
+        <v>25.68</v>
       </c>
       <c r="D129" t="n">
-        <v>25.6</v>
+        <v>25.68</v>
       </c>
       <c r="E129" t="n">
-        <v>25.41</v>
+        <v>25.68</v>
       </c>
       <c r="F129" t="n">
-        <v>5000</v>
+        <v>1947.04049844</v>
       </c>
       <c r="G129" t="n">
-        <v>25.56916666666668</v>
+        <v>25.57066666666668</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5259,7 +5339,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5275,22 +5355,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>25.51</v>
+        <v>25.6</v>
       </c>
       <c r="C130" t="n">
-        <v>25.51</v>
+        <v>25.41</v>
       </c>
       <c r="D130" t="n">
-        <v>25.51</v>
+        <v>25.6</v>
       </c>
       <c r="E130" t="n">
-        <v>25.51</v>
+        <v>25.41</v>
       </c>
       <c r="F130" t="n">
-        <v>2917.3869</v>
+        <v>5000</v>
       </c>
       <c r="G130" t="n">
-        <v>25.56933333333335</v>
+        <v>25.56916666666668</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5300,7 +5380,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5328,10 +5408,10 @@
         <v>25.51</v>
       </c>
       <c r="F131" t="n">
-        <v>145.7233</v>
+        <v>2917.3869</v>
       </c>
       <c r="G131" t="n">
-        <v>25.56983333333335</v>
+        <v>25.56933333333335</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5341,7 +5421,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5369,10 +5449,10 @@
         <v>25.51</v>
       </c>
       <c r="F132" t="n">
-        <v>3783.016</v>
+        <v>145.7233</v>
       </c>
       <c r="G132" t="n">
-        <v>25.56683333333335</v>
+        <v>25.56983333333335</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5382,7 +5462,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5398,22 +5478,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>25.6</v>
+        <v>25.51</v>
       </c>
       <c r="C133" t="n">
-        <v>25.6</v>
+        <v>25.51</v>
       </c>
       <c r="D133" t="n">
-        <v>25.6</v>
+        <v>25.51</v>
       </c>
       <c r="E133" t="n">
-        <v>25.6</v>
+        <v>25.51</v>
       </c>
       <c r="F133" t="n">
-        <v>2368.7679</v>
+        <v>3783.016</v>
       </c>
       <c r="G133" t="n">
-        <v>25.56533333333334</v>
+        <v>25.56683333333335</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5423,7 +5503,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5439,22 +5519,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>25.68</v>
+        <v>25.6</v>
       </c>
       <c r="C134" t="n">
-        <v>25.68</v>
+        <v>25.6</v>
       </c>
       <c r="D134" t="n">
-        <v>25.68</v>
+        <v>25.6</v>
       </c>
       <c r="E134" t="n">
-        <v>25.68</v>
+        <v>25.6</v>
       </c>
       <c r="F134" t="n">
-        <v>144.7976</v>
+        <v>2368.7679</v>
       </c>
       <c r="G134" t="n">
-        <v>25.56516666666668</v>
+        <v>25.56533333333334</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5464,7 +5544,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5483,19 +5563,19 @@
         <v>25.68</v>
       </c>
       <c r="C135" t="n">
-        <v>25.72</v>
+        <v>25.68</v>
       </c>
       <c r="D135" t="n">
-        <v>25.72</v>
+        <v>25.68</v>
       </c>
       <c r="E135" t="n">
         <v>25.68</v>
       </c>
       <c r="F135" t="n">
-        <v>12508</v>
+        <v>144.7976</v>
       </c>
       <c r="G135" t="n">
-        <v>25.56383333333334</v>
+        <v>25.56516666666668</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5505,7 +5585,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5521,22 +5601,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="C136" t="n">
         <v>25.72</v>
       </c>
-      <c r="C136" t="n">
-        <v>25.82</v>
-      </c>
       <c r="D136" t="n">
-        <v>25.82</v>
+        <v>25.72</v>
       </c>
       <c r="E136" t="n">
-        <v>25.72</v>
+        <v>25.68</v>
       </c>
       <c r="F136" t="n">
-        <v>15344</v>
+        <v>12508</v>
       </c>
       <c r="G136" t="n">
-        <v>25.56433333333334</v>
+        <v>25.56383333333334</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5546,7 +5626,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5565,19 +5645,19 @@
         <v>25.72</v>
       </c>
       <c r="C137" t="n">
-        <v>25.83</v>
+        <v>25.82</v>
       </c>
       <c r="D137" t="n">
-        <v>25.83</v>
+        <v>25.82</v>
       </c>
       <c r="E137" t="n">
         <v>25.72</v>
       </c>
       <c r="F137" t="n">
-        <v>9850.5461782</v>
+        <v>15344</v>
       </c>
       <c r="G137" t="n">
-        <v>25.56500000000001</v>
+        <v>25.56433333333334</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5587,7 +5667,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5603,7 +5683,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>25.83</v>
+        <v>25.72</v>
       </c>
       <c r="C138" t="n">
         <v>25.83</v>
@@ -5612,13 +5692,13 @@
         <v>25.83</v>
       </c>
       <c r="E138" t="n">
-        <v>25.83</v>
+        <v>25.72</v>
       </c>
       <c r="F138" t="n">
-        <v>14040</v>
+        <v>9850.5461782</v>
       </c>
       <c r="G138" t="n">
-        <v>25.56716666666667</v>
+        <v>25.56500000000001</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5628,7 +5708,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5644,22 +5724,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>25.53</v>
+        <v>25.83</v>
       </c>
       <c r="C139" t="n">
-        <v>25.53</v>
+        <v>25.83</v>
       </c>
       <c r="D139" t="n">
-        <v>25.53</v>
+        <v>25.83</v>
       </c>
       <c r="E139" t="n">
-        <v>25.53</v>
+        <v>25.83</v>
       </c>
       <c r="F139" t="n">
-        <v>20</v>
+        <v>14040</v>
       </c>
       <c r="G139" t="n">
-        <v>25.56750000000001</v>
+        <v>25.56716666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5669,7 +5749,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5685,22 +5765,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>25.64</v>
+        <v>25.53</v>
       </c>
       <c r="C140" t="n">
-        <v>25.64</v>
+        <v>25.53</v>
       </c>
       <c r="D140" t="n">
-        <v>25.64</v>
+        <v>25.53</v>
       </c>
       <c r="E140" t="n">
-        <v>25.64</v>
+        <v>25.53</v>
       </c>
       <c r="F140" t="n">
-        <v>16140</v>
+        <v>20</v>
       </c>
       <c r="G140" t="n">
-        <v>25.56983333333334</v>
+        <v>25.56750000000001</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5710,7 +5790,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5726,22 +5806,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>25.68</v>
+        <v>25.64</v>
       </c>
       <c r="C141" t="n">
-        <v>25.68</v>
+        <v>25.64</v>
       </c>
       <c r="D141" t="n">
-        <v>25.68</v>
+        <v>25.64</v>
       </c>
       <c r="E141" t="n">
-        <v>25.68</v>
+        <v>25.64</v>
       </c>
       <c r="F141" t="n">
-        <v>1160</v>
+        <v>16140</v>
       </c>
       <c r="G141" t="n">
-        <v>25.57116666666668</v>
+        <v>25.56983333333334</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5751,7 +5831,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5767,22 +5847,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>25.65</v>
+        <v>25.68</v>
       </c>
       <c r="C142" t="n">
-        <v>25.56</v>
+        <v>25.68</v>
       </c>
       <c r="D142" t="n">
-        <v>25.65</v>
+        <v>25.68</v>
       </c>
       <c r="E142" t="n">
-        <v>25.56</v>
+        <v>25.68</v>
       </c>
       <c r="F142" t="n">
-        <v>20813.4873</v>
+        <v>1160</v>
       </c>
       <c r="G142" t="n">
-        <v>25.57050000000001</v>
+        <v>25.57116666666668</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5792,7 +5872,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5808,19 +5888,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>25.6</v>
+        <v>25.65</v>
       </c>
       <c r="C143" t="n">
-        <v>25.6</v>
+        <v>25.56</v>
       </c>
       <c r="D143" t="n">
-        <v>25.6</v>
+        <v>25.65</v>
       </c>
       <c r="E143" t="n">
-        <v>25.6</v>
+        <v>25.56</v>
       </c>
       <c r="F143" t="n">
-        <v>678</v>
+        <v>20813.4873</v>
       </c>
       <c r="G143" t="n">
         <v>25.57050000000001</v>
@@ -5829,19 +5909,19 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>1</v>
+        <v>0.9934374999999999</v>
       </c>
     </row>
     <row r="144">
@@ -5852,19 +5932,19 @@
         <v>25.6</v>
       </c>
       <c r="C144" t="n">
-        <v>25.54</v>
+        <v>25.6</v>
       </c>
       <c r="D144" t="n">
         <v>25.6</v>
       </c>
       <c r="E144" t="n">
-        <v>25.54</v>
+        <v>25.6</v>
       </c>
       <c r="F144" t="n">
-        <v>20135.4873</v>
+        <v>678</v>
       </c>
       <c r="G144" t="n">
-        <v>25.56950000000001</v>
+        <v>25.57050000000001</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5873,14 +5953,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5902,10 +5976,10 @@
         <v>25.54</v>
       </c>
       <c r="F145" t="n">
-        <v>17624.3129</v>
+        <v>20135.4873</v>
       </c>
       <c r="G145" t="n">
-        <v>25.56683333333335</v>
+        <v>25.56950000000001</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5914,14 +5988,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5931,22 +5999,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>25.53</v>
+        <v>25.6</v>
       </c>
       <c r="C146" t="n">
-        <v>25.43</v>
+        <v>25.54</v>
       </c>
       <c r="D146" t="n">
-        <v>25.53</v>
+        <v>25.6</v>
       </c>
       <c r="E146" t="n">
-        <v>25.43</v>
+        <v>25.54</v>
       </c>
       <c r="F146" t="n">
-        <v>40000</v>
+        <v>17624.3129</v>
       </c>
       <c r="G146" t="n">
-        <v>25.56233333333335</v>
+        <v>25.56683333333335</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5955,14 +6023,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5972,22 +6034,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>25.6</v>
+        <v>25.53</v>
       </c>
       <c r="C147" t="n">
-        <v>25.6</v>
+        <v>25.43</v>
       </c>
       <c r="D147" t="n">
-        <v>25.6</v>
+        <v>25.53</v>
       </c>
       <c r="E147" t="n">
-        <v>25.6</v>
+        <v>25.43</v>
       </c>
       <c r="F147" t="n">
-        <v>33.4336</v>
+        <v>40000</v>
       </c>
       <c r="G147" t="n">
-        <v>25.55900000000001</v>
+        <v>25.56233333333335</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5996,14 +6058,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6025,10 +6081,10 @@
         <v>25.6</v>
       </c>
       <c r="F148" t="n">
-        <v>68358.6966</v>
+        <v>33.4336</v>
       </c>
       <c r="G148" t="n">
-        <v>25.55566666666668</v>
+        <v>25.55900000000001</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6037,14 +6093,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6066,10 +6116,10 @@
         <v>25.6</v>
       </c>
       <c r="F149" t="n">
-        <v>6357.4884</v>
+        <v>68358.6966</v>
       </c>
       <c r="G149" t="n">
-        <v>25.55383333333334</v>
+        <v>25.55566666666668</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6078,14 +6128,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6107,10 +6151,10 @@
         <v>25.6</v>
       </c>
       <c r="F150" t="n">
-        <v>11498.5559</v>
+        <v>6357.4884</v>
       </c>
       <c r="G150" t="n">
-        <v>25.55050000000001</v>
+        <v>25.55383333333334</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6119,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6136,22 +6174,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>25.81</v>
+        <v>25.6</v>
       </c>
       <c r="C151" t="n">
-        <v>25.81</v>
+        <v>25.6</v>
       </c>
       <c r="D151" t="n">
-        <v>25.81</v>
+        <v>25.6</v>
       </c>
       <c r="E151" t="n">
-        <v>25.81</v>
+        <v>25.6</v>
       </c>
       <c r="F151" t="n">
-        <v>28.2443</v>
+        <v>11498.5559</v>
       </c>
       <c r="G151" t="n">
-        <v>25.55083333333334</v>
+        <v>25.55050000000001</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6160,14 +6198,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6177,22 +6209,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>25.6</v>
+        <v>25.81</v>
       </c>
       <c r="C152" t="n">
-        <v>25.5</v>
+        <v>25.81</v>
       </c>
       <c r="D152" t="n">
-        <v>25.6</v>
+        <v>25.81</v>
       </c>
       <c r="E152" t="n">
-        <v>25.5</v>
+        <v>25.81</v>
       </c>
       <c r="F152" t="n">
-        <v>32882</v>
+        <v>28.2443</v>
       </c>
       <c r="G152" t="n">
-        <v>25.54733333333334</v>
+        <v>25.55083333333334</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6201,14 +6233,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6221,19 +6247,19 @@
         <v>25.6</v>
       </c>
       <c r="C153" t="n">
-        <v>25.71</v>
+        <v>25.5</v>
       </c>
       <c r="D153" t="n">
-        <v>25.71</v>
+        <v>25.6</v>
       </c>
       <c r="E153" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="F153" t="n">
-        <v>7785.27592699</v>
+        <v>32882</v>
       </c>
       <c r="G153" t="n">
-        <v>25.54933333333334</v>
+        <v>25.54733333333334</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6242,14 +6268,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6259,22 +6279,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>25.81</v>
+        <v>25.6</v>
       </c>
       <c r="C154" t="n">
-        <v>25.81</v>
+        <v>25.71</v>
       </c>
       <c r="D154" t="n">
-        <v>25.81</v>
+        <v>25.71</v>
       </c>
       <c r="E154" t="n">
-        <v>25.81</v>
+        <v>25.6</v>
       </c>
       <c r="F154" t="n">
-        <v>1937.23363037</v>
+        <v>7785.27592699</v>
       </c>
       <c r="G154" t="n">
-        <v>25.54966666666667</v>
+        <v>25.54933333333334</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6283,14 +6303,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6312,27 +6326,56 @@
         <v>25.81</v>
       </c>
       <c r="F155" t="n">
+        <v>1937.23363037</v>
+      </c>
+      <c r="G155" t="n">
+        <v>25.54966666666667</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="C156" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="D156" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="E156" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="F156" t="n">
         <v>10595.61496963</v>
       </c>
-      <c r="G155" t="n">
+      <c r="G156" t="n">
         <v>25.55000000000001</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest HDAC.xlsx
+++ b/BackTest/2020-01-16 BackTest HDAC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M156"/>
+  <dimension ref="A1:N166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>2405.4886</v>
       </c>
       <c r="G2" t="n">
+        <v>25.58866666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>25.63100000000001</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1451.9018</v>
       </c>
       <c r="G3" t="n">
+        <v>25.594</v>
+      </c>
+      <c r="H3" t="n">
         <v>25.62600000000001</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>1000</v>
       </c>
       <c r="G4" t="n">
+        <v>25.59933333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>25.62550000000001</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>3214.2036</v>
       </c>
       <c r="G5" t="n">
+        <v>25.59666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>25.62400000000001</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>68119.2668</v>
       </c>
       <c r="G6" t="n">
+        <v>25.594</v>
+      </c>
+      <c r="H6" t="n">
         <v>25.62250000000001</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>2405.4886</v>
       </c>
       <c r="G7" t="n">
+        <v>25.58533333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>25.62250000000001</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>33000</v>
       </c>
       <c r="G8" t="n">
+        <v>25.59466666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>25.62416666666668</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>1577.3384</v>
       </c>
       <c r="G9" t="n">
+        <v>25.60533333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>25.62100000000001</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>3292.3355</v>
       </c>
       <c r="G10" t="n">
+        <v>25.60866666666666</v>
+      </c>
+      <c r="H10" t="n">
         <v>25.61516666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>5000</v>
       </c>
       <c r="G11" t="n">
+        <v>25.61533333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>25.60933333333334</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>1500</v>
       </c>
       <c r="G12" t="n">
+        <v>25.612</v>
+      </c>
+      <c r="H12" t="n">
         <v>25.60433333333334</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>4211.6249</v>
       </c>
       <c r="G13" t="n">
+        <v>25.60866666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>25.59933333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>101686.3379</v>
       </c>
       <c r="G14" t="n">
+        <v>25.60533333333334</v>
+      </c>
+      <c r="H14" t="n">
         <v>25.59766666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>100000</v>
       </c>
       <c r="G15" t="n">
+        <v>25.60800000000001</v>
+      </c>
+      <c r="H15" t="n">
         <v>25.59</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>10545.8906</v>
       </c>
       <c r="G16" t="n">
+        <v>25.60066666666668</v>
+      </c>
+      <c r="H16" t="n">
         <v>25.58233333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>4043.4581</v>
       </c>
       <c r="G17" t="n">
+        <v>25.59600000000001</v>
+      </c>
+      <c r="H17" t="n">
         <v>25.57833333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>55935.5738</v>
       </c>
       <c r="G18" t="n">
+        <v>25.59000000000001</v>
+      </c>
+      <c r="H18" t="n">
         <v>25.574</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>55935.5739</v>
       </c>
       <c r="G19" t="n">
+        <v>25.58066666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>25.56883333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>7791.5548803</v>
       </c>
       <c r="G20" t="n">
+        <v>25.58266666666668</v>
+      </c>
+      <c r="H20" t="n">
         <v>25.56666666666666</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>17319.9848</v>
       </c>
       <c r="G21" t="n">
+        <v>25.57933333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>25.56316666666666</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>51244.4744</v>
       </c>
       <c r="G22" t="n">
+        <v>25.56866666666668</v>
+      </c>
+      <c r="H22" t="n">
         <v>25.56099999999999</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>177171.7724</v>
       </c>
       <c r="G23" t="n">
+        <v>25.55266666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>25.55783333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>47828.2276</v>
       </c>
       <c r="G24" t="n">
+        <v>25.53600000000001</v>
+      </c>
+      <c r="H24" t="n">
         <v>25.55466666666666</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>34216.40184885</v>
       </c>
       <c r="G25" t="n">
+        <v>25.55533333333334</v>
+      </c>
+      <c r="H25" t="n">
         <v>25.55833333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>8660</v>
       </c>
       <c r="G26" t="n">
+        <v>25.568</v>
+      </c>
+      <c r="H26" t="n">
         <v>25.56116666666666</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>10627.8545</v>
       </c>
       <c r="G27" t="n">
+        <v>25.58066666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>25.56416666666666</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>39246.43449251</v>
       </c>
       <c r="G28" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H28" t="n">
         <v>25.5695</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>9370.3886</v>
       </c>
       <c r="G29" t="n">
+        <v>25.61933333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>25.575</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>100</v>
       </c>
       <c r="G30" t="n">
+        <v>25.64266666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>25.58066666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>14.7426</v>
       </c>
       <c r="G31" t="n">
+        <v>25.666</v>
+      </c>
+      <c r="H31" t="n">
         <v>25.5865</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>3546.6081</v>
       </c>
       <c r="G32" t="n">
+        <v>25.68999999999999</v>
+      </c>
+      <c r="H32" t="n">
         <v>25.59266666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>17789.9203</v>
       </c>
       <c r="G33" t="n">
+        <v>25.71533333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>25.59883333333334</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>46179.7245</v>
       </c>
       <c r="G34" t="n">
+        <v>25.74399999999999</v>
+      </c>
+      <c r="H34" t="n">
         <v>25.60450000000001</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>50043.8793</v>
       </c>
       <c r="G35" t="n">
+        <v>25.76733333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>25.61016666666668</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>51536.8448</v>
       </c>
       <c r="G36" t="n">
+        <v>25.802</v>
+      </c>
+      <c r="H36" t="n">
         <v>25.61650000000002</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>6389.4056</v>
       </c>
       <c r="G37" t="n">
+        <v>25.82533333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>25.62133333333335</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>6867.5953</v>
       </c>
       <c r="G38" t="n">
+        <v>25.85399999999999</v>
+      </c>
+      <c r="H38" t="n">
         <v>25.62700000000002</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>1644.3638</v>
       </c>
       <c r="G39" t="n">
+        <v>25.88266666666666</v>
+      </c>
+      <c r="H39" t="n">
         <v>25.63266666666669</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>1225.6563</v>
       </c>
       <c r="G40" t="n">
+        <v>25.88799999999999</v>
+      </c>
+      <c r="H40" t="n">
         <v>25.64016666666669</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>9943.401</v>
       </c>
       <c r="G41" t="n">
+        <v>25.88266666666666</v>
+      </c>
+      <c r="H41" t="n">
         <v>25.64333333333336</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>22494.2292</v>
       </c>
       <c r="G42" t="n">
+        <v>25.87733333333332</v>
+      </c>
+      <c r="H42" t="n">
         <v>25.64800000000002</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>3857.53534175</v>
       </c>
       <c r="G43" t="n">
+        <v>25.88199999999999</v>
+      </c>
+      <c r="H43" t="n">
         <v>25.65783333333336</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>254.2835</v>
       </c>
       <c r="G44" t="n">
+        <v>25.87599999999999</v>
+      </c>
+      <c r="H44" t="n">
         <v>25.66500000000003</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>36932.8064</v>
       </c>
       <c r="G45" t="n">
+        <v>25.85933333333332</v>
+      </c>
+      <c r="H45" t="n">
         <v>25.66850000000003</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>8190.0689</v>
       </c>
       <c r="G46" t="n">
+        <v>25.84666666666666</v>
+      </c>
+      <c r="H46" t="n">
         <v>25.67300000000003</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>1563.1628</v>
       </c>
       <c r="G47" t="n">
+        <v>25.84733333333332</v>
+      </c>
+      <c r="H47" t="n">
         <v>25.68050000000003</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>89228.34050000001</v>
       </c>
       <c r="G48" t="n">
+        <v>25.83533333333332</v>
+      </c>
+      <c r="H48" t="n">
         <v>25.6836666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>34233.5046</v>
       </c>
       <c r="G49" t="n">
+        <v>25.82399999999999</v>
+      </c>
+      <c r="H49" t="n">
         <v>25.68700000000003</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>8766.4954</v>
       </c>
       <c r="G50" t="n">
+        <v>25.81266666666666</v>
+      </c>
+      <c r="H50" t="n">
         <v>25.68983333333336</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>3862.49517188</v>
       </c>
       <c r="G51" t="n">
+        <v>25.80666666666666</v>
+      </c>
+      <c r="H51" t="n">
         <v>25.69550000000003</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>43482.1449</v>
       </c>
       <c r="G52" t="n">
+        <v>25.80466666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>25.69600000000003</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>66681.9476</v>
       </c>
       <c r="G53" t="n">
+        <v>25.79266666666666</v>
+      </c>
+      <c r="H53" t="n">
         <v>25.69850000000003</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>60927.6648</v>
       </c>
       <c r="G54" t="n">
+        <v>25.78066666666666</v>
+      </c>
+      <c r="H54" t="n">
         <v>25.7011666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>200813.3938</v>
       </c>
       <c r="G55" t="n">
+        <v>25.75599999999999</v>
+      </c>
+      <c r="H55" t="n">
         <v>25.70200000000004</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>56919.5195</v>
       </c>
       <c r="G56" t="n">
+        <v>25.74866666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>25.7036666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,22 +2543,21 @@
         <v>50000</v>
       </c>
       <c r="G57" t="n">
+        <v>25.74133333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>25.70283333333337</v>
       </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K57" t="n">
-        <v>25.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2412,26 +2581,21 @@
         <v>1930.502</v>
       </c>
       <c r="G58" t="n">
+        <v>25.71733333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>25.70200000000003</v>
       </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K58" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2455,26 +2619,21 @@
         <v>10000</v>
       </c>
       <c r="G59" t="n">
+        <v>25.704</v>
+      </c>
+      <c r="H59" t="n">
         <v>25.70116666666669</v>
       </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K59" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2498,22 +2657,21 @@
         <v>19162.1456</v>
       </c>
       <c r="G60" t="n">
+        <v>25.70533333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>25.70383333333336</v>
       </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K60" t="n">
-        <v>25.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2537,24 +2695,21 @@
         <v>6746.9375</v>
       </c>
       <c r="G61" t="n">
+        <v>25.69200000000001</v>
+      </c>
+      <c r="H61" t="n">
         <v>25.70133333333336</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2578,24 +2733,21 @@
         <v>37900.2942</v>
       </c>
       <c r="G62" t="n">
+        <v>25.67800000000001</v>
+      </c>
+      <c r="H62" t="n">
         <v>25.70283333333336</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2619,24 +2771,21 @@
         <v>2826.3897</v>
       </c>
       <c r="G63" t="n">
+        <v>25.67666666666668</v>
+      </c>
+      <c r="H63" t="n">
         <v>25.70433333333336</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2660,24 +2809,21 @@
         <v>2144.0028</v>
       </c>
       <c r="G64" t="n">
+        <v>25.66200000000001</v>
+      </c>
+      <c r="H64" t="n">
         <v>25.7026666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2701,24 +2847,21 @@
         <v>1205.7552</v>
       </c>
       <c r="G65" t="n">
+        <v>25.64733333333334</v>
+      </c>
+      <c r="H65" t="n">
         <v>25.70250000000003</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2742,24 +2885,21 @@
         <v>12000</v>
       </c>
       <c r="G66" t="n">
+        <v>25.62133333333334</v>
+      </c>
+      <c r="H66" t="n">
         <v>25.70233333333336</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2783,26 +2923,21 @@
         <v>11747.1555</v>
       </c>
       <c r="G67" t="n">
+        <v>25.59733333333334</v>
+      </c>
+      <c r="H67" t="n">
         <v>25.69900000000003</v>
       </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K67" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2826,26 +2961,21 @@
         <v>1000</v>
       </c>
       <c r="G68" t="n">
+        <v>25.58333333333335</v>
+      </c>
+      <c r="H68" t="n">
         <v>25.6956666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K68" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2869,24 +2999,21 @@
         <v>4096.539</v>
       </c>
       <c r="G69" t="n">
+        <v>25.56933333333335</v>
+      </c>
+      <c r="H69" t="n">
         <v>25.6921666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2910,24 +3037,21 @@
         <v>73069.41280000001</v>
       </c>
       <c r="G70" t="n">
+        <v>25.56266666666668</v>
+      </c>
+      <c r="H70" t="n">
         <v>25.69050000000003</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2951,24 +3075,21 @@
         <v>8093</v>
       </c>
       <c r="G71" t="n">
+        <v>25.55600000000001</v>
+      </c>
+      <c r="H71" t="n">
         <v>25.68883333333337</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2992,24 +3113,21 @@
         <v>949.218</v>
       </c>
       <c r="G72" t="n">
+        <v>25.54800000000001</v>
+      </c>
+      <c r="H72" t="n">
         <v>25.68683333333337</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3033,24 +3151,21 @@
         <v>20</v>
       </c>
       <c r="G73" t="n">
+        <v>25.55400000000001</v>
+      </c>
+      <c r="H73" t="n">
         <v>25.68833333333337</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3074,24 +3189,21 @@
         <v>413.7364</v>
       </c>
       <c r="G74" t="n">
+        <v>25.56000000000001</v>
+      </c>
+      <c r="H74" t="n">
         <v>25.68983333333337</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3115,24 +3227,21 @@
         <v>25784.2358</v>
       </c>
       <c r="G75" t="n">
+        <v>25.562</v>
+      </c>
+      <c r="H75" t="n">
         <v>25.69233333333337</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3156,24 +3265,21 @@
         <v>13785.71123604</v>
       </c>
       <c r="G76" t="n">
+        <v>25.582</v>
+      </c>
+      <c r="H76" t="n">
         <v>25.69666666666671</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3197,24 +3303,21 @@
         <v>3465.6176</v>
       </c>
       <c r="G77" t="n">
+        <v>25.58866666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>25.70100000000004</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3238,24 +3341,21 @@
         <v>1000</v>
       </c>
       <c r="G78" t="n">
+        <v>25.59533333333334</v>
+      </c>
+      <c r="H78" t="n">
         <v>25.70566666666671</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3279,24 +3379,21 @@
         <v>15115.7344</v>
       </c>
       <c r="G79" t="n">
+        <v>25.60866666666668</v>
+      </c>
+      <c r="H79" t="n">
         <v>25.70966666666671</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3320,24 +3417,21 @@
         <v>10000</v>
       </c>
       <c r="G80" t="n">
+        <v>25.60933333333334</v>
+      </c>
+      <c r="H80" t="n">
         <v>25.70916666666671</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3361,24 +3455,21 @@
         <v>25225.6499</v>
       </c>
       <c r="G81" t="n">
+        <v>25.60933333333334</v>
+      </c>
+      <c r="H81" t="n">
         <v>25.70983333333337</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,24 +3493,21 @@
         <v>1225.6563</v>
       </c>
       <c r="G82" t="n">
+        <v>25.61600000000001</v>
+      </c>
+      <c r="H82" t="n">
         <v>25.71083333333337</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3443,24 +3531,21 @@
         <v>9603.114600000001</v>
       </c>
       <c r="G83" t="n">
+        <v>25.62266666666668</v>
+      </c>
+      <c r="H83" t="n">
         <v>25.71316666666671</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3484,24 +3569,21 @@
         <v>18496.7584</v>
       </c>
       <c r="G84" t="n">
+        <v>25.62933333333335</v>
+      </c>
+      <c r="H84" t="n">
         <v>25.71550000000003</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3525,24 +3607,21 @@
         <v>29748.3729</v>
       </c>
       <c r="G85" t="n">
+        <v>25.63600000000001</v>
+      </c>
+      <c r="H85" t="n">
         <v>25.7106666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3566,24 +3645,21 @@
         <v>12730.7998</v>
       </c>
       <c r="G86" t="n">
+        <v>25.64933333333335</v>
+      </c>
+      <c r="H86" t="n">
         <v>25.7091666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3607,24 +3683,21 @@
         <v>3881.3472</v>
       </c>
       <c r="G87" t="n">
+        <v>25.66400000000001</v>
+      </c>
+      <c r="H87" t="n">
         <v>25.7076666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3648,24 +3721,21 @@
         <v>31070.32660271</v>
       </c>
       <c r="G88" t="n">
+        <v>25.67133333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>25.7061666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3689,24 +3759,21 @@
         <v>4100</v>
       </c>
       <c r="G89" t="n">
+        <v>25.67866666666668</v>
+      </c>
+      <c r="H89" t="n">
         <v>25.7046666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3730,24 +3797,21 @@
         <v>20000</v>
       </c>
       <c r="G90" t="n">
+        <v>25.68000000000001</v>
+      </c>
+      <c r="H90" t="n">
         <v>25.7016666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3771,24 +3835,21 @@
         <v>20</v>
       </c>
       <c r="G91" t="n">
+        <v>25.68000000000001</v>
+      </c>
+      <c r="H91" t="n">
         <v>25.70016666666669</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3812,24 +3873,21 @@
         <v>3600.6513</v>
       </c>
       <c r="G92" t="n">
+        <v>25.68000000000001</v>
+      </c>
+      <c r="H92" t="n">
         <v>25.69850000000002</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3853,24 +3911,21 @@
         <v>15920.9074</v>
       </c>
       <c r="G93" t="n">
+        <v>25.67466666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>25.69550000000002</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,24 +3949,21 @@
         <v>28424.4286</v>
       </c>
       <c r="G94" t="n">
+        <v>25.66733333333334</v>
+      </c>
+      <c r="H94" t="n">
         <v>25.69050000000002</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3935,24 +3987,21 @@
         <v>9476.096100000001</v>
       </c>
       <c r="G95" t="n">
+        <v>25.68600000000001</v>
+      </c>
+      <c r="H95" t="n">
         <v>25.68883333333335</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3976,24 +4025,21 @@
         <v>38400</v>
       </c>
       <c r="G96" t="n">
+        <v>25.70533333333334</v>
+      </c>
+      <c r="H96" t="n">
         <v>25.68566666666668</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4017,24 +4063,21 @@
         <v>10131.0582</v>
       </c>
       <c r="G97" t="n">
+        <v>25.70533333333334</v>
+      </c>
+      <c r="H97" t="n">
         <v>25.68083333333335</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4058,24 +4101,21 @@
         <v>25562.8269</v>
       </c>
       <c r="G98" t="n">
+        <v>25.70466666666668</v>
+      </c>
+      <c r="H98" t="n">
         <v>25.67583333333334</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4099,24 +4139,21 @@
         <v>280</v>
       </c>
       <c r="G99" t="n">
+        <v>25.71</v>
+      </c>
+      <c r="H99" t="n">
         <v>25.67233333333334</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4140,24 +4177,21 @@
         <v>537633.6706</v>
       </c>
       <c r="G100" t="n">
+        <v>25.69400000000001</v>
+      </c>
+      <c r="H100" t="n">
         <v>25.66216666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4181,24 +4215,21 @@
         <v>74742.53999999999</v>
       </c>
       <c r="G101" t="n">
+        <v>25.67133333333334</v>
+      </c>
+      <c r="H101" t="n">
         <v>25.65633333333334</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,24 +4253,21 @@
         <v>462.2981</v>
       </c>
       <c r="G102" t="n">
+        <v>25.65000000000001</v>
+      </c>
+      <c r="H102" t="n">
         <v>25.65083333333334</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,24 +4291,21 @@
         <v>974.8856</v>
       </c>
       <c r="G103" t="n">
+        <v>25.62133333333334</v>
+      </c>
+      <c r="H103" t="n">
         <v>25.64100000000001</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4304,24 +4329,21 @@
         <v>59124</v>
       </c>
       <c r="G104" t="n">
+        <v>25.59266666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>25.63383333333334</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4345,24 +4367,21 @@
         <v>23450</v>
       </c>
       <c r="G105" t="n">
+        <v>25.57066666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>25.6295</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4386,24 +4405,21 @@
         <v>37118.7161</v>
       </c>
       <c r="G106" t="n">
+        <v>25.54266666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>25.62416666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4427,24 +4443,25 @@
         <v>7519.0557</v>
       </c>
       <c r="G107" t="n">
+        <v>25.52866666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>25.61883333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="L107" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4468,24 +4485,27 @@
         <v>2000</v>
       </c>
       <c r="G108" t="n">
+        <v>25.50666666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>25.61333333333334</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4509,24 +4529,27 @@
         <v>3751</v>
       </c>
       <c r="G109" t="n">
+        <v>25.49333333333334</v>
+      </c>
+      <c r="H109" t="n">
         <v>25.60783333333334</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4550,24 +4573,27 @@
         <v>13424.7841</v>
       </c>
       <c r="G110" t="n">
+        <v>25.48066666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>25.60583333333334</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4591,24 +4617,27 @@
         <v>2266.5391</v>
       </c>
       <c r="G111" t="n">
+        <v>25.47066666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>25.60166666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4632,24 +4661,27 @@
         <v>70000</v>
       </c>
       <c r="G112" t="n">
+        <v>25.456</v>
+      </c>
+      <c r="H112" t="n">
         <v>25.59366666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4673,24 +4705,27 @@
         <v>15735.8383</v>
       </c>
       <c r="G113" t="n">
+        <v>25.45800000000001</v>
+      </c>
+      <c r="H113" t="n">
         <v>25.59216666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L113" t="inlineStr">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4714,24 +4749,27 @@
         <v>55049.149</v>
       </c>
       <c r="G114" t="n">
+        <v>25.43866666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>25.58683333333334</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L114" t="inlineStr">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4755,24 +4793,27 @@
         <v>2393.1387</v>
       </c>
       <c r="G115" t="n">
+        <v>25.45466666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>25.58683333333334</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4796,24 +4837,27 @@
         <v>562.0999</v>
       </c>
       <c r="G116" t="n">
+        <v>25.47066666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>25.58683333333334</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L116" t="inlineStr">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4837,24 +4881,27 @@
         <v>6125.3761</v>
       </c>
       <c r="G117" t="n">
+        <v>25.47800000000001</v>
+      </c>
+      <c r="H117" t="n">
         <v>25.585</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L117" t="inlineStr">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4878,24 +4925,27 @@
         <v>51916.1713</v>
       </c>
       <c r="G118" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="H118" t="n">
         <v>25.58166666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4919,24 +4969,27 @@
         <v>20000</v>
       </c>
       <c r="G119" t="n">
+        <v>25.482</v>
+      </c>
+      <c r="H119" t="n">
         <v>25.57833333333334</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4960,24 +5013,27 @@
         <v>5257.0912</v>
       </c>
       <c r="G120" t="n">
+        <v>25.49666666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>25.57733333333334</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5001,24 +5057,27 @@
         <v>1144.1549</v>
       </c>
       <c r="G121" t="n">
+        <v>25.508</v>
+      </c>
+      <c r="H121" t="n">
         <v>25.57816666666668</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5042,24 +5101,27 @@
         <v>120799.5547</v>
       </c>
       <c r="G122" t="n">
+        <v>25.50133333333334</v>
+      </c>
+      <c r="H122" t="n">
         <v>25.57466666666668</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5083,24 +5145,27 @@
         <v>1855.8451</v>
       </c>
       <c r="G123" t="n">
+        <v>25.50200000000001</v>
+      </c>
+      <c r="H123" t="n">
         <v>25.56966666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5124,24 +5189,27 @@
         <v>21911.94</v>
       </c>
       <c r="G124" t="n">
+        <v>25.50266666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>25.56800000000001</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5165,24 +5233,27 @@
         <v>6594.7</v>
       </c>
       <c r="G125" t="n">
+        <v>25.48866666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>25.56616666666668</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L125" t="inlineStr">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5206,24 +5277,27 @@
         <v>4180.8089</v>
       </c>
       <c r="G126" t="n">
+        <v>25.486</v>
+      </c>
+      <c r="H126" t="n">
         <v>25.56783333333334</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5247,24 +5321,27 @@
         <v>10900</v>
       </c>
       <c r="G127" t="n">
+        <v>25.48666666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>25.56600000000001</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5288,24 +5365,27 @@
         <v>2474.0522</v>
       </c>
       <c r="G128" t="n">
+        <v>25.48533333333334</v>
+      </c>
+      <c r="H128" t="n">
         <v>25.56766666666668</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5329,24 +5409,27 @@
         <v>1947.04049844</v>
       </c>
       <c r="G129" t="n">
+        <v>25.50466666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>25.57066666666668</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5370,24 +5453,27 @@
         <v>5000</v>
       </c>
       <c r="G130" t="n">
+        <v>25.49200000000001</v>
+      </c>
+      <c r="H130" t="n">
         <v>25.56916666666668</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5411,24 +5497,27 @@
         <v>2917.3869</v>
       </c>
       <c r="G131" t="n">
+        <v>25.486</v>
+      </c>
+      <c r="H131" t="n">
         <v>25.56933333333335</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L131" t="inlineStr">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5452,24 +5541,27 @@
         <v>145.7233</v>
       </c>
       <c r="G132" t="n">
+        <v>25.48733333333334</v>
+      </c>
+      <c r="H132" t="n">
         <v>25.56983333333335</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5493,24 +5585,27 @@
         <v>3783.016</v>
       </c>
       <c r="G133" t="n">
+        <v>25.49466666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>25.56683333333335</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L133" t="inlineStr">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5534,24 +5629,27 @@
         <v>2368.7679</v>
       </c>
       <c r="G134" t="n">
+        <v>25.50800000000001</v>
+      </c>
+      <c r="H134" t="n">
         <v>25.56533333333334</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5575,24 +5673,27 @@
         <v>144.7976</v>
       </c>
       <c r="G135" t="n">
+        <v>25.51333333333334</v>
+      </c>
+      <c r="H135" t="n">
         <v>25.56516666666668</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5616,24 +5717,27 @@
         <v>12508</v>
       </c>
       <c r="G136" t="n">
+        <v>25.52466666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>25.56383333333334</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5657,24 +5761,27 @@
         <v>15344</v>
       </c>
       <c r="G137" t="n">
+        <v>25.54733333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>25.56433333333334</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L137" t="inlineStr">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,24 +5805,27 @@
         <v>9850.5461782</v>
       </c>
       <c r="G138" t="n">
+        <v>25.57666666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>25.56500000000001</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L138" t="inlineStr">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5739,24 +5849,27 @@
         <v>14040</v>
       </c>
       <c r="G139" t="n">
+        <v>25.60533333333334</v>
+      </c>
+      <c r="H139" t="n">
         <v>25.56716666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L139" t="inlineStr">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5780,24 +5893,27 @@
         <v>20</v>
       </c>
       <c r="G140" t="n">
+        <v>25.61466666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>25.56750000000001</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L140" t="inlineStr">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5821,24 +5937,27 @@
         <v>16140</v>
       </c>
       <c r="G141" t="n">
+        <v>25.61733333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>25.56983333333334</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5862,24 +5981,27 @@
         <v>1160</v>
       </c>
       <c r="G142" t="n">
+        <v>25.63666666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>25.57116666666668</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L142" t="inlineStr">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5903,25 +6025,28 @@
         <v>20813.4873</v>
       </c>
       <c r="G143" t="n">
+        <v>25.634</v>
+      </c>
+      <c r="H143" t="n">
         <v>25.57050000000001</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>0.9934374999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -5944,18 +6069,27 @@
         <v>678</v>
       </c>
       <c r="G144" t="n">
+        <v>25.62866666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>25.57050000000001</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5979,18 +6113,27 @@
         <v>20135.4873</v>
       </c>
       <c r="G145" t="n">
+        <v>25.63733333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>25.56950000000001</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6014,18 +6157,27 @@
         <v>17624.3129</v>
       </c>
       <c r="G146" t="n">
+        <v>25.63933333333334</v>
+      </c>
+      <c r="H146" t="n">
         <v>25.56683333333335</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6049,18 +6201,27 @@
         <v>40000</v>
       </c>
       <c r="G147" t="n">
+        <v>25.634</v>
+      </c>
+      <c r="H147" t="n">
         <v>25.56233333333335</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6084,18 +6245,27 @@
         <v>33.4336</v>
       </c>
       <c r="G148" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="H148" t="n">
         <v>25.55900000000001</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6119,18 +6289,27 @@
         <v>68358.6966</v>
       </c>
       <c r="G149" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="H149" t="n">
         <v>25.55566666666668</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6154,18 +6333,27 @@
         <v>6357.4884</v>
       </c>
       <c r="G150" t="n">
+        <v>25.63466666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>25.55383333333334</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6189,18 +6377,27 @@
         <v>11498.5559</v>
       </c>
       <c r="G151" t="n">
+        <v>25.62666666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>25.55050000000001</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6224,18 +6421,27 @@
         <v>28.2443</v>
       </c>
       <c r="G152" t="n">
+        <v>25.62600000000001</v>
+      </c>
+      <c r="H152" t="n">
         <v>25.55083333333334</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6259,18 +6465,27 @@
         <v>32882</v>
       </c>
       <c r="G153" t="n">
+        <v>25.60400000000001</v>
+      </c>
+      <c r="H153" t="n">
         <v>25.54733333333334</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6294,18 +6509,27 @@
         <v>7785.27592699</v>
       </c>
       <c r="G154" t="n">
+        <v>25.59600000000001</v>
+      </c>
+      <c r="H154" t="n">
         <v>25.54933333333334</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6329,18 +6553,27 @@
         <v>1937.23363037</v>
       </c>
       <c r="G155" t="n">
+        <v>25.61466666666668</v>
+      </c>
+      <c r="H155" t="n">
         <v>25.54966666666667</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,18 +6597,467 @@
         <v>10595.61496963</v>
       </c>
       <c r="G156" t="n">
+        <v>25.62600000000001</v>
+      </c>
+      <c r="H156" t="n">
         <v>25.55000000000001</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="C157" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="D157" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="E157" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="F157" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G157" t="n">
+        <v>25.63466666666668</v>
+      </c>
+      <c r="H157" t="n">
+        <v>25.55350000000001</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>25.61</v>
+      </c>
+      <c r="C158" t="n">
+        <v>25.61</v>
+      </c>
+      <c r="D158" t="n">
+        <v>25.61</v>
+      </c>
+      <c r="E158" t="n">
+        <v>25.61</v>
+      </c>
+      <c r="F158" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G158" t="n">
+        <v>25.63800000000001</v>
+      </c>
+      <c r="H158" t="n">
+        <v>25.55383333333334</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="C159" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="D159" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="E159" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="F159" t="n">
+        <v>990.8264</v>
+      </c>
+      <c r="G159" t="n">
+        <v>25.64733333333334</v>
+      </c>
+      <c r="H159" t="n">
+        <v>25.55483333333334</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="C160" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="D160" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="E160" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="F160" t="n">
+        <v>4969.1736</v>
+      </c>
+      <c r="G160" t="n">
+        <v>25.66066666666667</v>
+      </c>
+      <c r="H160" t="n">
+        <v>25.56116666666668</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="C161" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="D161" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="E161" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1444.2777</v>
+      </c>
+      <c r="G161" t="n">
+        <v>25.67400000000001</v>
+      </c>
+      <c r="H161" t="n">
+        <v>25.56750000000001</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="C162" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="D162" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="E162" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="F162" t="n">
+        <v>4574.90897699</v>
+      </c>
+      <c r="G162" t="n">
+        <v>25.70000000000001</v>
+      </c>
+      <c r="H162" t="n">
+        <v>25.57483333333334</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="C163" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="D163" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="E163" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="F163" t="n">
+        <v>51010.76552301</v>
+      </c>
+      <c r="G163" t="n">
+        <v>25.716</v>
+      </c>
+      <c r="H163" t="n">
+        <v>25.58266666666668</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="C164" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="D164" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="E164" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="F164" t="n">
+        <v>14691.9361</v>
+      </c>
+      <c r="G164" t="n">
+        <v>25.732</v>
+      </c>
+      <c r="H164" t="n">
+        <v>25.59050000000001</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>25.94</v>
+      </c>
+      <c r="C165" t="n">
+        <v>25.94</v>
+      </c>
+      <c r="D165" t="n">
+        <v>25.94</v>
+      </c>
+      <c r="E165" t="n">
+        <v>25.94</v>
+      </c>
+      <c r="F165" t="n">
+        <v>17500</v>
+      </c>
+      <c r="G165" t="n">
+        <v>25.75466666666667</v>
+      </c>
+      <c r="H165" t="n">
+        <v>25.59983333333334</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="C166" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="D166" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="E166" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="F166" t="n">
+        <v>88352.74430000001</v>
+      </c>
+      <c r="G166" t="n">
+        <v>25.778</v>
+      </c>
+      <c r="H166" t="n">
+        <v>25.60933333333334</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest HDAC.xlsx
+++ b/BackTest/2020-01-16 BackTest HDAC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M195"/>
+  <dimension ref="A1:N153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>25.52</v>
+        <v>25.6</v>
       </c>
       <c r="C2" t="n">
-        <v>25.52</v>
+        <v>25.54</v>
       </c>
       <c r="D2" t="n">
-        <v>25.52</v>
+        <v>25.6</v>
       </c>
       <c r="E2" t="n">
-        <v>25.52</v>
+        <v>25.54</v>
       </c>
       <c r="F2" t="n">
-        <v>60758.7445</v>
+        <v>100000</v>
       </c>
       <c r="G2" t="n">
-        <v>-672957.9954336901</v>
+        <v>-1107416.32323369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -471,19 +477,19 @@
         <v>25.54</v>
       </c>
       <c r="C3" t="n">
-        <v>25.55</v>
+        <v>25.54</v>
       </c>
       <c r="D3" t="n">
-        <v>25.55</v>
+        <v>25.54</v>
       </c>
       <c r="E3" t="n">
         <v>25.54</v>
       </c>
       <c r="F3" t="n">
-        <v>70844.03909999999</v>
+        <v>10545.8906</v>
       </c>
       <c r="G3" t="n">
-        <v>-602113.9563336901</v>
+        <v>-1107416.32323369</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25.7</v>
+        <v>25.53</v>
       </c>
       <c r="C4" t="n">
-        <v>25.55</v>
+        <v>25.53</v>
       </c>
       <c r="D4" t="n">
-        <v>25.7</v>
+        <v>25.53</v>
       </c>
       <c r="E4" t="n">
-        <v>25.55</v>
+        <v>25.53</v>
       </c>
       <c r="F4" t="n">
-        <v>29010.2479</v>
+        <v>4043.4581</v>
       </c>
       <c r="G4" t="n">
-        <v>-602113.9563336901</v>
+        <v>-1111459.78133369</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>25.6</v>
+        <v>25.53</v>
       </c>
       <c r="C5" t="n">
-        <v>25.6</v>
+        <v>25.51</v>
       </c>
       <c r="D5" t="n">
-        <v>25.6</v>
+        <v>25.53</v>
       </c>
       <c r="E5" t="n">
-        <v>25.6</v>
+        <v>25.51</v>
       </c>
       <c r="F5" t="n">
-        <v>21043.6792</v>
+        <v>55935.5738</v>
       </c>
       <c r="G5" t="n">
-        <v>-581070.2771336901</v>
+        <v>-1167395.35513369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>25.6</v>
+        <v>25.51</v>
       </c>
       <c r="C6" t="n">
-        <v>25.6</v>
+        <v>25.46</v>
       </c>
       <c r="D6" t="n">
-        <v>25.6</v>
+        <v>25.51</v>
       </c>
       <c r="E6" t="n">
-        <v>25.6</v>
+        <v>25.46</v>
       </c>
       <c r="F6" t="n">
-        <v>3000</v>
+        <v>55935.5739</v>
       </c>
       <c r="G6" t="n">
-        <v>-581070.2771336901</v>
+        <v>-1223330.92903369</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>25.56</v>
+        <v>25.51</v>
       </c>
       <c r="C7" t="n">
-        <v>25.55</v>
+        <v>25.54</v>
       </c>
       <c r="D7" t="n">
-        <v>25.56</v>
+        <v>25.54</v>
       </c>
       <c r="E7" t="n">
-        <v>25.55</v>
+        <v>25.51</v>
       </c>
       <c r="F7" t="n">
-        <v>53456.7802</v>
+        <v>7791.5548803</v>
       </c>
       <c r="G7" t="n">
-        <v>-634527.0573336901</v>
+        <v>-1215539.37415339</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25.55</v>
+        <v>25.51</v>
       </c>
       <c r="C8" t="n">
-        <v>25.55</v>
+        <v>25.46</v>
       </c>
       <c r="D8" t="n">
-        <v>25.55</v>
+        <v>25.51</v>
       </c>
       <c r="E8" t="n">
-        <v>25.55</v>
+        <v>25.46</v>
       </c>
       <c r="F8" t="n">
-        <v>76350.2087</v>
+        <v>17319.9848</v>
       </c>
       <c r="G8" t="n">
-        <v>-634527.0573336901</v>
+        <v>-1232859.35895339</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25.55</v>
+        <v>25.54</v>
       </c>
       <c r="C9" t="n">
-        <v>25.52</v>
+        <v>25.54</v>
       </c>
       <c r="D9" t="n">
-        <v>25.55</v>
+        <v>25.54</v>
       </c>
       <c r="E9" t="n">
-        <v>25.52</v>
+        <v>25.54</v>
       </c>
       <c r="F9" t="n">
-        <v>29980.6074</v>
+        <v>51244.4744</v>
       </c>
       <c r="G9" t="n">
-        <v>-664507.6647336901</v>
+        <v>-1181614.88455339</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>25.51</v>
+        <v>25.47</v>
       </c>
       <c r="C10" t="n">
-        <v>25.52</v>
+        <v>25.46</v>
       </c>
       <c r="D10" t="n">
-        <v>25.52</v>
+        <v>25.47</v>
       </c>
       <c r="E10" t="n">
         <v>25.46</v>
       </c>
       <c r="F10" t="n">
-        <v>166314.6077</v>
+        <v>177171.7724</v>
       </c>
       <c r="G10" t="n">
-        <v>-664507.6647336901</v>
+        <v>-1358786.65695339</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -751,19 +765,19 @@
         <v>25.46</v>
       </c>
       <c r="C11" t="n">
-        <v>25.43</v>
+        <v>25.46</v>
       </c>
       <c r="D11" t="n">
         <v>25.46</v>
       </c>
       <c r="E11" t="n">
-        <v>25.43</v>
+        <v>25.46</v>
       </c>
       <c r="F11" t="n">
-        <v>218324.174</v>
+        <v>47828.2276</v>
       </c>
       <c r="G11" t="n">
-        <v>-882831.8387336901</v>
+        <v>-1358786.65695339</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>25.41</v>
+        <v>25.54</v>
       </c>
       <c r="C12" t="n">
-        <v>25.37</v>
+        <v>25.89</v>
       </c>
       <c r="D12" t="n">
-        <v>25.41</v>
+        <v>25.89</v>
       </c>
       <c r="E12" t="n">
-        <v>25.37</v>
+        <v>25.54</v>
       </c>
       <c r="F12" t="n">
-        <v>3621.9939</v>
+        <v>34216.40184885</v>
       </c>
       <c r="G12" t="n">
-        <v>-886453.8326336901</v>
+        <v>-1324570.25510454</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25.37</v>
+        <v>25.79</v>
       </c>
       <c r="C13" t="n">
-        <v>25.37</v>
+        <v>25.79</v>
       </c>
       <c r="D13" t="n">
-        <v>25.37</v>
+        <v>25.79</v>
       </c>
       <c r="E13" t="n">
-        <v>25.37</v>
+        <v>25.79</v>
       </c>
       <c r="F13" t="n">
-        <v>10519.6884</v>
+        <v>8660</v>
       </c>
       <c r="G13" t="n">
-        <v>-886453.8326336901</v>
+        <v>-1333230.25510454</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>25.36</v>
+        <v>25.79</v>
       </c>
       <c r="C14" t="n">
-        <v>25.43</v>
+        <v>25.79</v>
       </c>
       <c r="D14" t="n">
-        <v>25.43</v>
+        <v>25.79</v>
       </c>
       <c r="E14" t="n">
-        <v>25.36</v>
+        <v>25.79</v>
       </c>
       <c r="F14" t="n">
-        <v>16356.3674</v>
+        <v>10627.8545</v>
       </c>
       <c r="G14" t="n">
-        <v>-870097.4652336901</v>
+        <v>-1333230.25510454</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>25.43</v>
+        <v>25.79</v>
       </c>
       <c r="C15" t="n">
-        <v>25.43</v>
+        <v>25.89</v>
       </c>
       <c r="D15" t="n">
-        <v>25.43</v>
+        <v>25.89</v>
       </c>
       <c r="E15" t="n">
-        <v>25.43</v>
+        <v>25.79</v>
       </c>
       <c r="F15" t="n">
-        <v>23800.8944</v>
+        <v>39246.43449251</v>
       </c>
       <c r="G15" t="n">
-        <v>-870097.4652336901</v>
+        <v>-1293983.82061203</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>25.45</v>
+        <v>25.89</v>
       </c>
       <c r="C16" t="n">
-        <v>25.45</v>
+        <v>25.89</v>
       </c>
       <c r="D16" t="n">
-        <v>25.45</v>
+        <v>25.89</v>
       </c>
       <c r="E16" t="n">
-        <v>25.45</v>
+        <v>25.89</v>
       </c>
       <c r="F16" t="n">
-        <v>49775.5084</v>
+        <v>9370.3886</v>
       </c>
       <c r="G16" t="n">
-        <v>-820321.9568336901</v>
+        <v>-1293983.82061203</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>25.52</v>
+        <v>25.89</v>
       </c>
       <c r="C17" t="n">
-        <v>25.52</v>
+        <v>25.89</v>
       </c>
       <c r="D17" t="n">
-        <v>25.52</v>
+        <v>25.89</v>
       </c>
       <c r="E17" t="n">
-        <v>25.52</v>
+        <v>25.89</v>
       </c>
       <c r="F17" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>-820251.9568336901</v>
+        <v>-1293983.82061203</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>25.52</v>
+        <v>25.89</v>
       </c>
       <c r="C18" t="n">
-        <v>25.52</v>
+        <v>25.89</v>
       </c>
       <c r="D18" t="n">
-        <v>25.52</v>
+        <v>25.89</v>
       </c>
       <c r="E18" t="n">
-        <v>25.52</v>
+        <v>25.89</v>
       </c>
       <c r="F18" t="n">
-        <v>9310.936299999999</v>
+        <v>14.7426</v>
       </c>
       <c r="G18" t="n">
-        <v>-820251.9568336901</v>
+        <v>-1293983.82061203</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>25.52</v>
+        <v>25.89</v>
       </c>
       <c r="C19" t="n">
-        <v>25.55</v>
+        <v>25.89</v>
       </c>
       <c r="D19" t="n">
-        <v>25.55</v>
+        <v>25.89</v>
       </c>
       <c r="E19" t="n">
-        <v>25.52</v>
+        <v>25.89</v>
       </c>
       <c r="F19" t="n">
-        <v>32632.0798</v>
+        <v>3546.6081</v>
       </c>
       <c r="G19" t="n">
-        <v>-787619.8770336901</v>
+        <v>-1293983.82061203</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>25.55</v>
+        <v>25.89</v>
       </c>
       <c r="C20" t="n">
-        <v>25.55</v>
+        <v>25.89</v>
       </c>
       <c r="D20" t="n">
-        <v>25.55</v>
+        <v>25.89</v>
       </c>
       <c r="E20" t="n">
-        <v>25.55</v>
+        <v>25.89</v>
       </c>
       <c r="F20" t="n">
-        <v>1391</v>
+        <v>17789.9203</v>
       </c>
       <c r="G20" t="n">
-        <v>-787619.8770336901</v>
+        <v>-1293983.82061203</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,34 +1115,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>25.83</v>
+        <v>25.79</v>
       </c>
       <c r="C21" t="n">
-        <v>25.83</v>
+        <v>25.89</v>
       </c>
       <c r="D21" t="n">
-        <v>25.83</v>
+        <v>25.89</v>
       </c>
       <c r="E21" t="n">
-        <v>25.83</v>
+        <v>25.79</v>
       </c>
       <c r="F21" t="n">
-        <v>27032.6896</v>
+        <v>46179.7245</v>
       </c>
       <c r="G21" t="n">
-        <v>-760587.1874336901</v>
+        <v>-1293983.82061203</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,34 +1151,35 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>25.56</v>
+        <v>25.89</v>
       </c>
       <c r="C22" t="n">
-        <v>25.56</v>
+        <v>25.89</v>
       </c>
       <c r="D22" t="n">
-        <v>25.56</v>
+        <v>25.89</v>
       </c>
       <c r="E22" t="n">
-        <v>25.56</v>
+        <v>25.89</v>
       </c>
       <c r="F22" t="n">
-        <v>20082.744</v>
+        <v>50043.8793</v>
       </c>
       <c r="G22" t="n">
-        <v>-780669.93143369</v>
+        <v>-1293983.82061203</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,34 +1187,35 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>25.56</v>
+        <v>25.93</v>
       </c>
       <c r="C23" t="n">
-        <v>25.55</v>
+        <v>25.98</v>
       </c>
       <c r="D23" t="n">
-        <v>25.56</v>
+        <v>25.98</v>
       </c>
       <c r="E23" t="n">
-        <v>25.55</v>
+        <v>25.93</v>
       </c>
       <c r="F23" t="n">
-        <v>120296.1181</v>
+        <v>51536.8448</v>
       </c>
       <c r="G23" t="n">
-        <v>-900966.04953369</v>
+        <v>-1242446.97581203</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,34 +1223,35 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>25.55</v>
+        <v>25.9</v>
       </c>
       <c r="C24" t="n">
-        <v>25.55</v>
+        <v>25.89</v>
       </c>
       <c r="D24" t="n">
-        <v>25.55</v>
+        <v>25.9</v>
       </c>
       <c r="E24" t="n">
-        <v>25.55</v>
+        <v>25.89</v>
       </c>
       <c r="F24" t="n">
-        <v>9387</v>
+        <v>6389.4056</v>
       </c>
       <c r="G24" t="n">
-        <v>-900966.04953369</v>
+        <v>-1248836.381412029</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,34 +1259,35 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>25.6</v>
+        <v>25.89</v>
       </c>
       <c r="C25" t="n">
-        <v>25.5</v>
+        <v>25.89</v>
       </c>
       <c r="D25" t="n">
-        <v>25.6</v>
+        <v>25.89</v>
       </c>
       <c r="E25" t="n">
-        <v>25.5</v>
+        <v>25.89</v>
       </c>
       <c r="F25" t="n">
-        <v>2400</v>
+        <v>6867.5953</v>
       </c>
       <c r="G25" t="n">
-        <v>-903366.04953369</v>
+        <v>-1248836.381412029</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>25.65</v>
+        <v>25.89</v>
       </c>
       <c r="C26" t="n">
-        <v>25.65</v>
+        <v>25.89</v>
       </c>
       <c r="D26" t="n">
-        <v>25.65</v>
+        <v>25.89</v>
       </c>
       <c r="E26" t="n">
-        <v>25.65</v>
+        <v>25.89</v>
       </c>
       <c r="F26" t="n">
-        <v>101.9638</v>
+        <v>1644.3638</v>
       </c>
       <c r="G26" t="n">
-        <v>-903264.0857336899</v>
+        <v>-1248836.381412029</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,34 +1331,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>25.65</v>
+        <v>25.97</v>
       </c>
       <c r="C27" t="n">
-        <v>25.65</v>
+        <v>25.97</v>
       </c>
       <c r="D27" t="n">
-        <v>25.65</v>
+        <v>25.97</v>
       </c>
       <c r="E27" t="n">
-        <v>25.65</v>
+        <v>25.97</v>
       </c>
       <c r="F27" t="n">
-        <v>65770.0963</v>
+        <v>1225.6563</v>
       </c>
       <c r="G27" t="n">
-        <v>-903264.0857336899</v>
+        <v>-1247610.72511203</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,34 +1367,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>25.65</v>
+        <v>25.71</v>
       </c>
       <c r="C28" t="n">
-        <v>25.65</v>
+        <v>25.71</v>
       </c>
       <c r="D28" t="n">
-        <v>25.65</v>
+        <v>25.71</v>
       </c>
       <c r="E28" t="n">
-        <v>25.65</v>
+        <v>25.71</v>
       </c>
       <c r="F28" t="n">
-        <v>164.0153</v>
+        <v>9943.401</v>
       </c>
       <c r="G28" t="n">
-        <v>-903264.0857336899</v>
+        <v>-1257554.12611203</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,34 +1403,35 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>25.51</v>
+        <v>25.71</v>
       </c>
       <c r="C29" t="n">
-        <v>25.5</v>
+        <v>25.71</v>
       </c>
       <c r="D29" t="n">
-        <v>25.51</v>
+        <v>25.8</v>
       </c>
       <c r="E29" t="n">
-        <v>25.5</v>
+        <v>25.71</v>
       </c>
       <c r="F29" t="n">
-        <v>100000</v>
+        <v>22494.2292</v>
       </c>
       <c r="G29" t="n">
-        <v>-1003264.08573369</v>
+        <v>-1257554.12611203</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>25.65</v>
+        <v>25.9</v>
       </c>
       <c r="C30" t="n">
-        <v>25.65</v>
+        <v>25.96</v>
       </c>
       <c r="D30" t="n">
-        <v>25.65</v>
+        <v>25.96</v>
       </c>
       <c r="E30" t="n">
-        <v>25.65</v>
+        <v>25.9</v>
       </c>
       <c r="F30" t="n">
-        <v>776.9632</v>
+        <v>3857.53534175</v>
       </c>
       <c r="G30" t="n">
-        <v>-1002487.12253369</v>
+        <v>-1253696.59077028</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,34 +1475,35 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="C31" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="D31" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="E31" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="F31" t="n">
-        <v>2405.4886</v>
+        <v>254.2835</v>
       </c>
       <c r="G31" t="n">
-        <v>-1004892.61113369</v>
+        <v>-1253950.87427028</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,34 +1511,35 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>25.6</v>
+        <v>25.71</v>
       </c>
       <c r="C32" t="n">
-        <v>25.6</v>
+        <v>25.64</v>
       </c>
       <c r="D32" t="n">
-        <v>25.6</v>
+        <v>25.71</v>
       </c>
       <c r="E32" t="n">
-        <v>25.6</v>
+        <v>25.64</v>
       </c>
       <c r="F32" t="n">
-        <v>1451.9018</v>
+        <v>36932.8064</v>
       </c>
       <c r="G32" t="n">
-        <v>-1004892.61113369</v>
+        <v>-1290883.68067028</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1512,34 +1547,35 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="C33" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="D33" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="E33" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="F33" t="n">
-        <v>1000</v>
+        <v>8190.0689</v>
       </c>
       <c r="G33" t="n">
-        <v>-1004892.61113369</v>
+        <v>-1282693.611770279</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1547,34 +1583,35 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>25.51</v>
+        <v>25.9</v>
       </c>
       <c r="C34" t="n">
-        <v>25.51</v>
+        <v>25.9</v>
       </c>
       <c r="D34" t="n">
-        <v>25.51</v>
+        <v>25.9</v>
       </c>
       <c r="E34" t="n">
-        <v>25.51</v>
+        <v>25.9</v>
       </c>
       <c r="F34" t="n">
-        <v>3214.2036</v>
+        <v>1563.1628</v>
       </c>
       <c r="G34" t="n">
-        <v>-1008106.81473369</v>
+        <v>-1281130.448970279</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1582,34 +1619,35 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>25.51</v>
+        <v>25.9</v>
       </c>
       <c r="C35" t="n">
-        <v>25.51</v>
+        <v>25.71</v>
       </c>
       <c r="D35" t="n">
-        <v>25.51</v>
+        <v>25.9</v>
       </c>
       <c r="E35" t="n">
-        <v>25.51</v>
+        <v>25.71</v>
       </c>
       <c r="F35" t="n">
-        <v>68119.2668</v>
+        <v>89228.34050000001</v>
       </c>
       <c r="G35" t="n">
-        <v>-1008106.81473369</v>
+        <v>-1370358.789470279</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1617,34 +1655,35 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>25.7</v>
+        <v>25.72</v>
       </c>
       <c r="C36" t="n">
-        <v>25.7</v>
+        <v>25.72</v>
       </c>
       <c r="D36" t="n">
-        <v>25.7</v>
+        <v>25.72</v>
       </c>
       <c r="E36" t="n">
-        <v>25.7</v>
+        <v>25.72</v>
       </c>
       <c r="F36" t="n">
-        <v>2405.4886</v>
+        <v>34233.5046</v>
       </c>
       <c r="G36" t="n">
-        <v>-1005701.32613369</v>
+        <v>-1336125.284870279</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>25.7</v>
+        <v>25.72</v>
       </c>
       <c r="C37" t="n">
-        <v>25.7</v>
+        <v>25.72</v>
       </c>
       <c r="D37" t="n">
-        <v>25.7</v>
+        <v>25.72</v>
       </c>
       <c r="E37" t="n">
-        <v>25.7</v>
+        <v>25.72</v>
       </c>
       <c r="F37" t="n">
-        <v>33000</v>
+        <v>8766.4954</v>
       </c>
       <c r="G37" t="n">
-        <v>-1005701.32613369</v>
+        <v>-1336125.284870279</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>25.71</v>
+        <v>25.89</v>
       </c>
       <c r="C38" t="n">
-        <v>25.71</v>
+        <v>25.89</v>
       </c>
       <c r="D38" t="n">
-        <v>25.71</v>
+        <v>25.89</v>
       </c>
       <c r="E38" t="n">
-        <v>25.71</v>
+        <v>25.89</v>
       </c>
       <c r="F38" t="n">
-        <v>1577.3384</v>
+        <v>3862.49517188</v>
       </c>
       <c r="G38" t="n">
-        <v>-1004123.98773369</v>
+        <v>-1332262.789698399</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>25.7</v>
+        <v>25.86</v>
       </c>
       <c r="C39" t="n">
-        <v>25.6</v>
+        <v>25.86</v>
       </c>
       <c r="D39" t="n">
-        <v>25.7</v>
+        <v>25.86</v>
       </c>
       <c r="E39" t="n">
-        <v>25.6</v>
+        <v>25.86</v>
       </c>
       <c r="F39" t="n">
-        <v>3292.3355</v>
+        <v>43482.1449</v>
       </c>
       <c r="G39" t="n">
-        <v>-1007416.32323369</v>
+        <v>-1375744.934598399</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>25.6</v>
+        <v>25.75</v>
       </c>
       <c r="C40" t="n">
-        <v>25.6</v>
+        <v>25.71</v>
       </c>
       <c r="D40" t="n">
-        <v>25.6</v>
+        <v>25.75</v>
       </c>
       <c r="E40" t="n">
-        <v>25.6</v>
+        <v>25.71</v>
       </c>
       <c r="F40" t="n">
-        <v>5000</v>
+        <v>66681.9476</v>
       </c>
       <c r="G40" t="n">
-        <v>-1007416.32323369</v>
+        <v>-1442426.882198399</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>25.6</v>
+        <v>25.71</v>
       </c>
       <c r="C41" t="n">
-        <v>25.6</v>
+        <v>25.71</v>
       </c>
       <c r="D41" t="n">
-        <v>25.6</v>
+        <v>25.71</v>
       </c>
       <c r="E41" t="n">
-        <v>25.6</v>
+        <v>25.71</v>
       </c>
       <c r="F41" t="n">
-        <v>1500</v>
+        <v>60927.6648</v>
       </c>
       <c r="G41" t="n">
-        <v>-1007416.32323369</v>
+        <v>-1442426.882198399</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="C42" t="n">
         <v>25.6</v>
       </c>
       <c r="D42" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="E42" t="n">
         <v>25.6</v>
       </c>
       <c r="F42" t="n">
-        <v>4211.6249</v>
+        <v>200813.3938</v>
       </c>
       <c r="G42" t="n">
-        <v>-1007416.32323369</v>
+        <v>-1643240.275998399</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1880,10 +1926,10 @@
         <v>25.6</v>
       </c>
       <c r="F43" t="n">
-        <v>101686.3379</v>
+        <v>56919.5195</v>
       </c>
       <c r="G43" t="n">
-        <v>-1007416.32323369</v>
+        <v>-1643240.275998399</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1906,19 +1953,19 @@
         <v>25.6</v>
       </c>
       <c r="C44" t="n">
-        <v>25.54</v>
+        <v>25.6</v>
       </c>
       <c r="D44" t="n">
         <v>25.6</v>
       </c>
       <c r="E44" t="n">
-        <v>25.54</v>
+        <v>25.6</v>
       </c>
       <c r="F44" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="G44" t="n">
-        <v>-1107416.32323369</v>
+        <v>-1643240.275998399</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>25.54</v>
+        <v>25.6</v>
       </c>
       <c r="C45" t="n">
-        <v>25.54</v>
+        <v>25.6</v>
       </c>
       <c r="D45" t="n">
-        <v>25.54</v>
+        <v>25.6</v>
       </c>
       <c r="E45" t="n">
-        <v>25.54</v>
+        <v>25.6</v>
       </c>
       <c r="F45" t="n">
-        <v>10545.8906</v>
+        <v>1930.502</v>
       </c>
       <c r="G45" t="n">
-        <v>-1107416.32323369</v>
+        <v>-1643240.275998399</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>25.53</v>
+        <v>25.6</v>
       </c>
       <c r="C46" t="n">
-        <v>25.53</v>
+        <v>25.6</v>
       </c>
       <c r="D46" t="n">
-        <v>25.53</v>
+        <v>25.6</v>
       </c>
       <c r="E46" t="n">
-        <v>25.53</v>
+        <v>25.6</v>
       </c>
       <c r="F46" t="n">
-        <v>4043.4581</v>
+        <v>10000</v>
       </c>
       <c r="G46" t="n">
-        <v>-1111459.78133369</v>
+        <v>-1643240.275998399</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>25.53</v>
+        <v>25.66</v>
       </c>
       <c r="C47" t="n">
-        <v>25.51</v>
+        <v>25.66</v>
       </c>
       <c r="D47" t="n">
-        <v>25.53</v>
+        <v>25.66</v>
       </c>
       <c r="E47" t="n">
-        <v>25.51</v>
+        <v>25.66</v>
       </c>
       <c r="F47" t="n">
-        <v>55935.5738</v>
+        <v>19162.1456</v>
       </c>
       <c r="G47" t="n">
-        <v>-1167395.35513369</v>
+        <v>-1624078.130398399</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>25.51</v>
+        <v>25.6</v>
       </c>
       <c r="C48" t="n">
-        <v>25.46</v>
+        <v>25.5</v>
       </c>
       <c r="D48" t="n">
-        <v>25.51</v>
+        <v>25.6</v>
       </c>
       <c r="E48" t="n">
-        <v>25.46</v>
+        <v>25.5</v>
       </c>
       <c r="F48" t="n">
-        <v>55935.5739</v>
+        <v>6746.9375</v>
       </c>
       <c r="G48" t="n">
-        <v>-1223330.92903369</v>
+        <v>-1630825.067898399</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>25.51</v>
+        <v>25.69</v>
       </c>
       <c r="C49" t="n">
-        <v>25.54</v>
+        <v>25.69</v>
       </c>
       <c r="D49" t="n">
-        <v>25.54</v>
+        <v>25.69</v>
       </c>
       <c r="E49" t="n">
-        <v>25.51</v>
+        <v>25.69</v>
       </c>
       <c r="F49" t="n">
-        <v>7791.5548803</v>
+        <v>37900.2942</v>
       </c>
       <c r="G49" t="n">
-        <v>-1215539.37415339</v>
+        <v>-1592924.7736984</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>25.51</v>
+        <v>25.69</v>
       </c>
       <c r="C50" t="n">
-        <v>25.46</v>
+        <v>25.69</v>
       </c>
       <c r="D50" t="n">
-        <v>25.51</v>
+        <v>25.69</v>
       </c>
       <c r="E50" t="n">
-        <v>25.46</v>
+        <v>25.69</v>
       </c>
       <c r="F50" t="n">
-        <v>17319.9848</v>
+        <v>2826.3897</v>
       </c>
       <c r="G50" t="n">
-        <v>-1232859.35895339</v>
+        <v>-1592924.7736984</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>25.54</v>
+        <v>25.5</v>
       </c>
       <c r="C51" t="n">
-        <v>25.54</v>
+        <v>25.5</v>
       </c>
       <c r="D51" t="n">
-        <v>25.54</v>
+        <v>25.5</v>
       </c>
       <c r="E51" t="n">
-        <v>25.54</v>
+        <v>25.5</v>
       </c>
       <c r="F51" t="n">
-        <v>51244.4744</v>
+        <v>2144.0028</v>
       </c>
       <c r="G51" t="n">
-        <v>-1181614.88455339</v>
+        <v>-1595068.776498399</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>25.47</v>
+        <v>25.5</v>
       </c>
       <c r="C52" t="n">
-        <v>25.46</v>
+        <v>25.5</v>
       </c>
       <c r="D52" t="n">
-        <v>25.47</v>
+        <v>25.5</v>
       </c>
       <c r="E52" t="n">
-        <v>25.46</v>
+        <v>25.5</v>
       </c>
       <c r="F52" t="n">
-        <v>177171.7724</v>
+        <v>1205.7552</v>
       </c>
       <c r="G52" t="n">
-        <v>-1358786.65695339</v>
+        <v>-1595068.776498399</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>25.46</v>
+        <v>25.5</v>
       </c>
       <c r="C53" t="n">
-        <v>25.46</v>
+        <v>25.5</v>
       </c>
       <c r="D53" t="n">
-        <v>25.46</v>
+        <v>25.5</v>
       </c>
       <c r="E53" t="n">
-        <v>25.46</v>
+        <v>25.5</v>
       </c>
       <c r="F53" t="n">
-        <v>47828.2276</v>
+        <v>12000</v>
       </c>
       <c r="G53" t="n">
-        <v>-1358786.65695339</v>
+        <v>-1595068.776498399</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>25.54</v>
+        <v>25.5</v>
       </c>
       <c r="C54" t="n">
-        <v>25.89</v>
+        <v>25.5</v>
       </c>
       <c r="D54" t="n">
-        <v>25.89</v>
+        <v>25.5</v>
       </c>
       <c r="E54" t="n">
-        <v>25.54</v>
+        <v>25.5</v>
       </c>
       <c r="F54" t="n">
-        <v>34216.40184885</v>
+        <v>11747.1555</v>
       </c>
       <c r="G54" t="n">
-        <v>-1324570.25510454</v>
+        <v>-1595068.776498399</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>25.79</v>
+        <v>25.5</v>
       </c>
       <c r="C55" t="n">
-        <v>25.79</v>
+        <v>25.5</v>
       </c>
       <c r="D55" t="n">
-        <v>25.79</v>
+        <v>25.5</v>
       </c>
       <c r="E55" t="n">
-        <v>25.79</v>
+        <v>25.5</v>
       </c>
       <c r="F55" t="n">
-        <v>8660</v>
+        <v>1000</v>
       </c>
       <c r="G55" t="n">
-        <v>-1333230.25510454</v>
+        <v>-1595068.776498399</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>25.79</v>
+        <v>25.5</v>
       </c>
       <c r="C56" t="n">
-        <v>25.79</v>
+        <v>25.5</v>
       </c>
       <c r="D56" t="n">
-        <v>25.79</v>
+        <v>25.5</v>
       </c>
       <c r="E56" t="n">
-        <v>25.79</v>
+        <v>25.5</v>
       </c>
       <c r="F56" t="n">
-        <v>10627.8545</v>
+        <v>4096.539</v>
       </c>
       <c r="G56" t="n">
-        <v>-1333230.25510454</v>
+        <v>-1595068.776498399</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>25.79</v>
+        <v>25.5</v>
       </c>
       <c r="C57" t="n">
-        <v>25.89</v>
+        <v>25.5</v>
       </c>
       <c r="D57" t="n">
-        <v>25.89</v>
+        <v>25.5</v>
       </c>
       <c r="E57" t="n">
-        <v>25.79</v>
+        <v>25.5</v>
       </c>
       <c r="F57" t="n">
-        <v>39246.43449251</v>
+        <v>73069.41280000001</v>
       </c>
       <c r="G57" t="n">
-        <v>-1293983.82061203</v>
+        <v>-1595068.776498399</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>25.89</v>
+        <v>25.5</v>
       </c>
       <c r="C58" t="n">
-        <v>25.89</v>
+        <v>25.5</v>
       </c>
       <c r="D58" t="n">
-        <v>25.89</v>
+        <v>25.5</v>
       </c>
       <c r="E58" t="n">
-        <v>25.89</v>
+        <v>25.5</v>
       </c>
       <c r="F58" t="n">
-        <v>9370.3886</v>
+        <v>8093</v>
       </c>
       <c r="G58" t="n">
-        <v>-1293983.82061203</v>
+        <v>-1595068.776498399</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>25.89</v>
+        <v>25.5</v>
       </c>
       <c r="C59" t="n">
-        <v>25.89</v>
+        <v>25.48</v>
       </c>
       <c r="D59" t="n">
-        <v>25.89</v>
+        <v>25.5</v>
       </c>
       <c r="E59" t="n">
-        <v>25.89</v>
+        <v>25.48</v>
       </c>
       <c r="F59" t="n">
-        <v>100</v>
+        <v>949.218</v>
       </c>
       <c r="G59" t="n">
-        <v>-1293983.82061203</v>
+        <v>-1596017.9944984</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>25.89</v>
+        <v>25.69</v>
       </c>
       <c r="C60" t="n">
-        <v>25.89</v>
+        <v>25.69</v>
       </c>
       <c r="D60" t="n">
-        <v>25.89</v>
+        <v>25.69</v>
       </c>
       <c r="E60" t="n">
-        <v>25.89</v>
+        <v>25.69</v>
       </c>
       <c r="F60" t="n">
-        <v>14.7426</v>
+        <v>20</v>
       </c>
       <c r="G60" t="n">
-        <v>-1293983.82061203</v>
+        <v>-1595997.9944984</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>25.89</v>
+        <v>25.69</v>
       </c>
       <c r="C61" t="n">
-        <v>25.89</v>
+        <v>25.69</v>
       </c>
       <c r="D61" t="n">
-        <v>25.89</v>
+        <v>25.69</v>
       </c>
       <c r="E61" t="n">
-        <v>25.89</v>
+        <v>25.69</v>
       </c>
       <c r="F61" t="n">
-        <v>3546.6081</v>
+        <v>413.7364</v>
       </c>
       <c r="G61" t="n">
-        <v>-1293983.82061203</v>
+        <v>-1595997.9944984</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>25.89</v>
+        <v>25.69</v>
       </c>
       <c r="C62" t="n">
-        <v>25.89</v>
+        <v>25.69</v>
       </c>
       <c r="D62" t="n">
-        <v>25.89</v>
+        <v>25.69</v>
       </c>
       <c r="E62" t="n">
-        <v>25.89</v>
+        <v>25.69</v>
       </c>
       <c r="F62" t="n">
-        <v>17789.9203</v>
+        <v>25784.2358</v>
       </c>
       <c r="G62" t="n">
-        <v>-1293983.82061203</v>
+        <v>-1595997.9944984</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>25.79</v>
+        <v>25.7</v>
       </c>
       <c r="C63" t="n">
-        <v>25.89</v>
+        <v>25.8</v>
       </c>
       <c r="D63" t="n">
-        <v>25.89</v>
+        <v>25.8</v>
       </c>
       <c r="E63" t="n">
-        <v>25.79</v>
+        <v>25.7</v>
       </c>
       <c r="F63" t="n">
-        <v>46179.7245</v>
+        <v>13785.71123604</v>
       </c>
       <c r="G63" t="n">
-        <v>-1293983.82061203</v>
+        <v>-1582212.283262359</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>25.89</v>
+        <v>25.79</v>
       </c>
       <c r="C64" t="n">
-        <v>25.89</v>
+        <v>25.79</v>
       </c>
       <c r="D64" t="n">
-        <v>25.89</v>
+        <v>25.79</v>
       </c>
       <c r="E64" t="n">
-        <v>25.89</v>
+        <v>25.79</v>
       </c>
       <c r="F64" t="n">
-        <v>50043.8793</v>
+        <v>3465.6176</v>
       </c>
       <c r="G64" t="n">
-        <v>-1293983.82061203</v>
+        <v>-1585677.900862359</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>25.93</v>
+        <v>25.79</v>
       </c>
       <c r="C65" t="n">
-        <v>25.98</v>
+        <v>25.79</v>
       </c>
       <c r="D65" t="n">
-        <v>25.98</v>
+        <v>25.79</v>
       </c>
       <c r="E65" t="n">
-        <v>25.93</v>
+        <v>25.79</v>
       </c>
       <c r="F65" t="n">
-        <v>51536.8448</v>
+        <v>1000</v>
       </c>
       <c r="G65" t="n">
-        <v>-1242446.97581203</v>
+        <v>-1585677.900862359</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="C66" t="n">
-        <v>25.89</v>
+        <v>25.7</v>
       </c>
       <c r="D66" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="E66" t="n">
-        <v>25.89</v>
+        <v>25.7</v>
       </c>
       <c r="F66" t="n">
-        <v>6389.4056</v>
+        <v>15115.7344</v>
       </c>
       <c r="G66" t="n">
-        <v>-1248836.381412029</v>
+        <v>-1600793.635262359</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>25.89</v>
+        <v>25.6</v>
       </c>
       <c r="C67" t="n">
-        <v>25.89</v>
+        <v>25.51</v>
       </c>
       <c r="D67" t="n">
-        <v>25.89</v>
+        <v>25.6</v>
       </c>
       <c r="E67" t="n">
-        <v>25.89</v>
+        <v>25.51</v>
       </c>
       <c r="F67" t="n">
-        <v>6867.5953</v>
+        <v>10000</v>
       </c>
       <c r="G67" t="n">
-        <v>-1248836.381412029</v>
+        <v>-1610793.635262359</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>25.89</v>
+        <v>25.6</v>
       </c>
       <c r="C68" t="n">
-        <v>25.89</v>
+        <v>25.5</v>
       </c>
       <c r="D68" t="n">
-        <v>25.89</v>
+        <v>25.6</v>
       </c>
       <c r="E68" t="n">
-        <v>25.89</v>
+        <v>25.5</v>
       </c>
       <c r="F68" t="n">
-        <v>1644.3638</v>
+        <v>25225.6499</v>
       </c>
       <c r="G68" t="n">
-        <v>-1248836.381412029</v>
+        <v>-1636019.285162359</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>25.97</v>
+        <v>25.6</v>
       </c>
       <c r="C69" t="n">
-        <v>25.97</v>
+        <v>25.6</v>
       </c>
       <c r="D69" t="n">
-        <v>25.97</v>
+        <v>25.6</v>
       </c>
       <c r="E69" t="n">
-        <v>25.97</v>
+        <v>25.6</v>
       </c>
       <c r="F69" t="n">
         <v>1225.6563</v>
       </c>
       <c r="G69" t="n">
-        <v>-1247610.72511203</v>
+        <v>-1634793.62886236</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>25.71</v>
+        <v>25.6</v>
       </c>
       <c r="C70" t="n">
-        <v>25.71</v>
+        <v>25.6</v>
       </c>
       <c r="D70" t="n">
-        <v>25.71</v>
+        <v>25.6</v>
       </c>
       <c r="E70" t="n">
-        <v>25.71</v>
+        <v>25.6</v>
       </c>
       <c r="F70" t="n">
-        <v>9943.401</v>
+        <v>9603.114600000001</v>
       </c>
       <c r="G70" t="n">
-        <v>-1257554.12611203</v>
+        <v>-1634793.62886236</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>25.71</v>
+        <v>25.6</v>
       </c>
       <c r="C71" t="n">
-        <v>25.71</v>
+        <v>25.6</v>
       </c>
       <c r="D71" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="E71" t="n">
-        <v>25.71</v>
+        <v>25.6</v>
       </c>
       <c r="F71" t="n">
-        <v>22494.2292</v>
+        <v>18496.7584</v>
       </c>
       <c r="G71" t="n">
-        <v>-1257554.12611203</v>
+        <v>-1634793.62886236</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>25.9</v>
+        <v>25.6</v>
       </c>
       <c r="C72" t="n">
-        <v>25.96</v>
+        <v>25.6</v>
       </c>
       <c r="D72" t="n">
-        <v>25.96</v>
+        <v>25.6</v>
       </c>
       <c r="E72" t="n">
-        <v>25.9</v>
+        <v>25.6</v>
       </c>
       <c r="F72" t="n">
-        <v>3857.53534175</v>
+        <v>29748.3729</v>
       </c>
       <c r="G72" t="n">
-        <v>-1253696.59077028</v>
+        <v>-1634793.62886236</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="C73" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="D73" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="E73" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="F73" t="n">
-        <v>254.2835</v>
+        <v>12730.7998</v>
       </c>
       <c r="G73" t="n">
-        <v>-1253950.87427028</v>
+        <v>-1622062.82906236</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>25.71</v>
+        <v>25.7</v>
       </c>
       <c r="C74" t="n">
-        <v>25.64</v>
+        <v>25.7</v>
       </c>
       <c r="D74" t="n">
-        <v>25.71</v>
+        <v>25.7</v>
       </c>
       <c r="E74" t="n">
-        <v>25.64</v>
+        <v>25.7</v>
       </c>
       <c r="F74" t="n">
-        <v>36932.8064</v>
+        <v>3881.3472</v>
       </c>
       <c r="G74" t="n">
-        <v>-1290883.68067028</v>
+        <v>-1622062.82906236</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,6 +3059,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2991,19 +3069,19 @@
         <v>25.7</v>
       </c>
       <c r="C75" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="D75" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="E75" t="n">
         <v>25.7</v>
       </c>
       <c r="F75" t="n">
-        <v>8190.0689</v>
+        <v>31070.32660271</v>
       </c>
       <c r="G75" t="n">
-        <v>-1282693.611770279</v>
+        <v>-1590992.50245965</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="C76" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="D76" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="E76" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="F76" t="n">
-        <v>1563.1628</v>
+        <v>4100</v>
       </c>
       <c r="G76" t="n">
-        <v>-1281130.448970279</v>
+        <v>-1590992.50245965</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>25.9</v>
+        <v>25.71</v>
       </c>
       <c r="C77" t="n">
         <v>25.71</v>
       </c>
       <c r="D77" t="n">
-        <v>25.9</v>
+        <v>25.71</v>
       </c>
       <c r="E77" t="n">
         <v>25.71</v>
       </c>
       <c r="F77" t="n">
-        <v>89228.34050000001</v>
+        <v>20000</v>
       </c>
       <c r="G77" t="n">
-        <v>-1370358.789470279</v>
+        <v>-1610992.50245965</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>25.72</v>
+        <v>25.8</v>
       </c>
       <c r="C78" t="n">
-        <v>25.72</v>
+        <v>25.8</v>
       </c>
       <c r="D78" t="n">
-        <v>25.72</v>
+        <v>25.8</v>
       </c>
       <c r="E78" t="n">
-        <v>25.72</v>
+        <v>25.8</v>
       </c>
       <c r="F78" t="n">
-        <v>34233.5046</v>
+        <v>20</v>
       </c>
       <c r="G78" t="n">
-        <v>-1336125.284870279</v>
+        <v>-1610972.50245965</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>25.72</v>
+        <v>25.79</v>
       </c>
       <c r="C79" t="n">
-        <v>25.72</v>
+        <v>25.79</v>
       </c>
       <c r="D79" t="n">
-        <v>25.72</v>
+        <v>25.79</v>
       </c>
       <c r="E79" t="n">
-        <v>25.72</v>
+        <v>25.79</v>
       </c>
       <c r="F79" t="n">
-        <v>8766.4954</v>
+        <v>3600.6513</v>
       </c>
       <c r="G79" t="n">
-        <v>-1336125.284870279</v>
+        <v>-1614573.15375965</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>25.89</v>
+        <v>25.71</v>
       </c>
       <c r="C80" t="n">
-        <v>25.89</v>
+        <v>25.71</v>
       </c>
       <c r="D80" t="n">
-        <v>25.89</v>
+        <v>25.71</v>
       </c>
       <c r="E80" t="n">
-        <v>25.89</v>
+        <v>25.71</v>
       </c>
       <c r="F80" t="n">
-        <v>3862.49517188</v>
+        <v>15920.9074</v>
       </c>
       <c r="G80" t="n">
-        <v>-1332262.789698399</v>
+        <v>-1630494.06115965</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>25.86</v>
+        <v>25.7</v>
       </c>
       <c r="C81" t="n">
-        <v>25.86</v>
+        <v>25.59</v>
       </c>
       <c r="D81" t="n">
-        <v>25.86</v>
+        <v>25.7</v>
       </c>
       <c r="E81" t="n">
-        <v>25.86</v>
+        <v>25.59</v>
       </c>
       <c r="F81" t="n">
-        <v>43482.1449</v>
+        <v>28424.4286</v>
       </c>
       <c r="G81" t="n">
-        <v>-1375744.934598399</v>
+        <v>-1658918.48975965</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>25.75</v>
+        <v>25.79</v>
       </c>
       <c r="C82" t="n">
-        <v>25.71</v>
+        <v>25.79</v>
       </c>
       <c r="D82" t="n">
-        <v>25.75</v>
+        <v>25.79</v>
       </c>
       <c r="E82" t="n">
-        <v>25.71</v>
+        <v>25.79</v>
       </c>
       <c r="F82" t="n">
-        <v>66681.9476</v>
+        <v>9476.096100000001</v>
       </c>
       <c r="G82" t="n">
-        <v>-1442426.882198399</v>
+        <v>-1649442.39365965</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>25.71</v>
+        <v>25.79</v>
       </c>
       <c r="C83" t="n">
-        <v>25.71</v>
+        <v>25.79</v>
       </c>
       <c r="D83" t="n">
-        <v>25.71</v>
+        <v>25.79</v>
       </c>
       <c r="E83" t="n">
-        <v>25.71</v>
+        <v>25.79</v>
       </c>
       <c r="F83" t="n">
-        <v>60927.6648</v>
+        <v>38400</v>
       </c>
       <c r="G83" t="n">
-        <v>-1442426.882198399</v>
+        <v>-1649442.39365965</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="C84" t="n">
         <v>25.6</v>
       </c>
       <c r="D84" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="E84" t="n">
         <v>25.6</v>
       </c>
       <c r="F84" t="n">
-        <v>200813.3938</v>
+        <v>10131.0582</v>
       </c>
       <c r="G84" t="n">
-        <v>-1643240.275998399</v>
+        <v>-1659573.45185965</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>25.6</v>
+        <v>25.59</v>
       </c>
       <c r="C85" t="n">
-        <v>25.6</v>
+        <v>25.59</v>
       </c>
       <c r="D85" t="n">
-        <v>25.6</v>
+        <v>25.59</v>
       </c>
       <c r="E85" t="n">
-        <v>25.6</v>
+        <v>25.59</v>
       </c>
       <c r="F85" t="n">
-        <v>56919.5195</v>
+        <v>25562.8269</v>
       </c>
       <c r="G85" t="n">
-        <v>-1643240.275998399</v>
+        <v>-1685136.27875965</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3455,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>25.6</v>
+        <v>25.68</v>
       </c>
       <c r="C86" t="n">
-        <v>25.6</v>
+        <v>25.68</v>
       </c>
       <c r="D86" t="n">
-        <v>25.6</v>
+        <v>25.68</v>
       </c>
       <c r="E86" t="n">
-        <v>25.6</v>
+        <v>25.68</v>
       </c>
       <c r="F86" t="n">
-        <v>50000</v>
+        <v>280</v>
       </c>
       <c r="G86" t="n">
-        <v>-1643240.275998399</v>
+        <v>-1684856.27875965</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>25.6</v>
+        <v>25.59</v>
       </c>
       <c r="C87" t="n">
-        <v>25.6</v>
+        <v>25.36</v>
       </c>
       <c r="D87" t="n">
-        <v>25.6</v>
+        <v>25.59</v>
       </c>
       <c r="E87" t="n">
-        <v>25.6</v>
+        <v>25.36</v>
       </c>
       <c r="F87" t="n">
-        <v>1930.502</v>
+        <v>537633.6706</v>
       </c>
       <c r="G87" t="n">
-        <v>-1643240.275998399</v>
+        <v>-2222489.94935965</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="C88" t="n">
-        <v>25.6</v>
+        <v>25.36</v>
       </c>
       <c r="D88" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="E88" t="n">
-        <v>25.6</v>
+        <v>25.36</v>
       </c>
       <c r="F88" t="n">
-        <v>10000</v>
+        <v>74742.53999999999</v>
       </c>
       <c r="G88" t="n">
-        <v>-1643240.275998399</v>
+        <v>-2222489.94935965</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>25.66</v>
+        <v>25.38</v>
       </c>
       <c r="C89" t="n">
-        <v>25.66</v>
+        <v>25.38</v>
       </c>
       <c r="D89" t="n">
-        <v>25.66</v>
+        <v>25.38</v>
       </c>
       <c r="E89" t="n">
-        <v>25.66</v>
+        <v>25.38</v>
       </c>
       <c r="F89" t="n">
-        <v>19162.1456</v>
+        <v>462.2981</v>
       </c>
       <c r="G89" t="n">
-        <v>-1624078.130398399</v>
+        <v>-2222027.65125965</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>25.6</v>
+        <v>25.37</v>
       </c>
       <c r="C90" t="n">
-        <v>25.5</v>
+        <v>25.37</v>
       </c>
       <c r="D90" t="n">
-        <v>25.6</v>
+        <v>25.37</v>
       </c>
       <c r="E90" t="n">
-        <v>25.5</v>
+        <v>25.37</v>
       </c>
       <c r="F90" t="n">
-        <v>6746.9375</v>
+        <v>974.8856</v>
       </c>
       <c r="G90" t="n">
-        <v>-1630825.067898399</v>
+        <v>-2223002.53685965</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>25.69</v>
+        <v>25.38</v>
       </c>
       <c r="C91" t="n">
-        <v>25.69</v>
+        <v>25.37</v>
       </c>
       <c r="D91" t="n">
-        <v>25.69</v>
+        <v>25.38</v>
       </c>
       <c r="E91" t="n">
-        <v>25.69</v>
+        <v>25.37</v>
       </c>
       <c r="F91" t="n">
-        <v>37900.2942</v>
+        <v>59124</v>
       </c>
       <c r="G91" t="n">
-        <v>-1592924.7736984</v>
+        <v>-2223002.53685965</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>25.69</v>
+        <v>25.38</v>
       </c>
       <c r="C92" t="n">
-        <v>25.69</v>
+        <v>25.38</v>
       </c>
       <c r="D92" t="n">
-        <v>25.69</v>
+        <v>25.38</v>
       </c>
       <c r="E92" t="n">
-        <v>25.69</v>
+        <v>25.38</v>
       </c>
       <c r="F92" t="n">
-        <v>2826.3897</v>
+        <v>23450</v>
       </c>
       <c r="G92" t="n">
-        <v>-1592924.7736984</v>
+        <v>-2199552.53685965</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,238 +3707,281 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>25.5</v>
+        <v>25.39</v>
       </c>
       <c r="C93" t="n">
-        <v>25.5</v>
+        <v>25.38</v>
       </c>
       <c r="D93" t="n">
-        <v>25.5</v>
+        <v>25.39</v>
       </c>
       <c r="E93" t="n">
-        <v>25.5</v>
+        <v>25.38</v>
       </c>
       <c r="F93" t="n">
-        <v>2144.0028</v>
+        <v>37118.7161</v>
       </c>
       <c r="G93" t="n">
-        <v>-1595068.776498399</v>
+        <v>-2199552.53685965</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>25.5</v>
+        <v>25.58</v>
       </c>
       <c r="C94" t="n">
-        <v>25.5</v>
+        <v>25.58</v>
       </c>
       <c r="D94" t="n">
-        <v>25.5</v>
+        <v>25.58</v>
       </c>
       <c r="E94" t="n">
-        <v>25.5</v>
+        <v>25.58</v>
       </c>
       <c r="F94" t="n">
-        <v>1205.7552</v>
+        <v>7519.0557</v>
       </c>
       <c r="G94" t="n">
-        <v>-1595068.776498399</v>
+        <v>-2192033.48115965</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>25.5</v>
+        <v>25.48</v>
       </c>
       <c r="C95" t="n">
-        <v>25.5</v>
+        <v>25.38</v>
       </c>
       <c r="D95" t="n">
-        <v>25.5</v>
+        <v>25.48</v>
       </c>
       <c r="E95" t="n">
-        <v>25.5</v>
+        <v>25.38</v>
       </c>
       <c r="F95" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="G95" t="n">
-        <v>-1595068.776498399</v>
+        <v>-2194033.48115965</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>25.58</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>25.5</v>
+        <v>25.48</v>
       </c>
       <c r="C96" t="n">
-        <v>25.5</v>
+        <v>25.39</v>
       </c>
       <c r="D96" t="n">
-        <v>25.5</v>
+        <v>25.48</v>
       </c>
       <c r="E96" t="n">
-        <v>25.5</v>
+        <v>25.39</v>
       </c>
       <c r="F96" t="n">
-        <v>11747.1555</v>
+        <v>3751</v>
       </c>
       <c r="G96" t="n">
-        <v>-1595068.776498399</v>
+        <v>-2190282.48115965</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>25.5</v>
+        <v>25.58</v>
       </c>
       <c r="C97" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="D97" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="E97" t="n">
-        <v>25.5</v>
+        <v>25.58</v>
       </c>
       <c r="F97" t="n">
-        <v>1000</v>
+        <v>13424.7841</v>
       </c>
       <c r="G97" t="n">
-        <v>-1595068.776498399</v>
+        <v>-2176857.69705965</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>25.39</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>25.5</v>
+        <v>25.64</v>
       </c>
       <c r="C98" t="n">
-        <v>25.5</v>
+        <v>25.64</v>
       </c>
       <c r="D98" t="n">
-        <v>25.5</v>
+        <v>25.64</v>
       </c>
       <c r="E98" t="n">
-        <v>25.5</v>
+        <v>25.64</v>
       </c>
       <c r="F98" t="n">
-        <v>4096.539</v>
+        <v>2266.5391</v>
       </c>
       <c r="G98" t="n">
-        <v>-1595068.776498399</v>
+        <v>-2174591.15795965</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>25.6</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="C99" t="n">
-        <v>25.5</v>
+        <v>25.38</v>
       </c>
       <c r="D99" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="E99" t="n">
-        <v>25.5</v>
+        <v>25.38</v>
       </c>
       <c r="F99" t="n">
-        <v>73069.41280000001</v>
+        <v>70000</v>
       </c>
       <c r="G99" t="n">
-        <v>-1595068.776498399</v>
+        <v>-2244591.15795965</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3853,32 +3991,37 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>25.5</v>
+        <v>25.62</v>
       </c>
       <c r="C100" t="n">
-        <v>25.5</v>
+        <v>25.62</v>
       </c>
       <c r="D100" t="n">
-        <v>25.5</v>
+        <v>25.62</v>
       </c>
       <c r="E100" t="n">
-        <v>25.5</v>
+        <v>25.62</v>
       </c>
       <c r="F100" t="n">
-        <v>8093</v>
+        <v>15735.8383</v>
       </c>
       <c r="G100" t="n">
-        <v>-1595068.776498399</v>
+        <v>-2228855.31965965</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3888,10 +4031,15 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3901,54 +4049,61 @@
         <v>25.5</v>
       </c>
       <c r="C101" t="n">
-        <v>25.48</v>
+        <v>25.39</v>
       </c>
       <c r="D101" t="n">
         <v>25.5</v>
       </c>
       <c r="E101" t="n">
-        <v>25.48</v>
+        <v>25.39</v>
       </c>
       <c r="F101" t="n">
-        <v>949.218</v>
+        <v>55049.149</v>
       </c>
       <c r="G101" t="n">
-        <v>-1596017.9944984</v>
+        <v>-2283904.468659651</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>25.62</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>25.69</v>
+        <v>25.6</v>
       </c>
       <c r="C102" t="n">
-        <v>25.69</v>
+        <v>25.6</v>
       </c>
       <c r="D102" t="n">
-        <v>25.69</v>
+        <v>25.6</v>
       </c>
       <c r="E102" t="n">
-        <v>25.69</v>
+        <v>25.6</v>
       </c>
       <c r="F102" t="n">
-        <v>20</v>
+        <v>2393.1387</v>
       </c>
       <c r="G102" t="n">
-        <v>-1595997.9944984</v>
+        <v>-2281511.329959651</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3958,67 +4113,79 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>25.69</v>
+        <v>25.6</v>
       </c>
       <c r="C103" t="n">
-        <v>25.69</v>
+        <v>25.6</v>
       </c>
       <c r="D103" t="n">
-        <v>25.69</v>
+        <v>25.6</v>
       </c>
       <c r="E103" t="n">
-        <v>25.69</v>
+        <v>25.6</v>
       </c>
       <c r="F103" t="n">
-        <v>413.7364</v>
+        <v>562.0999</v>
       </c>
       <c r="G103" t="n">
-        <v>-1595997.9944984</v>
+        <v>-2281511.329959651</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>25.6</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>25.69</v>
+        <v>25.49</v>
       </c>
       <c r="C104" t="n">
-        <v>25.69</v>
+        <v>25.49</v>
       </c>
       <c r="D104" t="n">
-        <v>25.69</v>
+        <v>25.49</v>
       </c>
       <c r="E104" t="n">
-        <v>25.69</v>
+        <v>25.49</v>
       </c>
       <c r="F104" t="n">
-        <v>25784.2358</v>
+        <v>6125.3761</v>
       </c>
       <c r="G104" t="n">
-        <v>-1595997.9944984</v>
+        <v>-2287636.706059651</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4028,67 +4195,79 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>25.7</v>
+        <v>25.49</v>
       </c>
       <c r="C105" t="n">
-        <v>25.8</v>
+        <v>25.4</v>
       </c>
       <c r="D105" t="n">
-        <v>25.8</v>
+        <v>25.49</v>
       </c>
       <c r="E105" t="n">
-        <v>25.7</v>
+        <v>25.4</v>
       </c>
       <c r="F105" t="n">
-        <v>13785.71123604</v>
+        <v>51916.1713</v>
       </c>
       <c r="G105" t="n">
-        <v>-1582212.283262359</v>
+        <v>-2339552.877359651</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>25.49</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>25.79</v>
+        <v>25.44</v>
       </c>
       <c r="C106" t="n">
-        <v>25.79</v>
+        <v>25.4</v>
       </c>
       <c r="D106" t="n">
-        <v>25.79</v>
+        <v>25.44</v>
       </c>
       <c r="E106" t="n">
-        <v>25.79</v>
+        <v>25.4</v>
       </c>
       <c r="F106" t="n">
-        <v>3465.6176</v>
+        <v>20000</v>
       </c>
       <c r="G106" t="n">
-        <v>-1585677.900862359</v>
+        <v>-2339552.877359651</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4098,67 +4277,79 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>25.79</v>
+        <v>25.6</v>
       </c>
       <c r="C107" t="n">
-        <v>25.79</v>
+        <v>25.6</v>
       </c>
       <c r="D107" t="n">
-        <v>25.79</v>
+        <v>25.6</v>
       </c>
       <c r="E107" t="n">
-        <v>25.79</v>
+        <v>25.6</v>
       </c>
       <c r="F107" t="n">
-        <v>1000</v>
+        <v>5257.0912</v>
       </c>
       <c r="G107" t="n">
-        <v>-1585677.900862359</v>
+        <v>-2334295.78615965</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>25.4</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>25.7</v>
+        <v>25.55</v>
       </c>
       <c r="C108" t="n">
-        <v>25.7</v>
+        <v>25.55</v>
       </c>
       <c r="D108" t="n">
-        <v>25.7</v>
+        <v>25.55</v>
       </c>
       <c r="E108" t="n">
-        <v>25.7</v>
+        <v>25.55</v>
       </c>
       <c r="F108" t="n">
-        <v>15115.7344</v>
+        <v>1144.1549</v>
       </c>
       <c r="G108" t="n">
-        <v>-1600793.635262359</v>
+        <v>-2335439.94105965</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4168,32 +4359,37 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>25.6</v>
+        <v>25.48</v>
       </c>
       <c r="C109" t="n">
-        <v>25.51</v>
+        <v>25.48</v>
       </c>
       <c r="D109" t="n">
-        <v>25.6</v>
+        <v>25.48</v>
       </c>
       <c r="E109" t="n">
-        <v>25.51</v>
+        <v>25.4</v>
       </c>
       <c r="F109" t="n">
-        <v>10000</v>
+        <v>120799.5547</v>
       </c>
       <c r="G109" t="n">
-        <v>-1610793.635262359</v>
+        <v>-2456239.495759651</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4203,32 +4399,37 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>25.6</v>
+        <v>25.39</v>
       </c>
       <c r="C110" t="n">
-        <v>25.5</v>
+        <v>25.39</v>
       </c>
       <c r="D110" t="n">
-        <v>25.6</v>
+        <v>25.39</v>
       </c>
       <c r="E110" t="n">
-        <v>25.5</v>
+        <v>25.39</v>
       </c>
       <c r="F110" t="n">
-        <v>25225.6499</v>
+        <v>1855.8451</v>
       </c>
       <c r="G110" t="n">
-        <v>-1636019.285162359</v>
+        <v>-2458095.340859651</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4238,67 +4439,79 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="C111" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="D111" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="E111" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="F111" t="n">
-        <v>1225.6563</v>
+        <v>21911.94</v>
       </c>
       <c r="G111" t="n">
-        <v>-1634793.62886236</v>
+        <v>-2436183.400859651</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>25.39</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>25.6</v>
+        <v>25.39</v>
       </c>
       <c r="C112" t="n">
-        <v>25.6</v>
+        <v>25.39</v>
       </c>
       <c r="D112" t="n">
-        <v>25.6</v>
+        <v>25.39</v>
       </c>
       <c r="E112" t="n">
-        <v>25.6</v>
+        <v>25.39</v>
       </c>
       <c r="F112" t="n">
-        <v>9603.114600000001</v>
+        <v>6594.7</v>
       </c>
       <c r="G112" t="n">
-        <v>-1634793.62886236</v>
+        <v>-2442778.100859651</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4308,10 +4521,15 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4330,23 +4548,30 @@
         <v>25.6</v>
       </c>
       <c r="F113" t="n">
-        <v>18496.7584</v>
+        <v>4180.8089</v>
       </c>
       <c r="G113" t="n">
-        <v>-1634793.62886236</v>
+        <v>-2438597.291959651</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>25.39</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4356,19 +4581,19 @@
         <v>25.6</v>
       </c>
       <c r="C114" t="n">
-        <v>25.6</v>
+        <v>25.39</v>
       </c>
       <c r="D114" t="n">
         <v>25.6</v>
       </c>
       <c r="E114" t="n">
-        <v>25.6</v>
+        <v>25.39</v>
       </c>
       <c r="F114" t="n">
-        <v>29748.3729</v>
+        <v>10900</v>
       </c>
       <c r="G114" t="n">
-        <v>-1634793.62886236</v>
+        <v>-2449497.291959651</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4378,32 +4603,37 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="C115" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="D115" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="E115" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="F115" t="n">
-        <v>12730.7998</v>
+        <v>2474.0522</v>
       </c>
       <c r="G115" t="n">
-        <v>-1622062.82906236</v>
+        <v>-2447023.239759651</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4413,32 +4643,37 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>25.7</v>
+        <v>25.68</v>
       </c>
       <c r="C116" t="n">
-        <v>25.7</v>
+        <v>25.68</v>
       </c>
       <c r="D116" t="n">
-        <v>25.7</v>
+        <v>25.68</v>
       </c>
       <c r="E116" t="n">
-        <v>25.7</v>
+        <v>25.68</v>
       </c>
       <c r="F116" t="n">
-        <v>3881.3472</v>
+        <v>1947.04049844</v>
       </c>
       <c r="G116" t="n">
-        <v>-1622062.82906236</v>
+        <v>-2445076.199261211</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4448,32 +4683,37 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="C117" t="n">
-        <v>25.8</v>
+        <v>25.41</v>
       </c>
       <c r="D117" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="E117" t="n">
-        <v>25.7</v>
+        <v>25.41</v>
       </c>
       <c r="F117" t="n">
-        <v>31070.32660271</v>
+        <v>5000</v>
       </c>
       <c r="G117" t="n">
-        <v>-1590992.50245965</v>
+        <v>-2450076.199261211</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4483,32 +4723,37 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>25.8</v>
+        <v>25.51</v>
       </c>
       <c r="C118" t="n">
-        <v>25.8</v>
+        <v>25.51</v>
       </c>
       <c r="D118" t="n">
-        <v>25.8</v>
+        <v>25.51</v>
       </c>
       <c r="E118" t="n">
-        <v>25.8</v>
+        <v>25.51</v>
       </c>
       <c r="F118" t="n">
-        <v>4100</v>
+        <v>2917.3869</v>
       </c>
       <c r="G118" t="n">
-        <v>-1590992.50245965</v>
+        <v>-2447158.812361211</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4518,32 +4763,37 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>25.71</v>
+        <v>25.51</v>
       </c>
       <c r="C119" t="n">
-        <v>25.71</v>
+        <v>25.51</v>
       </c>
       <c r="D119" t="n">
-        <v>25.71</v>
+        <v>25.51</v>
       </c>
       <c r="E119" t="n">
-        <v>25.71</v>
+        <v>25.51</v>
       </c>
       <c r="F119" t="n">
-        <v>20000</v>
+        <v>145.7233</v>
       </c>
       <c r="G119" t="n">
-        <v>-1610992.50245965</v>
+        <v>-2447158.812361211</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4553,32 +4803,37 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>25.8</v>
+        <v>25.51</v>
       </c>
       <c r="C120" t="n">
-        <v>25.8</v>
+        <v>25.51</v>
       </c>
       <c r="D120" t="n">
-        <v>25.8</v>
+        <v>25.51</v>
       </c>
       <c r="E120" t="n">
-        <v>25.8</v>
+        <v>25.51</v>
       </c>
       <c r="F120" t="n">
-        <v>20</v>
+        <v>3783.016</v>
       </c>
       <c r="G120" t="n">
-        <v>-1610972.50245965</v>
+        <v>-2447158.812361211</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4588,32 +4843,37 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>25.79</v>
+        <v>25.6</v>
       </c>
       <c r="C121" t="n">
-        <v>25.79</v>
+        <v>25.6</v>
       </c>
       <c r="D121" t="n">
-        <v>25.79</v>
+        <v>25.6</v>
       </c>
       <c r="E121" t="n">
-        <v>25.79</v>
+        <v>25.6</v>
       </c>
       <c r="F121" t="n">
-        <v>3600.6513</v>
+        <v>2368.7679</v>
       </c>
       <c r="G121" t="n">
-        <v>-1614573.15375965</v>
+        <v>-2444790.044461211</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4623,32 +4883,37 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>25.71</v>
+        <v>25.68</v>
       </c>
       <c r="C122" t="n">
-        <v>25.71</v>
+        <v>25.68</v>
       </c>
       <c r="D122" t="n">
-        <v>25.71</v>
+        <v>25.68</v>
       </c>
       <c r="E122" t="n">
-        <v>25.71</v>
+        <v>25.68</v>
       </c>
       <c r="F122" t="n">
-        <v>15920.9074</v>
+        <v>144.7976</v>
       </c>
       <c r="G122" t="n">
-        <v>-1630494.06115965</v>
+        <v>-2444645.246861211</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4658,32 +4923,37 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>25.7</v>
+        <v>25.68</v>
       </c>
       <c r="C123" t="n">
-        <v>25.59</v>
+        <v>25.72</v>
       </c>
       <c r="D123" t="n">
-        <v>25.7</v>
+        <v>25.72</v>
       </c>
       <c r="E123" t="n">
-        <v>25.59</v>
+        <v>25.68</v>
       </c>
       <c r="F123" t="n">
-        <v>28424.4286</v>
+        <v>12508</v>
       </c>
       <c r="G123" t="n">
-        <v>-1658918.48975965</v>
+        <v>-2432137.246861211</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4693,32 +4963,37 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>25.79</v>
+        <v>25.72</v>
       </c>
       <c r="C124" t="n">
-        <v>25.79</v>
+        <v>25.82</v>
       </c>
       <c r="D124" t="n">
-        <v>25.79</v>
+        <v>25.82</v>
       </c>
       <c r="E124" t="n">
-        <v>25.79</v>
+        <v>25.72</v>
       </c>
       <c r="F124" t="n">
-        <v>9476.096100000001</v>
+        <v>15344</v>
       </c>
       <c r="G124" t="n">
-        <v>-1649442.39365965</v>
+        <v>-2416793.246861211</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4728,32 +5003,37 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>25.79</v>
+        <v>25.72</v>
       </c>
       <c r="C125" t="n">
-        <v>25.79</v>
+        <v>25.83</v>
       </c>
       <c r="D125" t="n">
-        <v>25.79</v>
+        <v>25.83</v>
       </c>
       <c r="E125" t="n">
-        <v>25.79</v>
+        <v>25.72</v>
       </c>
       <c r="F125" t="n">
-        <v>38400</v>
+        <v>9850.5461782</v>
       </c>
       <c r="G125" t="n">
-        <v>-1649442.39365965</v>
+        <v>-2406942.700683011</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4763,32 +5043,37 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>25.6</v>
+        <v>25.83</v>
       </c>
       <c r="C126" t="n">
-        <v>25.6</v>
+        <v>25.83</v>
       </c>
       <c r="D126" t="n">
-        <v>25.6</v>
+        <v>25.83</v>
       </c>
       <c r="E126" t="n">
-        <v>25.6</v>
+        <v>25.83</v>
       </c>
       <c r="F126" t="n">
-        <v>10131.0582</v>
+        <v>14040</v>
       </c>
       <c r="G126" t="n">
-        <v>-1659573.45185965</v>
+        <v>-2406942.700683011</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4798,32 +5083,37 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>25.59</v>
+        <v>25.53</v>
       </c>
       <c r="C127" t="n">
-        <v>25.59</v>
+        <v>25.53</v>
       </c>
       <c r="D127" t="n">
-        <v>25.59</v>
+        <v>25.53</v>
       </c>
       <c r="E127" t="n">
-        <v>25.59</v>
+        <v>25.53</v>
       </c>
       <c r="F127" t="n">
-        <v>25562.8269</v>
+        <v>20</v>
       </c>
       <c r="G127" t="n">
-        <v>-1685136.27875965</v>
+        <v>-2406962.700683011</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4833,32 +5123,37 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>25.68</v>
+        <v>25.64</v>
       </c>
       <c r="C128" t="n">
-        <v>25.68</v>
+        <v>25.64</v>
       </c>
       <c r="D128" t="n">
-        <v>25.68</v>
+        <v>25.64</v>
       </c>
       <c r="E128" t="n">
-        <v>25.68</v>
+        <v>25.64</v>
       </c>
       <c r="F128" t="n">
-        <v>280</v>
+        <v>16140</v>
       </c>
       <c r="G128" t="n">
-        <v>-1684856.27875965</v>
+        <v>-2390822.700683011</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4868,32 +5163,37 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>25.59</v>
+        <v>25.68</v>
       </c>
       <c r="C129" t="n">
-        <v>25.36</v>
+        <v>25.68</v>
       </c>
       <c r="D129" t="n">
-        <v>25.59</v>
+        <v>25.68</v>
       </c>
       <c r="E129" t="n">
-        <v>25.36</v>
+        <v>25.68</v>
       </c>
       <c r="F129" t="n">
-        <v>537633.6706</v>
+        <v>1160</v>
       </c>
       <c r="G129" t="n">
-        <v>-2222489.94935965</v>
+        <v>-2389662.700683011</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4903,32 +5203,37 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>25.5</v>
+        <v>25.65</v>
       </c>
       <c r="C130" t="n">
-        <v>25.36</v>
+        <v>25.56</v>
       </c>
       <c r="D130" t="n">
-        <v>25.5</v>
+        <v>25.65</v>
       </c>
       <c r="E130" t="n">
-        <v>25.36</v>
+        <v>25.56</v>
       </c>
       <c r="F130" t="n">
-        <v>74742.53999999999</v>
+        <v>20813.4873</v>
       </c>
       <c r="G130" t="n">
-        <v>-2222489.94935965</v>
+        <v>-2410476.187983011</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4938,32 +5243,37 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>25.38</v>
+        <v>25.6</v>
       </c>
       <c r="C131" t="n">
-        <v>25.38</v>
+        <v>25.6</v>
       </c>
       <c r="D131" t="n">
-        <v>25.38</v>
+        <v>25.6</v>
       </c>
       <c r="E131" t="n">
-        <v>25.38</v>
+        <v>25.6</v>
       </c>
       <c r="F131" t="n">
-        <v>462.2981</v>
+        <v>678</v>
       </c>
       <c r="G131" t="n">
-        <v>-2222027.65125965</v>
+        <v>-2409798.187983011</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4973,32 +5283,37 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>25.37</v>
+        <v>25.6</v>
       </c>
       <c r="C132" t="n">
-        <v>25.37</v>
+        <v>25.54</v>
       </c>
       <c r="D132" t="n">
-        <v>25.37</v>
+        <v>25.6</v>
       </c>
       <c r="E132" t="n">
-        <v>25.37</v>
+        <v>25.54</v>
       </c>
       <c r="F132" t="n">
-        <v>974.8856</v>
+        <v>20135.4873</v>
       </c>
       <c r="G132" t="n">
-        <v>-2223002.53685965</v>
+        <v>-2429933.675283012</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5008,32 +5323,37 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>25.38</v>
+        <v>25.6</v>
       </c>
       <c r="C133" t="n">
-        <v>25.37</v>
+        <v>25.54</v>
       </c>
       <c r="D133" t="n">
-        <v>25.38</v>
+        <v>25.6</v>
       </c>
       <c r="E133" t="n">
-        <v>25.37</v>
+        <v>25.54</v>
       </c>
       <c r="F133" t="n">
-        <v>59124</v>
+        <v>17624.3129</v>
       </c>
       <c r="G133" t="n">
-        <v>-2223002.53685965</v>
+        <v>-2429933.675283012</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5043,32 +5363,37 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>25.38</v>
+        <v>25.53</v>
       </c>
       <c r="C134" t="n">
-        <v>25.38</v>
+        <v>25.43</v>
       </c>
       <c r="D134" t="n">
-        <v>25.38</v>
+        <v>25.53</v>
       </c>
       <c r="E134" t="n">
-        <v>25.38</v>
+        <v>25.43</v>
       </c>
       <c r="F134" t="n">
-        <v>23450</v>
+        <v>40000</v>
       </c>
       <c r="G134" t="n">
-        <v>-2199552.53685965</v>
+        <v>-2469933.675283012</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5078,32 +5403,37 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>25.39</v>
+        <v>25.6</v>
       </c>
       <c r="C135" t="n">
-        <v>25.38</v>
+        <v>25.6</v>
       </c>
       <c r="D135" t="n">
-        <v>25.39</v>
+        <v>25.6</v>
       </c>
       <c r="E135" t="n">
-        <v>25.38</v>
+        <v>25.6</v>
       </c>
       <c r="F135" t="n">
-        <v>37118.7161</v>
+        <v>33.4336</v>
       </c>
       <c r="G135" t="n">
-        <v>-2199552.53685965</v>
+        <v>-2469900.241683011</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5113,32 +5443,37 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>25.58</v>
+        <v>25.6</v>
       </c>
       <c r="C136" t="n">
-        <v>25.58</v>
+        <v>25.6</v>
       </c>
       <c r="D136" t="n">
-        <v>25.58</v>
+        <v>25.6</v>
       </c>
       <c r="E136" t="n">
-        <v>25.58</v>
+        <v>25.6</v>
       </c>
       <c r="F136" t="n">
-        <v>7519.0557</v>
+        <v>68358.6966</v>
       </c>
       <c r="G136" t="n">
-        <v>-2192033.48115965</v>
+        <v>-2469900.241683011</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5148,83 +5483,85 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>25.48</v>
+        <v>25.6</v>
       </c>
       <c r="C137" t="n">
-        <v>25.38</v>
+        <v>25.6</v>
       </c>
       <c r="D137" t="n">
-        <v>25.48</v>
+        <v>25.6</v>
       </c>
       <c r="E137" t="n">
-        <v>25.38</v>
+        <v>25.6</v>
       </c>
       <c r="F137" t="n">
-        <v>2000</v>
+        <v>6357.4884</v>
       </c>
       <c r="G137" t="n">
-        <v>-2194033.48115965</v>
+        <v>-2469900.241683011</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>25.58</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>25.48</v>
+        <v>25.6</v>
       </c>
       <c r="C138" t="n">
-        <v>25.39</v>
+        <v>25.6</v>
       </c>
       <c r="D138" t="n">
-        <v>25.48</v>
+        <v>25.6</v>
       </c>
       <c r="E138" t="n">
-        <v>25.39</v>
+        <v>25.6</v>
       </c>
       <c r="F138" t="n">
-        <v>3751</v>
+        <v>11498.5559</v>
       </c>
       <c r="G138" t="n">
-        <v>-2190282.48115965</v>
+        <v>-2469900.241683011</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
@@ -5234,38 +5571,37 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>25.58</v>
+        <v>25.81</v>
       </c>
       <c r="C139" t="n">
-        <v>25.6</v>
+        <v>25.81</v>
       </c>
       <c r="D139" t="n">
-        <v>25.6</v>
+        <v>25.81</v>
       </c>
       <c r="E139" t="n">
-        <v>25.58</v>
+        <v>25.81</v>
       </c>
       <c r="F139" t="n">
-        <v>13424.7841</v>
+        <v>28.2443</v>
       </c>
       <c r="G139" t="n">
-        <v>-2176857.69705965</v>
+        <v>-2469871.997383012</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>25.39</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
@@ -5275,38 +5611,37 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>25.64</v>
+        <v>25.6</v>
       </c>
       <c r="C140" t="n">
-        <v>25.64</v>
+        <v>25.5</v>
       </c>
       <c r="D140" t="n">
-        <v>25.64</v>
+        <v>25.6</v>
       </c>
       <c r="E140" t="n">
-        <v>25.64</v>
+        <v>25.5</v>
       </c>
       <c r="F140" t="n">
-        <v>2266.5391</v>
+        <v>32882</v>
       </c>
       <c r="G140" t="n">
-        <v>-2174591.15795965</v>
+        <v>-2502753.997383012</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>25.6</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
@@ -5316,6 +5651,7 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5325,19 +5661,19 @@
         <v>25.6</v>
       </c>
       <c r="C141" t="n">
-        <v>25.38</v>
+        <v>25.71</v>
       </c>
       <c r="D141" t="n">
-        <v>25.6</v>
+        <v>25.71</v>
       </c>
       <c r="E141" t="n">
-        <v>25.38</v>
+        <v>25.6</v>
       </c>
       <c r="F141" t="n">
-        <v>70000</v>
+        <v>7785.27592699</v>
       </c>
       <c r="G141" t="n">
-        <v>-2244591.15795965</v>
+        <v>-2494968.721456022</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5355,28 +5691,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>25.62</v>
+        <v>25.81</v>
       </c>
       <c r="C142" t="n">
-        <v>25.62</v>
+        <v>25.81</v>
       </c>
       <c r="D142" t="n">
-        <v>25.62</v>
+        <v>25.81</v>
       </c>
       <c r="E142" t="n">
-        <v>25.62</v>
+        <v>25.81</v>
       </c>
       <c r="F142" t="n">
-        <v>15735.8383</v>
+        <v>1937.23363037</v>
       </c>
       <c r="G142" t="n">
-        <v>-2228855.31965965</v>
+        <v>-2493031.487825652</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5394,28 +5731,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>25.5</v>
+        <v>25.81</v>
       </c>
       <c r="C143" t="n">
-        <v>25.39</v>
+        <v>25.81</v>
       </c>
       <c r="D143" t="n">
-        <v>25.5</v>
+        <v>25.81</v>
       </c>
       <c r="E143" t="n">
-        <v>25.39</v>
+        <v>25.81</v>
       </c>
       <c r="F143" t="n">
-        <v>55049.149</v>
+        <v>10595.61496963</v>
       </c>
       <c r="G143" t="n">
-        <v>-2283904.468659651</v>
+        <v>-2493031.487825652</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5433,28 +5771,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>25.6</v>
+        <v>25.81</v>
       </c>
       <c r="C144" t="n">
-        <v>25.6</v>
+        <v>25.81</v>
       </c>
       <c r="D144" t="n">
-        <v>25.6</v>
+        <v>25.81</v>
       </c>
       <c r="E144" t="n">
-        <v>25.6</v>
+        <v>25.81</v>
       </c>
       <c r="F144" t="n">
-        <v>2393.1387</v>
+        <v>10000</v>
       </c>
       <c r="G144" t="n">
-        <v>-2281511.329959651</v>
+        <v>-2493031.487825652</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5472,28 +5811,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>25.6</v>
+        <v>25.61</v>
       </c>
       <c r="C145" t="n">
-        <v>25.6</v>
+        <v>25.61</v>
       </c>
       <c r="D145" t="n">
-        <v>25.6</v>
+        <v>25.61</v>
       </c>
       <c r="E145" t="n">
-        <v>25.6</v>
+        <v>25.61</v>
       </c>
       <c r="F145" t="n">
-        <v>562.0999</v>
+        <v>10000</v>
       </c>
       <c r="G145" t="n">
-        <v>-2281511.329959651</v>
+        <v>-2503031.487825652</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5511,38 +5851,37 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>25.49</v>
+        <v>25.74</v>
       </c>
       <c r="C146" t="n">
-        <v>25.49</v>
+        <v>25.74</v>
       </c>
       <c r="D146" t="n">
-        <v>25.49</v>
+        <v>25.74</v>
       </c>
       <c r="E146" t="n">
-        <v>25.49</v>
+        <v>25.74</v>
       </c>
       <c r="F146" t="n">
-        <v>6125.3761</v>
+        <v>990.8264</v>
       </c>
       <c r="G146" t="n">
-        <v>-2287636.706059651</v>
+        <v>-2502040.661425652</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>25.6</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
@@ -5552,28 +5891,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>25.49</v>
+        <v>25.74</v>
       </c>
       <c r="C147" t="n">
-        <v>25.4</v>
+        <v>25.74</v>
       </c>
       <c r="D147" t="n">
-        <v>25.49</v>
+        <v>25.74</v>
       </c>
       <c r="E147" t="n">
-        <v>25.4</v>
+        <v>25.74</v>
       </c>
       <c r="F147" t="n">
-        <v>51916.1713</v>
+        <v>4969.1736</v>
       </c>
       <c r="G147" t="n">
-        <v>-2339552.877359651</v>
+        <v>-2502040.661425652</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5591,38 +5931,37 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>25.44</v>
+        <v>25.74</v>
       </c>
       <c r="C148" t="n">
-        <v>25.4</v>
+        <v>25.74</v>
       </c>
       <c r="D148" t="n">
-        <v>25.44</v>
+        <v>25.74</v>
       </c>
       <c r="E148" t="n">
-        <v>25.4</v>
+        <v>25.74</v>
       </c>
       <c r="F148" t="n">
-        <v>20000</v>
+        <v>1444.2777</v>
       </c>
       <c r="G148" t="n">
-        <v>-2339552.877359651</v>
+        <v>-2502040.661425652</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>25.4</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
@@ -5632,38 +5971,37 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>25.6</v>
+        <v>25.74</v>
       </c>
       <c r="C149" t="n">
-        <v>25.6</v>
+        <v>25.82</v>
       </c>
       <c r="D149" t="n">
-        <v>25.6</v>
+        <v>25.82</v>
       </c>
       <c r="E149" t="n">
-        <v>25.6</v>
+        <v>25.74</v>
       </c>
       <c r="F149" t="n">
-        <v>5257.0912</v>
+        <v>4574.90897699</v>
       </c>
       <c r="G149" t="n">
-        <v>-2334295.78615965</v>
+        <v>-2497465.752448662</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>25.4</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
@@ -5673,28 +6011,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>25.55</v>
+        <v>25.82</v>
       </c>
       <c r="C150" t="n">
-        <v>25.55</v>
+        <v>25.84</v>
       </c>
       <c r="D150" t="n">
-        <v>25.55</v>
+        <v>25.84</v>
       </c>
       <c r="E150" t="n">
-        <v>25.55</v>
+        <v>25.82</v>
       </c>
       <c r="F150" t="n">
-        <v>1144.1549</v>
+        <v>51010.76552301</v>
       </c>
       <c r="G150" t="n">
-        <v>-2335439.94105965</v>
+        <v>-2446454.986925652</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5712,28 +6051,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>25.48</v>
+        <v>25.84</v>
       </c>
       <c r="C151" t="n">
-        <v>25.48</v>
+        <v>25.84</v>
       </c>
       <c r="D151" t="n">
-        <v>25.48</v>
+        <v>25.84</v>
       </c>
       <c r="E151" t="n">
-        <v>25.4</v>
+        <v>25.84</v>
       </c>
       <c r="F151" t="n">
-        <v>120799.5547</v>
+        <v>14691.9361</v>
       </c>
       <c r="G151" t="n">
-        <v>-2456239.495759651</v>
+        <v>-2446454.986925652</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5751,28 +6091,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>25.39</v>
+        <v>25.94</v>
       </c>
       <c r="C152" t="n">
-        <v>25.39</v>
+        <v>25.94</v>
       </c>
       <c r="D152" t="n">
-        <v>25.39</v>
+        <v>25.94</v>
       </c>
       <c r="E152" t="n">
-        <v>25.39</v>
+        <v>25.94</v>
       </c>
       <c r="F152" t="n">
-        <v>1855.8451</v>
+        <v>17500</v>
       </c>
       <c r="G152" t="n">
-        <v>-2458095.340859651</v>
+        <v>-2428954.986925652</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5790,28 +6131,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>25.4</v>
+        <v>25.95</v>
       </c>
       <c r="C153" t="n">
-        <v>25.4</v>
+        <v>25.95</v>
       </c>
       <c r="D153" t="n">
-        <v>25.4</v>
+        <v>25.95</v>
       </c>
       <c r="E153" t="n">
-        <v>25.4</v>
+        <v>25.95</v>
       </c>
       <c r="F153" t="n">
-        <v>21911.94</v>
+        <v>88352.74430000001</v>
       </c>
       <c r="G153" t="n">
-        <v>-2436183.400859651</v>
+        <v>-2340602.242625652</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5829,1644 +6171,7 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>25.39</v>
-      </c>
-      <c r="C154" t="n">
-        <v>25.39</v>
-      </c>
-      <c r="D154" t="n">
-        <v>25.39</v>
-      </c>
-      <c r="E154" t="n">
-        <v>25.39</v>
-      </c>
-      <c r="F154" t="n">
-        <v>6594.7</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-2442778.100859651</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C155" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="D155" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="E155" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="F155" t="n">
-        <v>4180.8089</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-2438597.291959651</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C156" t="n">
-        <v>25.39</v>
-      </c>
-      <c r="D156" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="E156" t="n">
-        <v>25.39</v>
-      </c>
-      <c r="F156" t="n">
-        <v>10900</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-2449497.291959651</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C157" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="D157" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="E157" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="F157" t="n">
-        <v>2474.0522</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-2447023.239759651</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>25.68</v>
-      </c>
-      <c r="C158" t="n">
-        <v>25.68</v>
-      </c>
-      <c r="D158" t="n">
-        <v>25.68</v>
-      </c>
-      <c r="E158" t="n">
-        <v>25.68</v>
-      </c>
-      <c r="F158" t="n">
-        <v>1947.04049844</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-2445076.199261211</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C159" t="n">
-        <v>25.41</v>
-      </c>
-      <c r="D159" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="E159" t="n">
-        <v>25.41</v>
-      </c>
-      <c r="F159" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-2450076.199261211</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>25.51</v>
-      </c>
-      <c r="C160" t="n">
-        <v>25.51</v>
-      </c>
-      <c r="D160" t="n">
-        <v>25.51</v>
-      </c>
-      <c r="E160" t="n">
-        <v>25.51</v>
-      </c>
-      <c r="F160" t="n">
-        <v>2917.3869</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-2447158.812361211</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>25.51</v>
-      </c>
-      <c r="C161" t="n">
-        <v>25.51</v>
-      </c>
-      <c r="D161" t="n">
-        <v>25.51</v>
-      </c>
-      <c r="E161" t="n">
-        <v>25.51</v>
-      </c>
-      <c r="F161" t="n">
-        <v>145.7233</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-2447158.812361211</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>25.51</v>
-      </c>
-      <c r="C162" t="n">
-        <v>25.51</v>
-      </c>
-      <c r="D162" t="n">
-        <v>25.51</v>
-      </c>
-      <c r="E162" t="n">
-        <v>25.51</v>
-      </c>
-      <c r="F162" t="n">
-        <v>3783.016</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-2447158.812361211</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C163" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="D163" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="E163" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="F163" t="n">
-        <v>2368.7679</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-2444790.044461211</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>25.68</v>
-      </c>
-      <c r="C164" t="n">
-        <v>25.68</v>
-      </c>
-      <c r="D164" t="n">
-        <v>25.68</v>
-      </c>
-      <c r="E164" t="n">
-        <v>25.68</v>
-      </c>
-      <c r="F164" t="n">
-        <v>144.7976</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-2444645.246861211</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>25.68</v>
-      </c>
-      <c r="C165" t="n">
-        <v>25.72</v>
-      </c>
-      <c r="D165" t="n">
-        <v>25.72</v>
-      </c>
-      <c r="E165" t="n">
-        <v>25.68</v>
-      </c>
-      <c r="F165" t="n">
-        <v>12508</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-2432137.246861211</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>25.72</v>
-      </c>
-      <c r="C166" t="n">
-        <v>25.82</v>
-      </c>
-      <c r="D166" t="n">
-        <v>25.82</v>
-      </c>
-      <c r="E166" t="n">
-        <v>25.72</v>
-      </c>
-      <c r="F166" t="n">
-        <v>15344</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-2416793.246861211</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>25.72</v>
-      </c>
-      <c r="C167" t="n">
-        <v>25.83</v>
-      </c>
-      <c r="D167" t="n">
-        <v>25.83</v>
-      </c>
-      <c r="E167" t="n">
-        <v>25.72</v>
-      </c>
-      <c r="F167" t="n">
-        <v>9850.5461782</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-2406942.700683011</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>25.83</v>
-      </c>
-      <c r="C168" t="n">
-        <v>25.83</v>
-      </c>
-      <c r="D168" t="n">
-        <v>25.83</v>
-      </c>
-      <c r="E168" t="n">
-        <v>25.83</v>
-      </c>
-      <c r="F168" t="n">
-        <v>14040</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-2406942.700683011</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>25.53</v>
-      </c>
-      <c r="C169" t="n">
-        <v>25.53</v>
-      </c>
-      <c r="D169" t="n">
-        <v>25.53</v>
-      </c>
-      <c r="E169" t="n">
-        <v>25.53</v>
-      </c>
-      <c r="F169" t="n">
-        <v>20</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-2406962.700683011</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>25.64</v>
-      </c>
-      <c r="C170" t="n">
-        <v>25.64</v>
-      </c>
-      <c r="D170" t="n">
-        <v>25.64</v>
-      </c>
-      <c r="E170" t="n">
-        <v>25.64</v>
-      </c>
-      <c r="F170" t="n">
-        <v>16140</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-2390822.700683011</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>25.68</v>
-      </c>
-      <c r="C171" t="n">
-        <v>25.68</v>
-      </c>
-      <c r="D171" t="n">
-        <v>25.68</v>
-      </c>
-      <c r="E171" t="n">
-        <v>25.68</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1160</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-2389662.700683011</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>25.65</v>
-      </c>
-      <c r="C172" t="n">
-        <v>25.56</v>
-      </c>
-      <c r="D172" t="n">
-        <v>25.65</v>
-      </c>
-      <c r="E172" t="n">
-        <v>25.56</v>
-      </c>
-      <c r="F172" t="n">
-        <v>20813.4873</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-2410476.187983011</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C173" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="D173" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="E173" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="F173" t="n">
-        <v>678</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-2409798.187983011</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C174" t="n">
-        <v>25.54</v>
-      </c>
-      <c r="D174" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="E174" t="n">
-        <v>25.54</v>
-      </c>
-      <c r="F174" t="n">
-        <v>20135.4873</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-2429933.675283012</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C175" t="n">
-        <v>25.54</v>
-      </c>
-      <c r="D175" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="E175" t="n">
-        <v>25.54</v>
-      </c>
-      <c r="F175" t="n">
-        <v>17624.3129</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-2429933.675283012</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>25.53</v>
-      </c>
-      <c r="C176" t="n">
-        <v>25.43</v>
-      </c>
-      <c r="D176" t="n">
-        <v>25.53</v>
-      </c>
-      <c r="E176" t="n">
-        <v>25.43</v>
-      </c>
-      <c r="F176" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-2469933.675283012</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C177" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="D177" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="E177" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="F177" t="n">
-        <v>33.4336</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-2469900.241683011</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C178" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="D178" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="E178" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="F178" t="n">
-        <v>68358.6966</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-2469900.241683011</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C179" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="D179" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="E179" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="F179" t="n">
-        <v>6357.4884</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-2469900.241683011</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C180" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="D180" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="E180" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="F180" t="n">
-        <v>11498.5559</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-2469900.241683011</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>25.81</v>
-      </c>
-      <c r="C181" t="n">
-        <v>25.81</v>
-      </c>
-      <c r="D181" t="n">
-        <v>25.81</v>
-      </c>
-      <c r="E181" t="n">
-        <v>25.81</v>
-      </c>
-      <c r="F181" t="n">
-        <v>28.2443</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-2469871.997383012</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C182" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="D182" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="E182" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F182" t="n">
-        <v>32882</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-2502753.997383012</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C183" t="n">
-        <v>25.71</v>
-      </c>
-      <c r="D183" t="n">
-        <v>25.71</v>
-      </c>
-      <c r="E183" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="F183" t="n">
-        <v>7785.27592699</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-2494968.721456022</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>25.81</v>
-      </c>
-      <c r="C184" t="n">
-        <v>25.81</v>
-      </c>
-      <c r="D184" t="n">
-        <v>25.81</v>
-      </c>
-      <c r="E184" t="n">
-        <v>25.81</v>
-      </c>
-      <c r="F184" t="n">
-        <v>1937.23363037</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-2493031.487825652</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>25.81</v>
-      </c>
-      <c r="C185" t="n">
-        <v>25.81</v>
-      </c>
-      <c r="D185" t="n">
-        <v>25.81</v>
-      </c>
-      <c r="E185" t="n">
-        <v>25.81</v>
-      </c>
-      <c r="F185" t="n">
-        <v>10595.61496963</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-2493031.487825652</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>25.81</v>
-      </c>
-      <c r="C186" t="n">
-        <v>25.81</v>
-      </c>
-      <c r="D186" t="n">
-        <v>25.81</v>
-      </c>
-      <c r="E186" t="n">
-        <v>25.81</v>
-      </c>
-      <c r="F186" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-2493031.487825652</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>25.61</v>
-      </c>
-      <c r="C187" t="n">
-        <v>25.61</v>
-      </c>
-      <c r="D187" t="n">
-        <v>25.61</v>
-      </c>
-      <c r="E187" t="n">
-        <v>25.61</v>
-      </c>
-      <c r="F187" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-2503031.487825652</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>25.74</v>
-      </c>
-      <c r="C188" t="n">
-        <v>25.74</v>
-      </c>
-      <c r="D188" t="n">
-        <v>25.74</v>
-      </c>
-      <c r="E188" t="n">
-        <v>25.74</v>
-      </c>
-      <c r="F188" t="n">
-        <v>990.8264</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-2502040.661425652</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>25.74</v>
-      </c>
-      <c r="C189" t="n">
-        <v>25.74</v>
-      </c>
-      <c r="D189" t="n">
-        <v>25.74</v>
-      </c>
-      <c r="E189" t="n">
-        <v>25.74</v>
-      </c>
-      <c r="F189" t="n">
-        <v>4969.1736</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-2502040.661425652</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>25.74</v>
-      </c>
-      <c r="C190" t="n">
-        <v>25.74</v>
-      </c>
-      <c r="D190" t="n">
-        <v>25.74</v>
-      </c>
-      <c r="E190" t="n">
-        <v>25.74</v>
-      </c>
-      <c r="F190" t="n">
-        <v>1444.2777</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-2502040.661425652</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>25.74</v>
-      </c>
-      <c r="C191" t="n">
-        <v>25.82</v>
-      </c>
-      <c r="D191" t="n">
-        <v>25.82</v>
-      </c>
-      <c r="E191" t="n">
-        <v>25.74</v>
-      </c>
-      <c r="F191" t="n">
-        <v>4574.90897699</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-2497465.752448662</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>25.82</v>
-      </c>
-      <c r="C192" t="n">
-        <v>25.84</v>
-      </c>
-      <c r="D192" t="n">
-        <v>25.84</v>
-      </c>
-      <c r="E192" t="n">
-        <v>25.82</v>
-      </c>
-      <c r="F192" t="n">
-        <v>51010.76552301</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-2446454.986925652</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>25.84</v>
-      </c>
-      <c r="C193" t="n">
-        <v>25.84</v>
-      </c>
-      <c r="D193" t="n">
-        <v>25.84</v>
-      </c>
-      <c r="E193" t="n">
-        <v>25.84</v>
-      </c>
-      <c r="F193" t="n">
-        <v>14691.9361</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-2446454.986925652</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>25.94</v>
-      </c>
-      <c r="C194" t="n">
-        <v>25.94</v>
-      </c>
-      <c r="D194" t="n">
-        <v>25.94</v>
-      </c>
-      <c r="E194" t="n">
-        <v>25.94</v>
-      </c>
-      <c r="F194" t="n">
-        <v>17500</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-2428954.986925652</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>25.95</v>
-      </c>
-      <c r="C195" t="n">
-        <v>25.95</v>
-      </c>
-      <c r="D195" t="n">
-        <v>25.95</v>
-      </c>
-      <c r="E195" t="n">
-        <v>25.95</v>
-      </c>
-      <c r="F195" t="n">
-        <v>88352.74430000001</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-2340602.242625652</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
+      <c r="N153" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest HDAC.xlsx
+++ b/BackTest/2020-01-16 BackTest HDAC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N153"/>
+  <dimension ref="A1:N224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>25.6</v>
+        <v>25.9</v>
       </c>
       <c r="C2" t="n">
-        <v>25.54</v>
+        <v>25.63</v>
       </c>
       <c r="D2" t="n">
-        <v>25.6</v>
+        <v>25.9</v>
       </c>
       <c r="E2" t="n">
-        <v>25.54</v>
+        <v>25.63</v>
       </c>
       <c r="F2" t="n">
-        <v>100000</v>
+        <v>17481.9855</v>
       </c>
       <c r="G2" t="n">
-        <v>-1107416.32323369</v>
+        <v>-146140.2993336901</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25.54</v>
+        <v>25.62</v>
       </c>
       <c r="C3" t="n">
-        <v>25.54</v>
+        <v>25.6</v>
       </c>
       <c r="D3" t="n">
-        <v>25.54</v>
+        <v>25.7</v>
       </c>
       <c r="E3" t="n">
-        <v>25.54</v>
+        <v>25.6</v>
       </c>
       <c r="F3" t="n">
-        <v>10545.8906</v>
+        <v>35784.0548</v>
       </c>
       <c r="G3" t="n">
-        <v>-1107416.32323369</v>
+        <v>-181924.3541336901</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25.53</v>
+        <v>25.6</v>
       </c>
       <c r="C4" t="n">
-        <v>25.53</v>
+        <v>25.6</v>
       </c>
       <c r="D4" t="n">
-        <v>25.53</v>
+        <v>25.6</v>
       </c>
       <c r="E4" t="n">
-        <v>25.53</v>
+        <v>25.6</v>
       </c>
       <c r="F4" t="n">
-        <v>4043.4581</v>
+        <v>50000</v>
       </c>
       <c r="G4" t="n">
-        <v>-1111459.78133369</v>
+        <v>-181924.3541336901</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>25.53</v>
+        <v>25.7</v>
       </c>
       <c r="C5" t="n">
-        <v>25.51</v>
+        <v>25.7</v>
       </c>
       <c r="D5" t="n">
-        <v>25.53</v>
+        <v>25.7</v>
       </c>
       <c r="E5" t="n">
-        <v>25.51</v>
+        <v>25.7</v>
       </c>
       <c r="F5" t="n">
-        <v>55935.5738</v>
+        <v>2401.6245</v>
       </c>
       <c r="G5" t="n">
-        <v>-1167395.35513369</v>
+        <v>-179522.7296336901</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>25.51</v>
+        <v>25.6</v>
       </c>
       <c r="C6" t="n">
-        <v>25.46</v>
+        <v>25.6</v>
       </c>
       <c r="D6" t="n">
-        <v>25.51</v>
+        <v>25.6</v>
       </c>
       <c r="E6" t="n">
-        <v>25.46</v>
+        <v>25.6</v>
       </c>
       <c r="F6" t="n">
-        <v>55935.5739</v>
+        <v>13347.8776</v>
       </c>
       <c r="G6" t="n">
-        <v>-1223330.92903369</v>
+        <v>-192870.6072336901</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>25.51</v>
+        <v>25.89</v>
       </c>
       <c r="C7" t="n">
-        <v>25.54</v>
+        <v>25.9</v>
       </c>
       <c r="D7" t="n">
-        <v>25.54</v>
+        <v>25.9</v>
       </c>
       <c r="E7" t="n">
-        <v>25.51</v>
+        <v>25.89</v>
       </c>
       <c r="F7" t="n">
-        <v>7791.5548803</v>
+        <v>6015.4768</v>
       </c>
       <c r="G7" t="n">
-        <v>-1215539.37415339</v>
+        <v>-186855.1304336901</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25.51</v>
+        <v>25.95</v>
       </c>
       <c r="C8" t="n">
-        <v>25.46</v>
+        <v>25.95</v>
       </c>
       <c r="D8" t="n">
-        <v>25.51</v>
+        <v>25.95</v>
       </c>
       <c r="E8" t="n">
-        <v>25.46</v>
+        <v>25.95</v>
       </c>
       <c r="F8" t="n">
-        <v>17319.9848</v>
+        <v>27927.7579</v>
       </c>
       <c r="G8" t="n">
-        <v>-1232859.35895339</v>
+        <v>-158927.3725336901</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25.54</v>
+        <v>25.95</v>
       </c>
       <c r="C9" t="n">
-        <v>25.54</v>
+        <v>25.95</v>
       </c>
       <c r="D9" t="n">
-        <v>25.54</v>
+        <v>25.95</v>
       </c>
       <c r="E9" t="n">
-        <v>25.54</v>
+        <v>25.95</v>
       </c>
       <c r="F9" t="n">
-        <v>51244.4744</v>
+        <v>41253.5745</v>
       </c>
       <c r="G9" t="n">
-        <v>-1181614.88455339</v>
+        <v>-158927.3725336901</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>25.47</v>
+        <v>25.96</v>
       </c>
       <c r="C10" t="n">
-        <v>25.46</v>
+        <v>25.9</v>
       </c>
       <c r="D10" t="n">
-        <v>25.47</v>
+        <v>25.96</v>
       </c>
       <c r="E10" t="n">
-        <v>25.46</v>
+        <v>25.9</v>
       </c>
       <c r="F10" t="n">
-        <v>177171.7724</v>
+        <v>2027.8449</v>
       </c>
       <c r="G10" t="n">
-        <v>-1358786.65695339</v>
+        <v>-160955.2174336901</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>25.46</v>
+        <v>25.9</v>
       </c>
       <c r="C11" t="n">
-        <v>25.46</v>
+        <v>25.9</v>
       </c>
       <c r="D11" t="n">
-        <v>25.46</v>
+        <v>25.9</v>
       </c>
       <c r="E11" t="n">
-        <v>25.46</v>
+        <v>25.9</v>
       </c>
       <c r="F11" t="n">
-        <v>47828.2276</v>
+        <v>2358.2673</v>
       </c>
       <c r="G11" t="n">
-        <v>-1358786.65695339</v>
+        <v>-160955.2174336901</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>25.54</v>
+        <v>25.9</v>
       </c>
       <c r="C12" t="n">
-        <v>25.89</v>
+        <v>25.7</v>
       </c>
       <c r="D12" t="n">
-        <v>25.89</v>
+        <v>25.9</v>
       </c>
       <c r="E12" t="n">
-        <v>25.54</v>
+        <v>25.7</v>
       </c>
       <c r="F12" t="n">
-        <v>34216.40184885</v>
+        <v>4838.8683</v>
       </c>
       <c r="G12" t="n">
-        <v>-1324570.25510454</v>
+        <v>-165794.0857336901</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25.79</v>
+        <v>25.87</v>
       </c>
       <c r="C13" t="n">
-        <v>25.79</v>
+        <v>26</v>
       </c>
       <c r="D13" t="n">
-        <v>25.79</v>
+        <v>26</v>
       </c>
       <c r="E13" t="n">
-        <v>25.79</v>
+        <v>25.87</v>
       </c>
       <c r="F13" t="n">
-        <v>8660</v>
+        <v>127840.1296</v>
       </c>
       <c r="G13" t="n">
-        <v>-1333230.25510454</v>
+        <v>-37953.95613369007</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>25.79</v>
+        <v>26</v>
       </c>
       <c r="C14" t="n">
-        <v>25.79</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
-        <v>25.79</v>
+        <v>26</v>
       </c>
       <c r="E14" t="n">
-        <v>25.79</v>
+        <v>26</v>
       </c>
       <c r="F14" t="n">
-        <v>10627.8545</v>
+        <v>397.5315</v>
       </c>
       <c r="G14" t="n">
-        <v>-1333230.25510454</v>
+        <v>-37953.95613369007</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>25.79</v>
+        <v>25.78</v>
       </c>
       <c r="C15" t="n">
-        <v>25.89</v>
+        <v>25.77</v>
       </c>
       <c r="D15" t="n">
-        <v>25.89</v>
+        <v>25.78</v>
       </c>
       <c r="E15" t="n">
-        <v>25.79</v>
+        <v>25.77</v>
       </c>
       <c r="F15" t="n">
-        <v>39246.43449251</v>
+        <v>50000</v>
       </c>
       <c r="G15" t="n">
-        <v>-1293983.82061203</v>
+        <v>-87953.95613369007</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>25.89</v>
+        <v>25.77</v>
       </c>
       <c r="C16" t="n">
-        <v>25.89</v>
+        <v>25.77</v>
       </c>
       <c r="D16" t="n">
-        <v>25.89</v>
+        <v>25.77</v>
       </c>
       <c r="E16" t="n">
-        <v>25.89</v>
+        <v>25.77</v>
       </c>
       <c r="F16" t="n">
-        <v>9370.3886</v>
+        <v>72205.7153</v>
       </c>
       <c r="G16" t="n">
-        <v>-1293983.82061203</v>
+        <v>-87953.95613369007</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>25.89</v>
+        <v>25.77</v>
       </c>
       <c r="C17" t="n">
-        <v>25.89</v>
+        <v>25.77</v>
       </c>
       <c r="D17" t="n">
-        <v>25.89</v>
+        <v>25.77</v>
       </c>
       <c r="E17" t="n">
-        <v>25.89</v>
+        <v>25.77</v>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>11198.1159</v>
       </c>
       <c r="G17" t="n">
-        <v>-1293983.82061203</v>
+        <v>-87953.95613369007</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>25.89</v>
+        <v>25.77</v>
       </c>
       <c r="C18" t="n">
-        <v>25.89</v>
+        <v>25.67</v>
       </c>
       <c r="D18" t="n">
-        <v>25.89</v>
+        <v>25.77</v>
       </c>
       <c r="E18" t="n">
-        <v>25.89</v>
+        <v>25.67</v>
       </c>
       <c r="F18" t="n">
-        <v>14.7426</v>
+        <v>315.9667</v>
       </c>
       <c r="G18" t="n">
-        <v>-1293983.82061203</v>
+        <v>-88269.92283369007</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>25.89</v>
+        <v>25.67</v>
       </c>
       <c r="C19" t="n">
-        <v>25.89</v>
+        <v>25.67</v>
       </c>
       <c r="D19" t="n">
-        <v>25.89</v>
+        <v>25.67</v>
       </c>
       <c r="E19" t="n">
-        <v>25.89</v>
+        <v>25.67</v>
       </c>
       <c r="F19" t="n">
-        <v>3546.6081</v>
+        <v>66537.47659999999</v>
       </c>
       <c r="G19" t="n">
-        <v>-1293983.82061203</v>
+        <v>-88269.92283369007</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>25.89</v>
+        <v>25.67</v>
       </c>
       <c r="C20" t="n">
-        <v>25.89</v>
+        <v>25.67</v>
       </c>
       <c r="D20" t="n">
-        <v>25.89</v>
+        <v>25.67</v>
       </c>
       <c r="E20" t="n">
-        <v>25.89</v>
+        <v>25.67</v>
       </c>
       <c r="F20" t="n">
-        <v>17789.9203</v>
+        <v>142.8089</v>
       </c>
       <c r="G20" t="n">
-        <v>-1293983.82061203</v>
+        <v>-88269.92283369007</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>25.79</v>
+        <v>25.65</v>
       </c>
       <c r="C21" t="n">
-        <v>25.89</v>
+        <v>25.65</v>
       </c>
       <c r="D21" t="n">
-        <v>25.89</v>
+        <v>25.65</v>
       </c>
       <c r="E21" t="n">
-        <v>25.79</v>
+        <v>25.65</v>
       </c>
       <c r="F21" t="n">
-        <v>46179.7245</v>
+        <v>46665.0588</v>
       </c>
       <c r="G21" t="n">
-        <v>-1293983.82061203</v>
+        <v>-134934.9816336901</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>25.89</v>
+        <v>25.65</v>
       </c>
       <c r="C22" t="n">
-        <v>25.89</v>
+        <v>25.65</v>
       </c>
       <c r="D22" t="n">
-        <v>25.89</v>
+        <v>25.65</v>
       </c>
       <c r="E22" t="n">
-        <v>25.89</v>
+        <v>25.65</v>
       </c>
       <c r="F22" t="n">
-        <v>50043.8793</v>
+        <v>2500.79</v>
       </c>
       <c r="G22" t="n">
-        <v>-1293983.82061203</v>
+        <v>-134934.9816336901</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>25.93</v>
+        <v>25.67</v>
       </c>
       <c r="C23" t="n">
-        <v>25.98</v>
+        <v>25.67</v>
       </c>
       <c r="D23" t="n">
-        <v>25.98</v>
+        <v>25.67</v>
       </c>
       <c r="E23" t="n">
-        <v>25.93</v>
+        <v>25.67</v>
       </c>
       <c r="F23" t="n">
-        <v>51536.8448</v>
+        <v>12381.8334</v>
       </c>
       <c r="G23" t="n">
-        <v>-1242446.97581203</v>
+        <v>-122553.1482336901</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>25.9</v>
+        <v>25.62</v>
       </c>
       <c r="C24" t="n">
-        <v>25.89</v>
+        <v>25.62</v>
       </c>
       <c r="D24" t="n">
-        <v>25.9</v>
+        <v>25.62</v>
       </c>
       <c r="E24" t="n">
-        <v>25.89</v>
+        <v>25.62</v>
       </c>
       <c r="F24" t="n">
-        <v>6389.4056</v>
+        <v>17952.1025</v>
       </c>
       <c r="G24" t="n">
-        <v>-1248836.381412029</v>
+        <v>-140505.2507336901</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>25.89</v>
+        <v>25.61</v>
       </c>
       <c r="C25" t="n">
-        <v>25.89</v>
+        <v>25.61</v>
       </c>
       <c r="D25" t="n">
-        <v>25.89</v>
+        <v>25.61</v>
       </c>
       <c r="E25" t="n">
-        <v>25.89</v>
+        <v>25.61</v>
       </c>
       <c r="F25" t="n">
-        <v>6867.5953</v>
+        <v>5142.0142</v>
       </c>
       <c r="G25" t="n">
-        <v>-1248836.381412029</v>
+        <v>-145647.2649336901</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>25.89</v>
+        <v>25.58</v>
       </c>
       <c r="C26" t="n">
-        <v>25.89</v>
+        <v>25.57</v>
       </c>
       <c r="D26" t="n">
-        <v>25.89</v>
+        <v>25.58</v>
       </c>
       <c r="E26" t="n">
-        <v>25.89</v>
+        <v>25.57</v>
       </c>
       <c r="F26" t="n">
-        <v>1644.3638</v>
+        <v>58649.0922</v>
       </c>
       <c r="G26" t="n">
-        <v>-1248836.381412029</v>
+        <v>-204296.3571336901</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>25.97</v>
+        <v>25.57</v>
       </c>
       <c r="C27" t="n">
-        <v>25.97</v>
+        <v>25.56</v>
       </c>
       <c r="D27" t="n">
-        <v>25.97</v>
+        <v>25.57</v>
       </c>
       <c r="E27" t="n">
-        <v>25.97</v>
+        <v>25.56</v>
       </c>
       <c r="F27" t="n">
-        <v>1225.6563</v>
+        <v>74990.4906</v>
       </c>
       <c r="G27" t="n">
-        <v>-1247610.72511203</v>
+        <v>-279286.8477336901</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>25.71</v>
+        <v>25.57</v>
       </c>
       <c r="C28" t="n">
-        <v>25.71</v>
+        <v>25.55</v>
       </c>
       <c r="D28" t="n">
-        <v>25.71</v>
+        <v>25.57</v>
       </c>
       <c r="E28" t="n">
-        <v>25.71</v>
+        <v>25.55</v>
       </c>
       <c r="F28" t="n">
-        <v>9943.401</v>
+        <v>201381.1515</v>
       </c>
       <c r="G28" t="n">
-        <v>-1257554.12611203</v>
+        <v>-480667.9992336901</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,28 +1410,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>25.71</v>
+        <v>25.54</v>
       </c>
       <c r="C29" t="n">
-        <v>25.71</v>
+        <v>25.54</v>
       </c>
       <c r="D29" t="n">
-        <v>25.8</v>
+        <v>25.54</v>
       </c>
       <c r="E29" t="n">
-        <v>25.71</v>
+        <v>25.54</v>
       </c>
       <c r="F29" t="n">
-        <v>22494.2292</v>
+        <v>73565.1073</v>
       </c>
       <c r="G29" t="n">
-        <v>-1257554.12611203</v>
+        <v>-554233.1065336901</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>25.9</v>
+        <v>25.53</v>
       </c>
       <c r="C30" t="n">
-        <v>25.96</v>
+        <v>25.52</v>
       </c>
       <c r="D30" t="n">
-        <v>25.96</v>
+        <v>25.53</v>
       </c>
       <c r="E30" t="n">
-        <v>25.9</v>
+        <v>25.52</v>
       </c>
       <c r="F30" t="n">
-        <v>3857.53534175</v>
+        <v>118724.8889</v>
       </c>
       <c r="G30" t="n">
-        <v>-1253696.59077028</v>
+        <v>-672957.9954336901</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>25.8</v>
+        <v>25.52</v>
       </c>
       <c r="C31" t="n">
-        <v>25.8</v>
+        <v>25.52</v>
       </c>
       <c r="D31" t="n">
-        <v>25.8</v>
+        <v>25.52</v>
       </c>
       <c r="E31" t="n">
-        <v>25.8</v>
+        <v>25.52</v>
       </c>
       <c r="F31" t="n">
-        <v>254.2835</v>
+        <v>60758.7445</v>
       </c>
       <c r="G31" t="n">
-        <v>-1253950.87427028</v>
+        <v>-672957.9954336901</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>25.71</v>
+        <v>25.54</v>
       </c>
       <c r="C32" t="n">
-        <v>25.64</v>
+        <v>25.55</v>
       </c>
       <c r="D32" t="n">
-        <v>25.71</v>
+        <v>25.55</v>
       </c>
       <c r="E32" t="n">
-        <v>25.64</v>
+        <v>25.54</v>
       </c>
       <c r="F32" t="n">
-        <v>36932.8064</v>
+        <v>70844.03909999999</v>
       </c>
       <c r="G32" t="n">
-        <v>-1290883.68067028</v>
+        <v>-602113.9563336901</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1557,25 +1557,25 @@
         <v>25.7</v>
       </c>
       <c r="C33" t="n">
-        <v>25.7</v>
+        <v>25.55</v>
       </c>
       <c r="D33" t="n">
         <v>25.7</v>
       </c>
       <c r="E33" t="n">
-        <v>25.7</v>
+        <v>25.55</v>
       </c>
       <c r="F33" t="n">
-        <v>8190.0689</v>
+        <v>29010.2479</v>
       </c>
       <c r="G33" t="n">
-        <v>-1282693.611770279</v>
+        <v>-602113.9563336901</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,28 +1590,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>25.9</v>
+        <v>25.6</v>
       </c>
       <c r="C34" t="n">
-        <v>25.9</v>
+        <v>25.6</v>
       </c>
       <c r="D34" t="n">
-        <v>25.9</v>
+        <v>25.6</v>
       </c>
       <c r="E34" t="n">
-        <v>25.9</v>
+        <v>25.6</v>
       </c>
       <c r="F34" t="n">
-        <v>1563.1628</v>
+        <v>21043.6792</v>
       </c>
       <c r="G34" t="n">
-        <v>-1281130.448970279</v>
+        <v>-581070.2771336901</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1626,28 +1626,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>25.9</v>
+        <v>25.6</v>
       </c>
       <c r="C35" t="n">
-        <v>25.71</v>
+        <v>25.6</v>
       </c>
       <c r="D35" t="n">
-        <v>25.9</v>
+        <v>25.6</v>
       </c>
       <c r="E35" t="n">
-        <v>25.71</v>
+        <v>25.6</v>
       </c>
       <c r="F35" t="n">
-        <v>89228.34050000001</v>
+        <v>3000</v>
       </c>
       <c r="G35" t="n">
-        <v>-1370358.789470279</v>
+        <v>-581070.2771336901</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1662,28 +1662,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>25.72</v>
+        <v>25.56</v>
       </c>
       <c r="C36" t="n">
-        <v>25.72</v>
+        <v>25.55</v>
       </c>
       <c r="D36" t="n">
-        <v>25.72</v>
+        <v>25.56</v>
       </c>
       <c r="E36" t="n">
-        <v>25.72</v>
+        <v>25.55</v>
       </c>
       <c r="F36" t="n">
-        <v>34233.5046</v>
+        <v>53456.7802</v>
       </c>
       <c r="G36" t="n">
-        <v>-1336125.284870279</v>
+        <v>-634527.0573336901</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>25.72</v>
+        <v>25.55</v>
       </c>
       <c r="C37" t="n">
-        <v>25.72</v>
+        <v>25.55</v>
       </c>
       <c r="D37" t="n">
-        <v>25.72</v>
+        <v>25.55</v>
       </c>
       <c r="E37" t="n">
-        <v>25.72</v>
+        <v>25.55</v>
       </c>
       <c r="F37" t="n">
-        <v>8766.4954</v>
+        <v>76350.2087</v>
       </c>
       <c r="G37" t="n">
-        <v>-1336125.284870279</v>
+        <v>-634527.0573336901</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>25.89</v>
+        <v>25.55</v>
       </c>
       <c r="C38" t="n">
-        <v>25.89</v>
+        <v>25.52</v>
       </c>
       <c r="D38" t="n">
-        <v>25.89</v>
+        <v>25.55</v>
       </c>
       <c r="E38" t="n">
-        <v>25.89</v>
+        <v>25.52</v>
       </c>
       <c r="F38" t="n">
-        <v>3862.49517188</v>
+        <v>29980.6074</v>
       </c>
       <c r="G38" t="n">
-        <v>-1332262.789698399</v>
+        <v>-664507.6647336901</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>25.86</v>
+        <v>25.51</v>
       </c>
       <c r="C39" t="n">
-        <v>25.86</v>
+        <v>25.52</v>
       </c>
       <c r="D39" t="n">
-        <v>25.86</v>
+        <v>25.52</v>
       </c>
       <c r="E39" t="n">
-        <v>25.86</v>
+        <v>25.46</v>
       </c>
       <c r="F39" t="n">
-        <v>43482.1449</v>
+        <v>166314.6077</v>
       </c>
       <c r="G39" t="n">
-        <v>-1375744.934598399</v>
+        <v>-664507.6647336901</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>25.75</v>
+        <v>25.46</v>
       </c>
       <c r="C40" t="n">
-        <v>25.71</v>
+        <v>25.43</v>
       </c>
       <c r="D40" t="n">
-        <v>25.75</v>
+        <v>25.46</v>
       </c>
       <c r="E40" t="n">
-        <v>25.71</v>
+        <v>25.43</v>
       </c>
       <c r="F40" t="n">
-        <v>66681.9476</v>
+        <v>218324.174</v>
       </c>
       <c r="G40" t="n">
-        <v>-1442426.882198399</v>
+        <v>-882831.8387336901</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>25.71</v>
+        <v>25.41</v>
       </c>
       <c r="C41" t="n">
-        <v>25.71</v>
+        <v>25.37</v>
       </c>
       <c r="D41" t="n">
-        <v>25.71</v>
+        <v>25.41</v>
       </c>
       <c r="E41" t="n">
-        <v>25.71</v>
+        <v>25.37</v>
       </c>
       <c r="F41" t="n">
-        <v>60927.6648</v>
+        <v>3621.9939</v>
       </c>
       <c r="G41" t="n">
-        <v>-1442426.882198399</v>
+        <v>-886453.8326336901</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>25.7</v>
+        <v>25.37</v>
       </c>
       <c r="C42" t="n">
-        <v>25.6</v>
+        <v>25.37</v>
       </c>
       <c r="D42" t="n">
-        <v>25.7</v>
+        <v>25.37</v>
       </c>
       <c r="E42" t="n">
-        <v>25.6</v>
+        <v>25.37</v>
       </c>
       <c r="F42" t="n">
-        <v>200813.3938</v>
+        <v>10519.6884</v>
       </c>
       <c r="G42" t="n">
-        <v>-1643240.275998399</v>
+        <v>-886453.8326336901</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>25.6</v>
+        <v>25.36</v>
       </c>
       <c r="C43" t="n">
-        <v>25.6</v>
+        <v>25.43</v>
       </c>
       <c r="D43" t="n">
-        <v>25.6</v>
+        <v>25.43</v>
       </c>
       <c r="E43" t="n">
-        <v>25.6</v>
+        <v>25.36</v>
       </c>
       <c r="F43" t="n">
-        <v>56919.5195</v>
+        <v>16356.3674</v>
       </c>
       <c r="G43" t="n">
-        <v>-1643240.275998399</v>
+        <v>-870097.4652336901</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>25.6</v>
+        <v>25.43</v>
       </c>
       <c r="C44" t="n">
-        <v>25.6</v>
+        <v>25.43</v>
       </c>
       <c r="D44" t="n">
-        <v>25.6</v>
+        <v>25.43</v>
       </c>
       <c r="E44" t="n">
-        <v>25.6</v>
+        <v>25.43</v>
       </c>
       <c r="F44" t="n">
-        <v>50000</v>
+        <v>23800.8944</v>
       </c>
       <c r="G44" t="n">
-        <v>-1643240.275998399</v>
+        <v>-870097.4652336901</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>25.6</v>
+        <v>25.45</v>
       </c>
       <c r="C45" t="n">
-        <v>25.6</v>
+        <v>25.45</v>
       </c>
       <c r="D45" t="n">
-        <v>25.6</v>
+        <v>25.45</v>
       </c>
       <c r="E45" t="n">
-        <v>25.6</v>
+        <v>25.45</v>
       </c>
       <c r="F45" t="n">
-        <v>1930.502</v>
+        <v>49775.5084</v>
       </c>
       <c r="G45" t="n">
-        <v>-1643240.275998399</v>
+        <v>-820321.9568336901</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>25.6</v>
+        <v>25.52</v>
       </c>
       <c r="C46" t="n">
-        <v>25.6</v>
+        <v>25.52</v>
       </c>
       <c r="D46" t="n">
-        <v>25.6</v>
+        <v>25.52</v>
       </c>
       <c r="E46" t="n">
-        <v>25.6</v>
+        <v>25.52</v>
       </c>
       <c r="F46" t="n">
-        <v>10000</v>
+        <v>70</v>
       </c>
       <c r="G46" t="n">
-        <v>-1643240.275998399</v>
+        <v>-820251.9568336901</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>25.66</v>
+        <v>25.52</v>
       </c>
       <c r="C47" t="n">
-        <v>25.66</v>
+        <v>25.52</v>
       </c>
       <c r="D47" t="n">
-        <v>25.66</v>
+        <v>25.52</v>
       </c>
       <c r="E47" t="n">
-        <v>25.66</v>
+        <v>25.52</v>
       </c>
       <c r="F47" t="n">
-        <v>19162.1456</v>
+        <v>9310.936299999999</v>
       </c>
       <c r="G47" t="n">
-        <v>-1624078.130398399</v>
+        <v>-820251.9568336901</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>25.6</v>
+        <v>25.52</v>
       </c>
       <c r="C48" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="D48" t="n">
-        <v>25.6</v>
+        <v>25.55</v>
       </c>
       <c r="E48" t="n">
-        <v>25.5</v>
+        <v>25.52</v>
       </c>
       <c r="F48" t="n">
-        <v>6746.9375</v>
+        <v>32632.0798</v>
       </c>
       <c r="G48" t="n">
-        <v>-1630825.067898399</v>
+        <v>-787619.8770336901</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>25.69</v>
+        <v>25.55</v>
       </c>
       <c r="C49" t="n">
-        <v>25.69</v>
+        <v>25.55</v>
       </c>
       <c r="D49" t="n">
-        <v>25.69</v>
+        <v>25.55</v>
       </c>
       <c r="E49" t="n">
-        <v>25.69</v>
+        <v>25.55</v>
       </c>
       <c r="F49" t="n">
-        <v>37900.2942</v>
+        <v>1391</v>
       </c>
       <c r="G49" t="n">
-        <v>-1592924.7736984</v>
+        <v>-787619.8770336901</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>25.69</v>
+        <v>25.83</v>
       </c>
       <c r="C50" t="n">
-        <v>25.69</v>
+        <v>25.83</v>
       </c>
       <c r="D50" t="n">
-        <v>25.69</v>
+        <v>25.83</v>
       </c>
       <c r="E50" t="n">
-        <v>25.69</v>
+        <v>25.83</v>
       </c>
       <c r="F50" t="n">
-        <v>2826.3897</v>
+        <v>27032.6896</v>
       </c>
       <c r="G50" t="n">
-        <v>-1592924.7736984</v>
+        <v>-760587.1874336901</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>25.5</v>
+        <v>25.56</v>
       </c>
       <c r="C51" t="n">
-        <v>25.5</v>
+        <v>25.56</v>
       </c>
       <c r="D51" t="n">
-        <v>25.5</v>
+        <v>25.56</v>
       </c>
       <c r="E51" t="n">
-        <v>25.5</v>
+        <v>25.56</v>
       </c>
       <c r="F51" t="n">
-        <v>2144.0028</v>
+        <v>20082.744</v>
       </c>
       <c r="G51" t="n">
-        <v>-1595068.776498399</v>
+        <v>-780669.93143369</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>25.5</v>
+        <v>25.56</v>
       </c>
       <c r="C52" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="D52" t="n">
-        <v>25.5</v>
+        <v>25.56</v>
       </c>
       <c r="E52" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="F52" t="n">
-        <v>1205.7552</v>
+        <v>120296.1181</v>
       </c>
       <c r="G52" t="n">
-        <v>-1595068.776498399</v>
+        <v>-900966.04953369</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="C53" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="D53" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="E53" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="F53" t="n">
-        <v>12000</v>
+        <v>9387</v>
       </c>
       <c r="G53" t="n">
-        <v>-1595068.776498399</v>
+        <v>-900966.04953369</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="C54" t="n">
         <v>25.5</v>
       </c>
       <c r="D54" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="E54" t="n">
         <v>25.5</v>
       </c>
       <c r="F54" t="n">
-        <v>11747.1555</v>
+        <v>2400</v>
       </c>
       <c r="G54" t="n">
-        <v>-1595068.776498399</v>
+        <v>-903366.04953369</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>25.5</v>
+        <v>25.65</v>
       </c>
       <c r="C55" t="n">
-        <v>25.5</v>
+        <v>25.65</v>
       </c>
       <c r="D55" t="n">
-        <v>25.5</v>
+        <v>25.65</v>
       </c>
       <c r="E55" t="n">
-        <v>25.5</v>
+        <v>25.65</v>
       </c>
       <c r="F55" t="n">
-        <v>1000</v>
+        <v>101.9638</v>
       </c>
       <c r="G55" t="n">
-        <v>-1595068.776498399</v>
+        <v>-903264.0857336899</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>25.5</v>
+        <v>25.65</v>
       </c>
       <c r="C56" t="n">
-        <v>25.5</v>
+        <v>25.65</v>
       </c>
       <c r="D56" t="n">
-        <v>25.5</v>
+        <v>25.65</v>
       </c>
       <c r="E56" t="n">
-        <v>25.5</v>
+        <v>25.65</v>
       </c>
       <c r="F56" t="n">
-        <v>4096.539</v>
+        <v>65770.0963</v>
       </c>
       <c r="G56" t="n">
-        <v>-1595068.776498399</v>
+        <v>-903264.0857336899</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>25.5</v>
+        <v>25.65</v>
       </c>
       <c r="C57" t="n">
-        <v>25.5</v>
+        <v>25.65</v>
       </c>
       <c r="D57" t="n">
-        <v>25.5</v>
+        <v>25.65</v>
       </c>
       <c r="E57" t="n">
-        <v>25.5</v>
+        <v>25.65</v>
       </c>
       <c r="F57" t="n">
-        <v>73069.41280000001</v>
+        <v>164.0153</v>
       </c>
       <c r="G57" t="n">
-        <v>-1595068.776498399</v>
+        <v>-903264.0857336899</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>25.5</v>
+        <v>25.51</v>
       </c>
       <c r="C58" t="n">
         <v>25.5</v>
       </c>
       <c r="D58" t="n">
-        <v>25.5</v>
+        <v>25.51</v>
       </c>
       <c r="E58" t="n">
         <v>25.5</v>
       </c>
       <c r="F58" t="n">
-        <v>8093</v>
+        <v>100000</v>
       </c>
       <c r="G58" t="n">
-        <v>-1595068.776498399</v>
+        <v>-1003264.08573369</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>25.5</v>
+        <v>25.65</v>
       </c>
       <c r="C59" t="n">
-        <v>25.48</v>
+        <v>25.65</v>
       </c>
       <c r="D59" t="n">
-        <v>25.5</v>
+        <v>25.65</v>
       </c>
       <c r="E59" t="n">
-        <v>25.48</v>
+        <v>25.65</v>
       </c>
       <c r="F59" t="n">
-        <v>949.218</v>
+        <v>776.9632</v>
       </c>
       <c r="G59" t="n">
-        <v>-1596017.9944984</v>
+        <v>-1002487.12253369</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>25.69</v>
+        <v>25.6</v>
       </c>
       <c r="C60" t="n">
-        <v>25.69</v>
+        <v>25.6</v>
       </c>
       <c r="D60" t="n">
-        <v>25.69</v>
+        <v>25.6</v>
       </c>
       <c r="E60" t="n">
-        <v>25.69</v>
+        <v>25.6</v>
       </c>
       <c r="F60" t="n">
-        <v>20</v>
+        <v>2405.4886</v>
       </c>
       <c r="G60" t="n">
-        <v>-1595997.9944984</v>
+        <v>-1004892.61113369</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>25.69</v>
+        <v>25.6</v>
       </c>
       <c r="C61" t="n">
-        <v>25.69</v>
+        <v>25.6</v>
       </c>
       <c r="D61" t="n">
-        <v>25.69</v>
+        <v>25.6</v>
       </c>
       <c r="E61" t="n">
-        <v>25.69</v>
+        <v>25.6</v>
       </c>
       <c r="F61" t="n">
-        <v>413.7364</v>
+        <v>1451.9018</v>
       </c>
       <c r="G61" t="n">
-        <v>-1595997.9944984</v>
+        <v>-1004892.61113369</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>25.69</v>
+        <v>25.6</v>
       </c>
       <c r="C62" t="n">
-        <v>25.69</v>
+        <v>25.6</v>
       </c>
       <c r="D62" t="n">
-        <v>25.69</v>
+        <v>25.6</v>
       </c>
       <c r="E62" t="n">
-        <v>25.69</v>
+        <v>25.6</v>
       </c>
       <c r="F62" t="n">
-        <v>25784.2358</v>
+        <v>1000</v>
       </c>
       <c r="G62" t="n">
-        <v>-1595997.9944984</v>
+        <v>-1004892.61113369</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>25.7</v>
+        <v>25.51</v>
       </c>
       <c r="C63" t="n">
-        <v>25.8</v>
+        <v>25.51</v>
       </c>
       <c r="D63" t="n">
-        <v>25.8</v>
+        <v>25.51</v>
       </c>
       <c r="E63" t="n">
-        <v>25.7</v>
+        <v>25.51</v>
       </c>
       <c r="F63" t="n">
-        <v>13785.71123604</v>
+        <v>3214.2036</v>
       </c>
       <c r="G63" t="n">
-        <v>-1582212.283262359</v>
+        <v>-1008106.81473369</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>25.79</v>
+        <v>25.51</v>
       </c>
       <c r="C64" t="n">
-        <v>25.79</v>
+        <v>25.51</v>
       </c>
       <c r="D64" t="n">
-        <v>25.79</v>
+        <v>25.51</v>
       </c>
       <c r="E64" t="n">
-        <v>25.79</v>
+        <v>25.51</v>
       </c>
       <c r="F64" t="n">
-        <v>3465.6176</v>
+        <v>68119.2668</v>
       </c>
       <c r="G64" t="n">
-        <v>-1585677.900862359</v>
+        <v>-1008106.81473369</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>25.79</v>
+        <v>25.7</v>
       </c>
       <c r="C65" t="n">
-        <v>25.79</v>
+        <v>25.7</v>
       </c>
       <c r="D65" t="n">
-        <v>25.79</v>
+        <v>25.7</v>
       </c>
       <c r="E65" t="n">
-        <v>25.79</v>
+        <v>25.7</v>
       </c>
       <c r="F65" t="n">
-        <v>1000</v>
+        <v>2405.4886</v>
       </c>
       <c r="G65" t="n">
-        <v>-1585677.900862359</v>
+        <v>-1005701.32613369</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2754,10 +2754,10 @@
         <v>25.7</v>
       </c>
       <c r="F66" t="n">
-        <v>15115.7344</v>
+        <v>33000</v>
       </c>
       <c r="G66" t="n">
-        <v>-1600793.635262359</v>
+        <v>-1005701.32613369</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>25.6</v>
+        <v>25.71</v>
       </c>
       <c r="C67" t="n">
-        <v>25.51</v>
+        <v>25.71</v>
       </c>
       <c r="D67" t="n">
-        <v>25.6</v>
+        <v>25.71</v>
       </c>
       <c r="E67" t="n">
-        <v>25.51</v>
+        <v>25.71</v>
       </c>
       <c r="F67" t="n">
-        <v>10000</v>
+        <v>1577.3384</v>
       </c>
       <c r="G67" t="n">
-        <v>-1610793.635262359</v>
+        <v>-1004123.98773369</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="C68" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="D68" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="E68" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="F68" t="n">
-        <v>25225.6499</v>
+        <v>3292.3355</v>
       </c>
       <c r="G68" t="n">
-        <v>-1636019.285162359</v>
+        <v>-1007416.32323369</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2862,10 +2862,10 @@
         <v>25.6</v>
       </c>
       <c r="F69" t="n">
-        <v>1225.6563</v>
+        <v>5000</v>
       </c>
       <c r="G69" t="n">
-        <v>-1634793.62886236</v>
+        <v>-1007416.32323369</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2898,10 +2898,10 @@
         <v>25.6</v>
       </c>
       <c r="F70" t="n">
-        <v>9603.114600000001</v>
+        <v>1500</v>
       </c>
       <c r="G70" t="n">
-        <v>-1634793.62886236</v>
+        <v>-1007416.32323369</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2934,10 +2934,10 @@
         <v>25.6</v>
       </c>
       <c r="F71" t="n">
-        <v>18496.7584</v>
+        <v>4211.6249</v>
       </c>
       <c r="G71" t="n">
-        <v>-1634793.62886236</v>
+        <v>-1007416.32323369</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2970,10 +2970,10 @@
         <v>25.6</v>
       </c>
       <c r="F72" t="n">
-        <v>29748.3729</v>
+        <v>101686.3379</v>
       </c>
       <c r="G72" t="n">
-        <v>-1634793.62886236</v>
+        <v>-1007416.32323369</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="C73" t="n">
-        <v>25.7</v>
+        <v>25.54</v>
       </c>
       <c r="D73" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="E73" t="n">
-        <v>25.7</v>
+        <v>25.54</v>
       </c>
       <c r="F73" t="n">
-        <v>12730.7998</v>
+        <v>100000</v>
       </c>
       <c r="G73" t="n">
-        <v>-1622062.82906236</v>
+        <v>-1107416.32323369</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>25.7</v>
+        <v>25.54</v>
       </c>
       <c r="C74" t="n">
-        <v>25.7</v>
+        <v>25.54</v>
       </c>
       <c r="D74" t="n">
-        <v>25.7</v>
+        <v>25.54</v>
       </c>
       <c r="E74" t="n">
-        <v>25.7</v>
+        <v>25.54</v>
       </c>
       <c r="F74" t="n">
-        <v>3881.3472</v>
+        <v>10545.8906</v>
       </c>
       <c r="G74" t="n">
-        <v>-1622062.82906236</v>
+        <v>-1107416.32323369</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>25.7</v>
+        <v>25.53</v>
       </c>
       <c r="C75" t="n">
-        <v>25.8</v>
+        <v>25.53</v>
       </c>
       <c r="D75" t="n">
-        <v>25.8</v>
+        <v>25.53</v>
       </c>
       <c r="E75" t="n">
-        <v>25.7</v>
+        <v>25.53</v>
       </c>
       <c r="F75" t="n">
-        <v>31070.32660271</v>
+        <v>4043.4581</v>
       </c>
       <c r="G75" t="n">
-        <v>-1590992.50245965</v>
+        <v>-1111459.78133369</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>25.8</v>
+        <v>25.53</v>
       </c>
       <c r="C76" t="n">
-        <v>25.8</v>
+        <v>25.51</v>
       </c>
       <c r="D76" t="n">
-        <v>25.8</v>
+        <v>25.53</v>
       </c>
       <c r="E76" t="n">
-        <v>25.8</v>
+        <v>25.51</v>
       </c>
       <c r="F76" t="n">
-        <v>4100</v>
+        <v>55935.5738</v>
       </c>
       <c r="G76" t="n">
-        <v>-1590992.50245965</v>
+        <v>-1167395.35513369</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>25.71</v>
+        <v>25.51</v>
       </c>
       <c r="C77" t="n">
-        <v>25.71</v>
+        <v>25.46</v>
       </c>
       <c r="D77" t="n">
-        <v>25.71</v>
+        <v>25.51</v>
       </c>
       <c r="E77" t="n">
-        <v>25.71</v>
+        <v>25.46</v>
       </c>
       <c r="F77" t="n">
-        <v>20000</v>
+        <v>55935.5739</v>
       </c>
       <c r="G77" t="n">
-        <v>-1610992.50245965</v>
+        <v>-1223330.92903369</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>25.8</v>
+        <v>25.51</v>
       </c>
       <c r="C78" t="n">
-        <v>25.8</v>
+        <v>25.54</v>
       </c>
       <c r="D78" t="n">
-        <v>25.8</v>
+        <v>25.54</v>
       </c>
       <c r="E78" t="n">
-        <v>25.8</v>
+        <v>25.51</v>
       </c>
       <c r="F78" t="n">
-        <v>20</v>
+        <v>7791.5548803</v>
       </c>
       <c r="G78" t="n">
-        <v>-1610972.50245965</v>
+        <v>-1215539.37415339</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>25.79</v>
+        <v>25.51</v>
       </c>
       <c r="C79" t="n">
-        <v>25.79</v>
+        <v>25.46</v>
       </c>
       <c r="D79" t="n">
-        <v>25.79</v>
+        <v>25.51</v>
       </c>
       <c r="E79" t="n">
-        <v>25.79</v>
+        <v>25.46</v>
       </c>
       <c r="F79" t="n">
-        <v>3600.6513</v>
+        <v>17319.9848</v>
       </c>
       <c r="G79" t="n">
-        <v>-1614573.15375965</v>
+        <v>-1232859.35895339</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>25.71</v>
+        <v>25.54</v>
       </c>
       <c r="C80" t="n">
-        <v>25.71</v>
+        <v>25.54</v>
       </c>
       <c r="D80" t="n">
-        <v>25.71</v>
+        <v>25.54</v>
       </c>
       <c r="E80" t="n">
-        <v>25.71</v>
+        <v>25.54</v>
       </c>
       <c r="F80" t="n">
-        <v>15920.9074</v>
+        <v>51244.4744</v>
       </c>
       <c r="G80" t="n">
-        <v>-1630494.06115965</v>
+        <v>-1181614.88455339</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>25.7</v>
+        <v>25.47</v>
       </c>
       <c r="C81" t="n">
-        <v>25.59</v>
+        <v>25.46</v>
       </c>
       <c r="D81" t="n">
-        <v>25.7</v>
+        <v>25.47</v>
       </c>
       <c r="E81" t="n">
-        <v>25.59</v>
+        <v>25.46</v>
       </c>
       <c r="F81" t="n">
-        <v>28424.4286</v>
+        <v>177171.7724</v>
       </c>
       <c r="G81" t="n">
-        <v>-1658918.48975965</v>
+        <v>-1358786.65695339</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>25.79</v>
+        <v>25.46</v>
       </c>
       <c r="C82" t="n">
-        <v>25.79</v>
+        <v>25.46</v>
       </c>
       <c r="D82" t="n">
-        <v>25.79</v>
+        <v>25.46</v>
       </c>
       <c r="E82" t="n">
-        <v>25.79</v>
+        <v>25.46</v>
       </c>
       <c r="F82" t="n">
-        <v>9476.096100000001</v>
+        <v>47828.2276</v>
       </c>
       <c r="G82" t="n">
-        <v>-1649442.39365965</v>
+        <v>-1358786.65695339</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>25.79</v>
+        <v>25.54</v>
       </c>
       <c r="C83" t="n">
-        <v>25.79</v>
+        <v>25.89</v>
       </c>
       <c r="D83" t="n">
-        <v>25.79</v>
+        <v>25.89</v>
       </c>
       <c r="E83" t="n">
-        <v>25.79</v>
+        <v>25.54</v>
       </c>
       <c r="F83" t="n">
-        <v>38400</v>
+        <v>34216.40184885</v>
       </c>
       <c r="G83" t="n">
-        <v>-1649442.39365965</v>
+        <v>-1324570.25510454</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>25.6</v>
+        <v>25.79</v>
       </c>
       <c r="C84" t="n">
-        <v>25.6</v>
+        <v>25.79</v>
       </c>
       <c r="D84" t="n">
-        <v>25.6</v>
+        <v>25.79</v>
       </c>
       <c r="E84" t="n">
-        <v>25.6</v>
+        <v>25.79</v>
       </c>
       <c r="F84" t="n">
-        <v>10131.0582</v>
+        <v>8660</v>
       </c>
       <c r="G84" t="n">
-        <v>-1659573.45185965</v>
+        <v>-1333230.25510454</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>25.59</v>
+        <v>25.79</v>
       </c>
       <c r="C85" t="n">
-        <v>25.59</v>
+        <v>25.79</v>
       </c>
       <c r="D85" t="n">
-        <v>25.59</v>
+        <v>25.79</v>
       </c>
       <c r="E85" t="n">
-        <v>25.59</v>
+        <v>25.79</v>
       </c>
       <c r="F85" t="n">
-        <v>25562.8269</v>
+        <v>10627.8545</v>
       </c>
       <c r="G85" t="n">
-        <v>-1685136.27875965</v>
+        <v>-1333230.25510454</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>25.68</v>
+        <v>25.79</v>
       </c>
       <c r="C86" t="n">
-        <v>25.68</v>
+        <v>25.89</v>
       </c>
       <c r="D86" t="n">
-        <v>25.68</v>
+        <v>25.89</v>
       </c>
       <c r="E86" t="n">
-        <v>25.68</v>
+        <v>25.79</v>
       </c>
       <c r="F86" t="n">
-        <v>280</v>
+        <v>39246.43449251</v>
       </c>
       <c r="G86" t="n">
-        <v>-1684856.27875965</v>
+        <v>-1293983.82061203</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>25.59</v>
+        <v>25.89</v>
       </c>
       <c r="C87" t="n">
-        <v>25.36</v>
+        <v>25.89</v>
       </c>
       <c r="D87" t="n">
-        <v>25.59</v>
+        <v>25.89</v>
       </c>
       <c r="E87" t="n">
-        <v>25.36</v>
+        <v>25.89</v>
       </c>
       <c r="F87" t="n">
-        <v>537633.6706</v>
+        <v>9370.3886</v>
       </c>
       <c r="G87" t="n">
-        <v>-2222489.94935965</v>
+        <v>-1293983.82061203</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>25.5</v>
+        <v>25.89</v>
       </c>
       <c r="C88" t="n">
-        <v>25.36</v>
+        <v>25.89</v>
       </c>
       <c r="D88" t="n">
-        <v>25.5</v>
+        <v>25.89</v>
       </c>
       <c r="E88" t="n">
-        <v>25.36</v>
+        <v>25.89</v>
       </c>
       <c r="F88" t="n">
-        <v>74742.53999999999</v>
+        <v>100</v>
       </c>
       <c r="G88" t="n">
-        <v>-2222489.94935965</v>
+        <v>-1293983.82061203</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>25.38</v>
+        <v>25.89</v>
       </c>
       <c r="C89" t="n">
-        <v>25.38</v>
+        <v>25.89</v>
       </c>
       <c r="D89" t="n">
-        <v>25.38</v>
+        <v>25.89</v>
       </c>
       <c r="E89" t="n">
-        <v>25.38</v>
+        <v>25.89</v>
       </c>
       <c r="F89" t="n">
-        <v>462.2981</v>
+        <v>14.7426</v>
       </c>
       <c r="G89" t="n">
-        <v>-2222027.65125965</v>
+        <v>-1293983.82061203</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>25.37</v>
+        <v>25.89</v>
       </c>
       <c r="C90" t="n">
-        <v>25.37</v>
+        <v>25.89</v>
       </c>
       <c r="D90" t="n">
-        <v>25.37</v>
+        <v>25.89</v>
       </c>
       <c r="E90" t="n">
-        <v>25.37</v>
+        <v>25.89</v>
       </c>
       <c r="F90" t="n">
-        <v>974.8856</v>
+        <v>3546.6081</v>
       </c>
       <c r="G90" t="n">
-        <v>-2223002.53685965</v>
+        <v>-1293983.82061203</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>25.38</v>
+        <v>25.89</v>
       </c>
       <c r="C91" t="n">
-        <v>25.37</v>
+        <v>25.89</v>
       </c>
       <c r="D91" t="n">
-        <v>25.38</v>
+        <v>25.89</v>
       </c>
       <c r="E91" t="n">
-        <v>25.37</v>
+        <v>25.89</v>
       </c>
       <c r="F91" t="n">
-        <v>59124</v>
+        <v>17789.9203</v>
       </c>
       <c r="G91" t="n">
-        <v>-2223002.53685965</v>
+        <v>-1293983.82061203</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>25.38</v>
+        <v>25.79</v>
       </c>
       <c r="C92" t="n">
-        <v>25.38</v>
+        <v>25.89</v>
       </c>
       <c r="D92" t="n">
-        <v>25.38</v>
+        <v>25.89</v>
       </c>
       <c r="E92" t="n">
-        <v>25.38</v>
+        <v>25.79</v>
       </c>
       <c r="F92" t="n">
-        <v>23450</v>
+        <v>46179.7245</v>
       </c>
       <c r="G92" t="n">
-        <v>-2199552.53685965</v>
+        <v>-1293983.82061203</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,38 +3714,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>25.39</v>
+        <v>25.89</v>
       </c>
       <c r="C93" t="n">
-        <v>25.38</v>
+        <v>25.89</v>
       </c>
       <c r="D93" t="n">
-        <v>25.39</v>
+        <v>25.89</v>
       </c>
       <c r="E93" t="n">
-        <v>25.38</v>
+        <v>25.89</v>
       </c>
       <c r="F93" t="n">
-        <v>37118.7161</v>
+        <v>50043.8793</v>
       </c>
       <c r="G93" t="n">
-        <v>-2199552.53685965</v>
+        <v>-1293983.82061203</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3756,38 +3750,32 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>25.58</v>
+        <v>25.93</v>
       </c>
       <c r="C94" t="n">
-        <v>25.58</v>
+        <v>25.98</v>
       </c>
       <c r="D94" t="n">
-        <v>25.58</v>
+        <v>25.98</v>
       </c>
       <c r="E94" t="n">
-        <v>25.58</v>
+        <v>25.93</v>
       </c>
       <c r="F94" t="n">
-        <v>7519.0557</v>
+        <v>51536.8448</v>
       </c>
       <c r="G94" t="n">
-        <v>-2192033.48115965</v>
+        <v>-1242446.97581203</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3798,38 +3786,32 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>25.48</v>
+        <v>25.9</v>
       </c>
       <c r="C95" t="n">
-        <v>25.38</v>
+        <v>25.89</v>
       </c>
       <c r="D95" t="n">
-        <v>25.48</v>
+        <v>25.9</v>
       </c>
       <c r="E95" t="n">
-        <v>25.38</v>
+        <v>25.89</v>
       </c>
       <c r="F95" t="n">
-        <v>2000</v>
+        <v>6389.4056</v>
       </c>
       <c r="G95" t="n">
-        <v>-2194033.48115965</v>
+        <v>-1248836.381412029</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>25.58</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3840,38 +3822,32 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>25.48</v>
+        <v>25.89</v>
       </c>
       <c r="C96" t="n">
-        <v>25.39</v>
+        <v>25.89</v>
       </c>
       <c r="D96" t="n">
-        <v>25.48</v>
+        <v>25.89</v>
       </c>
       <c r="E96" t="n">
-        <v>25.39</v>
+        <v>25.89</v>
       </c>
       <c r="F96" t="n">
-        <v>3751</v>
+        <v>6867.5953</v>
       </c>
       <c r="G96" t="n">
-        <v>-2190282.48115965</v>
+        <v>-1248836.381412029</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3882,38 +3858,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>25.58</v>
+        <v>25.89</v>
       </c>
       <c r="C97" t="n">
-        <v>25.6</v>
+        <v>25.89</v>
       </c>
       <c r="D97" t="n">
-        <v>25.6</v>
+        <v>25.89</v>
       </c>
       <c r="E97" t="n">
-        <v>25.58</v>
+        <v>25.89</v>
       </c>
       <c r="F97" t="n">
-        <v>13424.7841</v>
+        <v>1644.3638</v>
       </c>
       <c r="G97" t="n">
-        <v>-2176857.69705965</v>
+        <v>-1248836.381412029</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>25.39</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3924,38 +3894,32 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>25.64</v>
+        <v>25.97</v>
       </c>
       <c r="C98" t="n">
-        <v>25.64</v>
+        <v>25.97</v>
       </c>
       <c r="D98" t="n">
-        <v>25.64</v>
+        <v>25.97</v>
       </c>
       <c r="E98" t="n">
-        <v>25.64</v>
+        <v>25.97</v>
       </c>
       <c r="F98" t="n">
-        <v>2266.5391</v>
+        <v>1225.6563</v>
       </c>
       <c r="G98" t="n">
-        <v>-2174591.15795965</v>
+        <v>-1247610.72511203</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>25.6</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3966,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>25.6</v>
+        <v>25.71</v>
       </c>
       <c r="C99" t="n">
-        <v>25.38</v>
+        <v>25.71</v>
       </c>
       <c r="D99" t="n">
-        <v>25.6</v>
+        <v>25.71</v>
       </c>
       <c r="E99" t="n">
-        <v>25.38</v>
+        <v>25.71</v>
       </c>
       <c r="F99" t="n">
-        <v>70000</v>
+        <v>9943.401</v>
       </c>
       <c r="G99" t="n">
-        <v>-2244591.15795965</v>
+        <v>-1257554.12611203</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3991,11 +3955,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4006,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>25.62</v>
+        <v>25.71</v>
       </c>
       <c r="C100" t="n">
-        <v>25.62</v>
+        <v>25.71</v>
       </c>
       <c r="D100" t="n">
-        <v>25.62</v>
+        <v>25.8</v>
       </c>
       <c r="E100" t="n">
-        <v>25.62</v>
+        <v>25.71</v>
       </c>
       <c r="F100" t="n">
-        <v>15735.8383</v>
+        <v>22494.2292</v>
       </c>
       <c r="G100" t="n">
-        <v>-2228855.31965965</v>
+        <v>-1257554.12611203</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4031,11 +3991,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4046,38 +4002,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="C101" t="n">
-        <v>25.39</v>
+        <v>25.96</v>
       </c>
       <c r="D101" t="n">
-        <v>25.5</v>
+        <v>25.96</v>
       </c>
       <c r="E101" t="n">
-        <v>25.39</v>
+        <v>25.9</v>
       </c>
       <c r="F101" t="n">
-        <v>55049.149</v>
+        <v>3857.53534175</v>
       </c>
       <c r="G101" t="n">
-        <v>-2283904.468659651</v>
+        <v>-1253696.59077028</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>25.62</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4088,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="C102" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="D102" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="E102" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="F102" t="n">
-        <v>2393.1387</v>
+        <v>254.2835</v>
       </c>
       <c r="G102" t="n">
-        <v>-2281511.329959651</v>
+        <v>-1253950.87427028</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4113,11 +4063,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4128,38 +4074,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>25.6</v>
+        <v>25.71</v>
       </c>
       <c r="C103" t="n">
-        <v>25.6</v>
+        <v>25.64</v>
       </c>
       <c r="D103" t="n">
-        <v>25.6</v>
+        <v>25.71</v>
       </c>
       <c r="E103" t="n">
-        <v>25.6</v>
+        <v>25.64</v>
       </c>
       <c r="F103" t="n">
-        <v>562.0999</v>
+        <v>36932.8064</v>
       </c>
       <c r="G103" t="n">
-        <v>-2281511.329959651</v>
+        <v>-1290883.68067028</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>25.6</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4170,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>25.49</v>
+        <v>25.7</v>
       </c>
       <c r="C104" t="n">
-        <v>25.49</v>
+        <v>25.7</v>
       </c>
       <c r="D104" t="n">
-        <v>25.49</v>
+        <v>25.7</v>
       </c>
       <c r="E104" t="n">
-        <v>25.49</v>
+        <v>25.7</v>
       </c>
       <c r="F104" t="n">
-        <v>6125.3761</v>
+        <v>8190.0689</v>
       </c>
       <c r="G104" t="n">
-        <v>-2287636.706059651</v>
+        <v>-1282693.611770279</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4195,11 +4135,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4210,38 +4146,32 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>25.49</v>
+        <v>25.9</v>
       </c>
       <c r="C105" t="n">
-        <v>25.4</v>
+        <v>25.9</v>
       </c>
       <c r="D105" t="n">
-        <v>25.49</v>
+        <v>25.9</v>
       </c>
       <c r="E105" t="n">
-        <v>25.4</v>
+        <v>25.9</v>
       </c>
       <c r="F105" t="n">
-        <v>51916.1713</v>
+        <v>1563.1628</v>
       </c>
       <c r="G105" t="n">
-        <v>-2339552.877359651</v>
+        <v>-1281130.448970279</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>25.49</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4252,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>25.44</v>
+        <v>25.9</v>
       </c>
       <c r="C106" t="n">
-        <v>25.4</v>
+        <v>25.71</v>
       </c>
       <c r="D106" t="n">
-        <v>25.44</v>
+        <v>25.9</v>
       </c>
       <c r="E106" t="n">
-        <v>25.4</v>
+        <v>25.71</v>
       </c>
       <c r="F106" t="n">
-        <v>20000</v>
+        <v>89228.34050000001</v>
       </c>
       <c r="G106" t="n">
-        <v>-2339552.877359651</v>
+        <v>-1370358.789470279</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4277,11 +4207,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4292,38 +4218,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>25.6</v>
+        <v>25.72</v>
       </c>
       <c r="C107" t="n">
-        <v>25.6</v>
+        <v>25.72</v>
       </c>
       <c r="D107" t="n">
-        <v>25.6</v>
+        <v>25.72</v>
       </c>
       <c r="E107" t="n">
-        <v>25.6</v>
+        <v>25.72</v>
       </c>
       <c r="F107" t="n">
-        <v>5257.0912</v>
+        <v>34233.5046</v>
       </c>
       <c r="G107" t="n">
-        <v>-2334295.78615965</v>
+        <v>-1336125.284870279</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>25.4</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4334,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>25.55</v>
+        <v>25.72</v>
       </c>
       <c r="C108" t="n">
-        <v>25.55</v>
+        <v>25.72</v>
       </c>
       <c r="D108" t="n">
-        <v>25.55</v>
+        <v>25.72</v>
       </c>
       <c r="E108" t="n">
-        <v>25.55</v>
+        <v>25.72</v>
       </c>
       <c r="F108" t="n">
-        <v>1144.1549</v>
+        <v>8766.4954</v>
       </c>
       <c r="G108" t="n">
-        <v>-2335439.94105965</v>
+        <v>-1336125.284870279</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4359,11 +4279,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4374,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>25.48</v>
+        <v>25.89</v>
       </c>
       <c r="C109" t="n">
-        <v>25.48</v>
+        <v>25.89</v>
       </c>
       <c r="D109" t="n">
-        <v>25.48</v>
+        <v>25.89</v>
       </c>
       <c r="E109" t="n">
-        <v>25.4</v>
+        <v>25.89</v>
       </c>
       <c r="F109" t="n">
-        <v>120799.5547</v>
+        <v>3862.49517188</v>
       </c>
       <c r="G109" t="n">
-        <v>-2456239.495759651</v>
+        <v>-1332262.789698399</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4399,11 +4315,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4414,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>25.39</v>
+        <v>25.86</v>
       </c>
       <c r="C110" t="n">
-        <v>25.39</v>
+        <v>25.86</v>
       </c>
       <c r="D110" t="n">
-        <v>25.39</v>
+        <v>25.86</v>
       </c>
       <c r="E110" t="n">
-        <v>25.39</v>
+        <v>25.86</v>
       </c>
       <c r="F110" t="n">
-        <v>1855.8451</v>
+        <v>43482.1449</v>
       </c>
       <c r="G110" t="n">
-        <v>-2458095.340859651</v>
+        <v>-1375744.934598399</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4439,11 +4351,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4454,38 +4362,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>25.4</v>
+        <v>25.75</v>
       </c>
       <c r="C111" t="n">
-        <v>25.4</v>
+        <v>25.71</v>
       </c>
       <c r="D111" t="n">
-        <v>25.4</v>
+        <v>25.75</v>
       </c>
       <c r="E111" t="n">
-        <v>25.4</v>
+        <v>25.71</v>
       </c>
       <c r="F111" t="n">
-        <v>21911.94</v>
+        <v>66681.9476</v>
       </c>
       <c r="G111" t="n">
-        <v>-2436183.400859651</v>
+        <v>-1442426.882198399</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>25.39</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4496,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>25.39</v>
+        <v>25.71</v>
       </c>
       <c r="C112" t="n">
-        <v>25.39</v>
+        <v>25.71</v>
       </c>
       <c r="D112" t="n">
-        <v>25.39</v>
+        <v>25.71</v>
       </c>
       <c r="E112" t="n">
-        <v>25.39</v>
+        <v>25.71</v>
       </c>
       <c r="F112" t="n">
-        <v>6594.7</v>
+        <v>60927.6648</v>
       </c>
       <c r="G112" t="n">
-        <v>-2442778.100859651</v>
+        <v>-1442426.882198399</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4521,11 +4423,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4536,38 +4434,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="C113" t="n">
         <v>25.6</v>
       </c>
       <c r="D113" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="E113" t="n">
         <v>25.6</v>
       </c>
       <c r="F113" t="n">
-        <v>4180.8089</v>
+        <v>200813.3938</v>
       </c>
       <c r="G113" t="n">
-        <v>-2438597.291959651</v>
+        <v>-1643240.275998399</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>25.39</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4581,19 +4473,19 @@
         <v>25.6</v>
       </c>
       <c r="C114" t="n">
-        <v>25.39</v>
+        <v>25.6</v>
       </c>
       <c r="D114" t="n">
         <v>25.6</v>
       </c>
       <c r="E114" t="n">
-        <v>25.39</v>
+        <v>25.6</v>
       </c>
       <c r="F114" t="n">
-        <v>10900</v>
+        <v>56919.5195</v>
       </c>
       <c r="G114" t="n">
-        <v>-2449497.291959651</v>
+        <v>-1643240.275998399</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4603,11 +4495,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4630,10 +4518,10 @@
         <v>25.6</v>
       </c>
       <c r="F115" t="n">
-        <v>2474.0522</v>
+        <v>50000</v>
       </c>
       <c r="G115" t="n">
-        <v>-2447023.239759651</v>
+        <v>-1643240.275998399</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4643,11 +4531,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4658,22 +4542,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>25.68</v>
+        <v>25.6</v>
       </c>
       <c r="C116" t="n">
-        <v>25.68</v>
+        <v>25.6</v>
       </c>
       <c r="D116" t="n">
-        <v>25.68</v>
+        <v>25.6</v>
       </c>
       <c r="E116" t="n">
-        <v>25.68</v>
+        <v>25.6</v>
       </c>
       <c r="F116" t="n">
-        <v>1947.04049844</v>
+        <v>1930.502</v>
       </c>
       <c r="G116" t="n">
-        <v>-2445076.199261211</v>
+        <v>-1643240.275998399</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4683,11 +4567,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4701,19 +4581,19 @@
         <v>25.6</v>
       </c>
       <c r="C117" t="n">
-        <v>25.41</v>
+        <v>25.6</v>
       </c>
       <c r="D117" t="n">
         <v>25.6</v>
       </c>
       <c r="E117" t="n">
-        <v>25.41</v>
+        <v>25.6</v>
       </c>
       <c r="F117" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G117" t="n">
-        <v>-2450076.199261211</v>
+        <v>-1643240.275998399</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4723,11 +4603,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4738,22 +4614,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>25.51</v>
+        <v>25.66</v>
       </c>
       <c r="C118" t="n">
-        <v>25.51</v>
+        <v>25.66</v>
       </c>
       <c r="D118" t="n">
-        <v>25.51</v>
+        <v>25.66</v>
       </c>
       <c r="E118" t="n">
-        <v>25.51</v>
+        <v>25.66</v>
       </c>
       <c r="F118" t="n">
-        <v>2917.3869</v>
+        <v>19162.1456</v>
       </c>
       <c r="G118" t="n">
-        <v>-2447158.812361211</v>
+        <v>-1624078.130398399</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4763,11 +4639,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4778,22 +4650,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>25.51</v>
+        <v>25.6</v>
       </c>
       <c r="C119" t="n">
-        <v>25.51</v>
+        <v>25.5</v>
       </c>
       <c r="D119" t="n">
-        <v>25.51</v>
+        <v>25.6</v>
       </c>
       <c r="E119" t="n">
-        <v>25.51</v>
+        <v>25.5</v>
       </c>
       <c r="F119" t="n">
-        <v>145.7233</v>
+        <v>6746.9375</v>
       </c>
       <c r="G119" t="n">
-        <v>-2447158.812361211</v>
+        <v>-1630825.067898399</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4803,11 +4675,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4818,22 +4686,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>25.51</v>
+        <v>25.69</v>
       </c>
       <c r="C120" t="n">
-        <v>25.51</v>
+        <v>25.69</v>
       </c>
       <c r="D120" t="n">
-        <v>25.51</v>
+        <v>25.69</v>
       </c>
       <c r="E120" t="n">
-        <v>25.51</v>
+        <v>25.69</v>
       </c>
       <c r="F120" t="n">
-        <v>3783.016</v>
+        <v>37900.2942</v>
       </c>
       <c r="G120" t="n">
-        <v>-2447158.812361211</v>
+        <v>-1592924.7736984</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4843,11 +4711,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4858,22 +4722,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>25.6</v>
+        <v>25.69</v>
       </c>
       <c r="C121" t="n">
-        <v>25.6</v>
+        <v>25.69</v>
       </c>
       <c r="D121" t="n">
-        <v>25.6</v>
+        <v>25.69</v>
       </c>
       <c r="E121" t="n">
-        <v>25.6</v>
+        <v>25.69</v>
       </c>
       <c r="F121" t="n">
-        <v>2368.7679</v>
+        <v>2826.3897</v>
       </c>
       <c r="G121" t="n">
-        <v>-2444790.044461211</v>
+        <v>-1592924.7736984</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4883,11 +4747,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4898,22 +4758,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>25.68</v>
+        <v>25.5</v>
       </c>
       <c r="C122" t="n">
-        <v>25.68</v>
+        <v>25.5</v>
       </c>
       <c r="D122" t="n">
-        <v>25.68</v>
+        <v>25.5</v>
       </c>
       <c r="E122" t="n">
-        <v>25.68</v>
+        <v>25.5</v>
       </c>
       <c r="F122" t="n">
-        <v>144.7976</v>
+        <v>2144.0028</v>
       </c>
       <c r="G122" t="n">
-        <v>-2444645.246861211</v>
+        <v>-1595068.776498399</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4923,11 +4783,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4938,22 +4794,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>25.68</v>
+        <v>25.5</v>
       </c>
       <c r="C123" t="n">
-        <v>25.72</v>
+        <v>25.5</v>
       </c>
       <c r="D123" t="n">
-        <v>25.72</v>
+        <v>25.5</v>
       </c>
       <c r="E123" t="n">
-        <v>25.68</v>
+        <v>25.5</v>
       </c>
       <c r="F123" t="n">
-        <v>12508</v>
+        <v>1205.7552</v>
       </c>
       <c r="G123" t="n">
-        <v>-2432137.246861211</v>
+        <v>-1595068.776498399</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4963,11 +4819,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4978,22 +4830,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>25.72</v>
+        <v>25.5</v>
       </c>
       <c r="C124" t="n">
-        <v>25.82</v>
+        <v>25.5</v>
       </c>
       <c r="D124" t="n">
-        <v>25.82</v>
+        <v>25.5</v>
       </c>
       <c r="E124" t="n">
-        <v>25.72</v>
+        <v>25.5</v>
       </c>
       <c r="F124" t="n">
-        <v>15344</v>
+        <v>12000</v>
       </c>
       <c r="G124" t="n">
-        <v>-2416793.246861211</v>
+        <v>-1595068.776498399</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5003,11 +4855,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5018,22 +4866,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>25.72</v>
+        <v>25.5</v>
       </c>
       <c r="C125" t="n">
-        <v>25.83</v>
+        <v>25.5</v>
       </c>
       <c r="D125" t="n">
-        <v>25.83</v>
+        <v>25.5</v>
       </c>
       <c r="E125" t="n">
-        <v>25.72</v>
+        <v>25.5</v>
       </c>
       <c r="F125" t="n">
-        <v>9850.5461782</v>
+        <v>11747.1555</v>
       </c>
       <c r="G125" t="n">
-        <v>-2406942.700683011</v>
+        <v>-1595068.776498399</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5043,11 +4891,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5058,22 +4902,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>25.83</v>
+        <v>25.5</v>
       </c>
       <c r="C126" t="n">
-        <v>25.83</v>
+        <v>25.5</v>
       </c>
       <c r="D126" t="n">
-        <v>25.83</v>
+        <v>25.5</v>
       </c>
       <c r="E126" t="n">
-        <v>25.83</v>
+        <v>25.5</v>
       </c>
       <c r="F126" t="n">
-        <v>14040</v>
+        <v>1000</v>
       </c>
       <c r="G126" t="n">
-        <v>-2406942.700683011</v>
+        <v>-1595068.776498399</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5083,11 +4927,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5098,22 +4938,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>25.53</v>
+        <v>25.5</v>
       </c>
       <c r="C127" t="n">
-        <v>25.53</v>
+        <v>25.5</v>
       </c>
       <c r="D127" t="n">
-        <v>25.53</v>
+        <v>25.5</v>
       </c>
       <c r="E127" t="n">
-        <v>25.53</v>
+        <v>25.5</v>
       </c>
       <c r="F127" t="n">
-        <v>20</v>
+        <v>4096.539</v>
       </c>
       <c r="G127" t="n">
-        <v>-2406962.700683011</v>
+        <v>-1595068.776498399</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5123,11 +4963,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5138,36 +4974,36 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>25.64</v>
+        <v>25.5</v>
       </c>
       <c r="C128" t="n">
-        <v>25.64</v>
+        <v>25.5</v>
       </c>
       <c r="D128" t="n">
-        <v>25.64</v>
+        <v>25.5</v>
       </c>
       <c r="E128" t="n">
-        <v>25.64</v>
+        <v>25.5</v>
       </c>
       <c r="F128" t="n">
-        <v>16140</v>
+        <v>73069.41280000001</v>
       </c>
       <c r="G128" t="n">
-        <v>-2390822.700683011</v>
+        <v>-1595068.776498399</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K128" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5178,22 +5014,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>25.68</v>
+        <v>25.5</v>
       </c>
       <c r="C129" t="n">
-        <v>25.68</v>
+        <v>25.5</v>
       </c>
       <c r="D129" t="n">
-        <v>25.68</v>
+        <v>25.5</v>
       </c>
       <c r="E129" t="n">
-        <v>25.68</v>
+        <v>25.5</v>
       </c>
       <c r="F129" t="n">
-        <v>1160</v>
+        <v>8093</v>
       </c>
       <c r="G129" t="n">
-        <v>-2389662.700683011</v>
+        <v>-1595068.776498399</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5202,10 +5038,12 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>25.5</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M129" t="n">
@@ -5218,34 +5056,38 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>25.65</v>
+        <v>25.5</v>
       </c>
       <c r="C130" t="n">
-        <v>25.56</v>
+        <v>25.48</v>
       </c>
       <c r="D130" t="n">
-        <v>25.65</v>
+        <v>25.5</v>
       </c>
       <c r="E130" t="n">
-        <v>25.56</v>
+        <v>25.48</v>
       </c>
       <c r="F130" t="n">
-        <v>20813.4873</v>
+        <v>949.218</v>
       </c>
       <c r="G130" t="n">
-        <v>-2410476.187983011</v>
+        <v>-1596017.9944984</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K130" t="n">
+        <v>25.5</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M130" t="n">
@@ -5258,22 +5100,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>25.6</v>
+        <v>25.69</v>
       </c>
       <c r="C131" t="n">
-        <v>25.6</v>
+        <v>25.69</v>
       </c>
       <c r="D131" t="n">
-        <v>25.6</v>
+        <v>25.69</v>
       </c>
       <c r="E131" t="n">
-        <v>25.6</v>
+        <v>25.69</v>
       </c>
       <c r="F131" t="n">
-        <v>678</v>
+        <v>20</v>
       </c>
       <c r="G131" t="n">
-        <v>-2409798.187983011</v>
+        <v>-1595997.9944984</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5282,7 +5124,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>25.5</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5298,22 +5142,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>25.6</v>
+        <v>25.69</v>
       </c>
       <c r="C132" t="n">
-        <v>25.54</v>
+        <v>25.69</v>
       </c>
       <c r="D132" t="n">
-        <v>25.6</v>
+        <v>25.69</v>
       </c>
       <c r="E132" t="n">
-        <v>25.54</v>
+        <v>25.69</v>
       </c>
       <c r="F132" t="n">
-        <v>20135.4873</v>
+        <v>413.7364</v>
       </c>
       <c r="G132" t="n">
-        <v>-2429933.675283012</v>
+        <v>-1595997.9944984</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5322,7 +5166,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>25.5</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5338,22 +5184,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>25.6</v>
+        <v>25.69</v>
       </c>
       <c r="C133" t="n">
-        <v>25.54</v>
+        <v>25.69</v>
       </c>
       <c r="D133" t="n">
-        <v>25.6</v>
+        <v>25.69</v>
       </c>
       <c r="E133" t="n">
-        <v>25.54</v>
+        <v>25.69</v>
       </c>
       <c r="F133" t="n">
-        <v>17624.3129</v>
+        <v>25784.2358</v>
       </c>
       <c r="G133" t="n">
-        <v>-2429933.675283012</v>
+        <v>-1595997.9944984</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5362,7 +5208,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>25.5</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5378,22 +5226,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>25.53</v>
+        <v>25.7</v>
       </c>
       <c r="C134" t="n">
-        <v>25.43</v>
+        <v>25.8</v>
       </c>
       <c r="D134" t="n">
-        <v>25.53</v>
+        <v>25.8</v>
       </c>
       <c r="E134" t="n">
-        <v>25.43</v>
+        <v>25.7</v>
       </c>
       <c r="F134" t="n">
-        <v>40000</v>
+        <v>13785.71123604</v>
       </c>
       <c r="G134" t="n">
-        <v>-2469933.675283012</v>
+        <v>-1582212.283262359</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5402,7 +5250,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>25.5</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5418,22 +5268,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>25.6</v>
+        <v>25.79</v>
       </c>
       <c r="C135" t="n">
-        <v>25.6</v>
+        <v>25.79</v>
       </c>
       <c r="D135" t="n">
-        <v>25.6</v>
+        <v>25.79</v>
       </c>
       <c r="E135" t="n">
-        <v>25.6</v>
+        <v>25.79</v>
       </c>
       <c r="F135" t="n">
-        <v>33.4336</v>
+        <v>3465.6176</v>
       </c>
       <c r="G135" t="n">
-        <v>-2469900.241683011</v>
+        <v>-1585677.900862359</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5442,7 +5292,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>25.5</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5458,22 +5310,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>25.6</v>
+        <v>25.79</v>
       </c>
       <c r="C136" t="n">
-        <v>25.6</v>
+        <v>25.79</v>
       </c>
       <c r="D136" t="n">
-        <v>25.6</v>
+        <v>25.79</v>
       </c>
       <c r="E136" t="n">
-        <v>25.6</v>
+        <v>25.79</v>
       </c>
       <c r="F136" t="n">
-        <v>68358.6966</v>
+        <v>1000</v>
       </c>
       <c r="G136" t="n">
-        <v>-2469900.241683011</v>
+        <v>-1585677.900862359</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5482,7 +5334,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>25.5</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5498,22 +5352,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="C137" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="D137" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="E137" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="F137" t="n">
-        <v>6357.4884</v>
+        <v>15115.7344</v>
       </c>
       <c r="G137" t="n">
-        <v>-2469900.241683011</v>
+        <v>-1600793.635262359</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5522,7 +5376,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>25.5</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5541,19 +5397,19 @@
         <v>25.6</v>
       </c>
       <c r="C138" t="n">
-        <v>25.6</v>
+        <v>25.51</v>
       </c>
       <c r="D138" t="n">
         <v>25.6</v>
       </c>
       <c r="E138" t="n">
-        <v>25.6</v>
+        <v>25.51</v>
       </c>
       <c r="F138" t="n">
-        <v>11498.5559</v>
+        <v>10000</v>
       </c>
       <c r="G138" t="n">
-        <v>-2469900.241683011</v>
+        <v>-1610793.635262359</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5562,7 +5418,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>25.5</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5578,22 +5436,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>25.81</v>
+        <v>25.6</v>
       </c>
       <c r="C139" t="n">
-        <v>25.81</v>
+        <v>25.5</v>
       </c>
       <c r="D139" t="n">
-        <v>25.81</v>
+        <v>25.6</v>
       </c>
       <c r="E139" t="n">
-        <v>25.81</v>
+        <v>25.5</v>
       </c>
       <c r="F139" t="n">
-        <v>28.2443</v>
+        <v>25225.6499</v>
       </c>
       <c r="G139" t="n">
-        <v>-2469871.997383012</v>
+        <v>-1636019.285162359</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5602,7 +5460,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>25.5</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5621,19 +5481,19 @@
         <v>25.6</v>
       </c>
       <c r="C140" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="D140" t="n">
         <v>25.6</v>
       </c>
       <c r="E140" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="F140" t="n">
-        <v>32882</v>
+        <v>1225.6563</v>
       </c>
       <c r="G140" t="n">
-        <v>-2502753.997383012</v>
+        <v>-1634793.62886236</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5642,7 +5502,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>25.5</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5661,19 +5523,19 @@
         <v>25.6</v>
       </c>
       <c r="C141" t="n">
-        <v>25.71</v>
+        <v>25.6</v>
       </c>
       <c r="D141" t="n">
-        <v>25.71</v>
+        <v>25.6</v>
       </c>
       <c r="E141" t="n">
         <v>25.6</v>
       </c>
       <c r="F141" t="n">
-        <v>7785.27592699</v>
+        <v>9603.114600000001</v>
       </c>
       <c r="G141" t="n">
-        <v>-2494968.721456022</v>
+        <v>-1634793.62886236</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5682,7 +5544,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>25.5</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5698,22 +5562,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>25.81</v>
+        <v>25.6</v>
       </c>
       <c r="C142" t="n">
-        <v>25.81</v>
+        <v>25.6</v>
       </c>
       <c r="D142" t="n">
-        <v>25.81</v>
+        <v>25.6</v>
       </c>
       <c r="E142" t="n">
-        <v>25.81</v>
+        <v>25.6</v>
       </c>
       <c r="F142" t="n">
-        <v>1937.23363037</v>
+        <v>18496.7584</v>
       </c>
       <c r="G142" t="n">
-        <v>-2493031.487825652</v>
+        <v>-1634793.62886236</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5722,7 +5586,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>25.5</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5738,22 +5604,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>25.81</v>
+        <v>25.6</v>
       </c>
       <c r="C143" t="n">
-        <v>25.81</v>
+        <v>25.6</v>
       </c>
       <c r="D143" t="n">
-        <v>25.81</v>
+        <v>25.6</v>
       </c>
       <c r="E143" t="n">
-        <v>25.81</v>
+        <v>25.6</v>
       </c>
       <c r="F143" t="n">
-        <v>10595.61496963</v>
+        <v>29748.3729</v>
       </c>
       <c r="G143" t="n">
-        <v>-2493031.487825652</v>
+        <v>-1634793.62886236</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5762,7 +5628,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>25.5</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5778,22 +5646,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>25.81</v>
+        <v>25.7</v>
       </c>
       <c r="C144" t="n">
-        <v>25.81</v>
+        <v>25.7</v>
       </c>
       <c r="D144" t="n">
-        <v>25.81</v>
+        <v>25.7</v>
       </c>
       <c r="E144" t="n">
-        <v>25.81</v>
+        <v>25.7</v>
       </c>
       <c r="F144" t="n">
-        <v>10000</v>
+        <v>12730.7998</v>
       </c>
       <c r="G144" t="n">
-        <v>-2493031.487825652</v>
+        <v>-1622062.82906236</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5802,7 +5670,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>25.5</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5818,22 +5688,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>25.61</v>
+        <v>25.7</v>
       </c>
       <c r="C145" t="n">
-        <v>25.61</v>
+        <v>25.7</v>
       </c>
       <c r="D145" t="n">
-        <v>25.61</v>
+        <v>25.7</v>
       </c>
       <c r="E145" t="n">
-        <v>25.61</v>
+        <v>25.7</v>
       </c>
       <c r="F145" t="n">
-        <v>10000</v>
+        <v>3881.3472</v>
       </c>
       <c r="G145" t="n">
-        <v>-2503031.487825652</v>
+        <v>-1622062.82906236</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5842,7 +5712,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>25.5</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5858,22 +5730,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>25.74</v>
+        <v>25.7</v>
       </c>
       <c r="C146" t="n">
-        <v>25.74</v>
+        <v>25.8</v>
       </c>
       <c r="D146" t="n">
-        <v>25.74</v>
+        <v>25.8</v>
       </c>
       <c r="E146" t="n">
-        <v>25.74</v>
+        <v>25.7</v>
       </c>
       <c r="F146" t="n">
-        <v>990.8264</v>
+        <v>31070.32660271</v>
       </c>
       <c r="G146" t="n">
-        <v>-2502040.661425652</v>
+        <v>-1590992.50245965</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5882,7 +5754,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>25.5</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5898,22 +5772,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>25.74</v>
+        <v>25.8</v>
       </c>
       <c r="C147" t="n">
-        <v>25.74</v>
+        <v>25.8</v>
       </c>
       <c r="D147" t="n">
-        <v>25.74</v>
+        <v>25.8</v>
       </c>
       <c r="E147" t="n">
-        <v>25.74</v>
+        <v>25.8</v>
       </c>
       <c r="F147" t="n">
-        <v>4969.1736</v>
+        <v>4100</v>
       </c>
       <c r="G147" t="n">
-        <v>-2502040.661425652</v>
+        <v>-1590992.50245965</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5922,7 +5796,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>25.5</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5938,22 +5814,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>25.74</v>
+        <v>25.71</v>
       </c>
       <c r="C148" t="n">
-        <v>25.74</v>
+        <v>25.71</v>
       </c>
       <c r="D148" t="n">
-        <v>25.74</v>
+        <v>25.71</v>
       </c>
       <c r="E148" t="n">
-        <v>25.74</v>
+        <v>25.71</v>
       </c>
       <c r="F148" t="n">
-        <v>1444.2777</v>
+        <v>20000</v>
       </c>
       <c r="G148" t="n">
-        <v>-2502040.661425652</v>
+        <v>-1610992.50245965</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5962,7 +5838,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>25.5</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5978,22 +5856,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>25.74</v>
+        <v>25.8</v>
       </c>
       <c r="C149" t="n">
-        <v>25.82</v>
+        <v>25.8</v>
       </c>
       <c r="D149" t="n">
-        <v>25.82</v>
+        <v>25.8</v>
       </c>
       <c r="E149" t="n">
-        <v>25.74</v>
+        <v>25.8</v>
       </c>
       <c r="F149" t="n">
-        <v>4574.90897699</v>
+        <v>20</v>
       </c>
       <c r="G149" t="n">
-        <v>-2497465.752448662</v>
+        <v>-1610972.50245965</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6002,7 +5880,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>25.5</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6018,22 +5898,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>25.82</v>
+        <v>25.79</v>
       </c>
       <c r="C150" t="n">
-        <v>25.84</v>
+        <v>25.79</v>
       </c>
       <c r="D150" t="n">
-        <v>25.84</v>
+        <v>25.79</v>
       </c>
       <c r="E150" t="n">
-        <v>25.82</v>
+        <v>25.79</v>
       </c>
       <c r="F150" t="n">
-        <v>51010.76552301</v>
+        <v>3600.6513</v>
       </c>
       <c r="G150" t="n">
-        <v>-2446454.986925652</v>
+        <v>-1614573.15375965</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6042,7 +5922,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>25.5</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6058,22 +5940,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>25.84</v>
+        <v>25.71</v>
       </c>
       <c r="C151" t="n">
-        <v>25.84</v>
+        <v>25.71</v>
       </c>
       <c r="D151" t="n">
-        <v>25.84</v>
+        <v>25.71</v>
       </c>
       <c r="E151" t="n">
-        <v>25.84</v>
+        <v>25.71</v>
       </c>
       <c r="F151" t="n">
-        <v>14691.9361</v>
+        <v>15920.9074</v>
       </c>
       <c r="G151" t="n">
-        <v>-2446454.986925652</v>
+        <v>-1630494.06115965</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6082,7 +5964,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>25.5</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6098,22 +5982,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>25.94</v>
+        <v>25.7</v>
       </c>
       <c r="C152" t="n">
-        <v>25.94</v>
+        <v>25.59</v>
       </c>
       <c r="D152" t="n">
-        <v>25.94</v>
+        <v>25.7</v>
       </c>
       <c r="E152" t="n">
-        <v>25.94</v>
+        <v>25.59</v>
       </c>
       <c r="F152" t="n">
-        <v>17500</v>
+        <v>28424.4286</v>
       </c>
       <c r="G152" t="n">
-        <v>-2428954.986925652</v>
+        <v>-1658918.48975965</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6122,7 +6006,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>25.5</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6138,40 +6024,3042 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
+        <v>25.79</v>
+      </c>
+      <c r="C153" t="n">
+        <v>25.79</v>
+      </c>
+      <c r="D153" t="n">
+        <v>25.79</v>
+      </c>
+      <c r="E153" t="n">
+        <v>25.79</v>
+      </c>
+      <c r="F153" t="n">
+        <v>9476.096100000001</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-1649442.39365965</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>25.79</v>
+      </c>
+      <c r="C154" t="n">
+        <v>25.79</v>
+      </c>
+      <c r="D154" t="n">
+        <v>25.79</v>
+      </c>
+      <c r="E154" t="n">
+        <v>25.79</v>
+      </c>
+      <c r="F154" t="n">
+        <v>38400</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-1649442.39365965</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C155" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D155" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E155" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="F155" t="n">
+        <v>10131.0582</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-1659573.45185965</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="C156" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="D156" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="E156" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="F156" t="n">
+        <v>25562.8269</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-1685136.27875965</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="C157" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="D157" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="E157" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="F157" t="n">
+        <v>280</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-1684856.27875965</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="C158" t="n">
+        <v>25.36</v>
+      </c>
+      <c r="D158" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="E158" t="n">
+        <v>25.36</v>
+      </c>
+      <c r="F158" t="n">
+        <v>537633.6706</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-2222489.94935965</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C159" t="n">
+        <v>25.36</v>
+      </c>
+      <c r="D159" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E159" t="n">
+        <v>25.36</v>
+      </c>
+      <c r="F159" t="n">
+        <v>74742.53999999999</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-2222489.94935965</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="C160" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="D160" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="E160" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="F160" t="n">
+        <v>462.2981</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-2222027.65125965</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>25.37</v>
+      </c>
+      <c r="C161" t="n">
+        <v>25.37</v>
+      </c>
+      <c r="D161" t="n">
+        <v>25.37</v>
+      </c>
+      <c r="E161" t="n">
+        <v>25.37</v>
+      </c>
+      <c r="F161" t="n">
+        <v>974.8856</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-2223002.53685965</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="C162" t="n">
+        <v>25.37</v>
+      </c>
+      <c r="D162" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="E162" t="n">
+        <v>25.37</v>
+      </c>
+      <c r="F162" t="n">
+        <v>59124</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-2223002.53685965</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="C163" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="D163" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="E163" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="F163" t="n">
+        <v>23450</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-2199552.53685965</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="C164" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="D164" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="E164" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="F164" t="n">
+        <v>37118.7161</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-2199552.53685965</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="C165" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="D165" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="E165" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="F165" t="n">
+        <v>7519.0557</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-2192033.48115965</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="K165" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="C166" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="D166" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="E166" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-2194033.48115965</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="C167" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="D167" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="E167" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="F167" t="n">
+        <v>3751</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-2190282.48115965</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="C168" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D168" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E168" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="F168" t="n">
+        <v>13424.7841</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-2176857.69705965</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="K168" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="C169" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="D169" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="E169" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2266.5391</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-2174591.15795965</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C170" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="D170" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E170" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="F170" t="n">
+        <v>70000</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-2244591.15795965</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>25.62</v>
+      </c>
+      <c r="C171" t="n">
+        <v>25.62</v>
+      </c>
+      <c r="D171" t="n">
+        <v>25.62</v>
+      </c>
+      <c r="E171" t="n">
+        <v>25.62</v>
+      </c>
+      <c r="F171" t="n">
+        <v>15735.8383</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-2228855.31965965</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C172" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="D172" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E172" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="F172" t="n">
+        <v>55049.149</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-2283904.468659651</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C173" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D173" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E173" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2393.1387</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-2281511.329959651</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C174" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D174" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E174" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="F174" t="n">
+        <v>562.0999</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-2281511.329959651</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="C175" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="D175" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="E175" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="F175" t="n">
+        <v>6125.3761</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-2287636.706059651</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="C176" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="D176" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="E176" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="F176" t="n">
+        <v>51916.1713</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-2339552.877359651</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="K176" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>25.44</v>
+      </c>
+      <c r="C177" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="D177" t="n">
+        <v>25.44</v>
+      </c>
+      <c r="E177" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="F177" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-2339552.877359651</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="K177" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C178" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D178" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E178" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="F178" t="n">
+        <v>5257.0912</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-2334295.78615965</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="K178" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="C179" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="D179" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="E179" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1144.1549</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-2335439.94105965</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K179" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="C180" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="D180" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="E180" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="F180" t="n">
+        <v>120799.5547</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-2456239.495759651</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K180" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="C181" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="D181" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="E181" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1855.8451</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-2458095.340859651</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C182" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="D182" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="E182" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="F182" t="n">
+        <v>21911.94</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-2436183.400859651</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="C183" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="D183" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="E183" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="F183" t="n">
+        <v>6594.7</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-2442778.100859651</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C184" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D184" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E184" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="F184" t="n">
+        <v>4180.8089</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-2438597.291959651</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="K184" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C185" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="D185" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E185" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="F185" t="n">
+        <v>10900</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-2449497.291959651</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C186" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D186" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E186" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2474.0522</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-2447023.239759651</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="C187" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="D187" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="E187" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1947.04049844</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-2445076.199261211</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C188" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="D188" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E188" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="F188" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-2450076.199261211</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="C189" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="D189" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="E189" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2917.3869</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-2447158.812361211</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="C190" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="D190" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="E190" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="F190" t="n">
+        <v>145.7233</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-2447158.812361211</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="C191" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="D191" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="E191" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="F191" t="n">
+        <v>3783.016</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-2447158.812361211</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C192" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D192" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E192" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2368.7679</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-2444790.044461211</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="K192" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="C193" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="D193" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="E193" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="F193" t="n">
+        <v>144.7976</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-2444645.246861211</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="C194" t="n">
+        <v>25.72</v>
+      </c>
+      <c r="D194" t="n">
+        <v>25.72</v>
+      </c>
+      <c r="E194" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="F194" t="n">
+        <v>12508</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-2432137.246861211</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>25.72</v>
+      </c>
+      <c r="C195" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="D195" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="E195" t="n">
+        <v>25.72</v>
+      </c>
+      <c r="F195" t="n">
+        <v>15344</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-2416793.246861211</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>25.72</v>
+      </c>
+      <c r="C196" t="n">
+        <v>25.83</v>
+      </c>
+      <c r="D196" t="n">
+        <v>25.83</v>
+      </c>
+      <c r="E196" t="n">
+        <v>25.72</v>
+      </c>
+      <c r="F196" t="n">
+        <v>9850.5461782</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-2406942.700683011</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>25.83</v>
+      </c>
+      <c r="C197" t="n">
+        <v>25.83</v>
+      </c>
+      <c r="D197" t="n">
+        <v>25.83</v>
+      </c>
+      <c r="E197" t="n">
+        <v>25.83</v>
+      </c>
+      <c r="F197" t="n">
+        <v>14040</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-2406942.700683011</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>25.53</v>
+      </c>
+      <c r="C198" t="n">
+        <v>25.53</v>
+      </c>
+      <c r="D198" t="n">
+        <v>25.53</v>
+      </c>
+      <c r="E198" t="n">
+        <v>25.53</v>
+      </c>
+      <c r="F198" t="n">
+        <v>20</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-2406962.700683011</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="C199" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="D199" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="E199" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="F199" t="n">
+        <v>16140</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-2390822.700683011</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="C200" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="D200" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="E200" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1160</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-2389662.700683011</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="C201" t="n">
+        <v>25.56</v>
+      </c>
+      <c r="D201" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="E201" t="n">
+        <v>25.56</v>
+      </c>
+      <c r="F201" t="n">
+        <v>20813.4873</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-2410476.187983011</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C202" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D202" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E202" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="F202" t="n">
+        <v>678</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-2409798.187983011</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C203" t="n">
+        <v>25.54</v>
+      </c>
+      <c r="D203" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E203" t="n">
+        <v>25.54</v>
+      </c>
+      <c r="F203" t="n">
+        <v>20135.4873</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-2429933.675283012</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C204" t="n">
+        <v>25.54</v>
+      </c>
+      <c r="D204" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E204" t="n">
+        <v>25.54</v>
+      </c>
+      <c r="F204" t="n">
+        <v>17624.3129</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-2429933.675283012</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>25.53</v>
+      </c>
+      <c r="C205" t="n">
+        <v>25.43</v>
+      </c>
+      <c r="D205" t="n">
+        <v>25.53</v>
+      </c>
+      <c r="E205" t="n">
+        <v>25.43</v>
+      </c>
+      <c r="F205" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-2469933.675283012</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C206" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D206" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E206" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="F206" t="n">
+        <v>33.4336</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-2469900.241683011</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C207" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D207" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E207" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="F207" t="n">
+        <v>68358.6966</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-2469900.241683011</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C208" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D208" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E208" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="F208" t="n">
+        <v>6357.4884</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-2469900.241683011</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C209" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D209" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E209" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="F209" t="n">
+        <v>11498.5559</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-2469900.241683011</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="C210" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="D210" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="E210" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="F210" t="n">
+        <v>28.2443</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-2469871.997383012</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C211" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="D211" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E211" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F211" t="n">
+        <v>32882</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-2502753.997383012</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C212" t="n">
+        <v>25.71</v>
+      </c>
+      <c r="D212" t="n">
+        <v>25.71</v>
+      </c>
+      <c r="E212" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="F212" t="n">
+        <v>7785.27592699</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-2494968.721456022</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="C213" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="D213" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="E213" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1937.23363037</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-2493031.487825652</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="C214" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="D214" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="E214" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="F214" t="n">
+        <v>10595.61496963</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-2493031.487825652</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="C215" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="D215" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="E215" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="F215" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-2493031.487825652</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>25.61</v>
+      </c>
+      <c r="C216" t="n">
+        <v>25.61</v>
+      </c>
+      <c r="D216" t="n">
+        <v>25.61</v>
+      </c>
+      <c r="E216" t="n">
+        <v>25.61</v>
+      </c>
+      <c r="F216" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-2503031.487825652</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="C217" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="D217" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="E217" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="F217" t="n">
+        <v>990.8264</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-2502040.661425652</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="C218" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="D218" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="E218" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="F218" t="n">
+        <v>4969.1736</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-2502040.661425652</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="C219" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="D219" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="E219" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1444.2777</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-2502040.661425652</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="C220" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="D220" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="E220" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="F220" t="n">
+        <v>4574.90897699</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-2497465.752448662</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="C221" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="D221" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="E221" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="F221" t="n">
+        <v>51010.76552301</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-2446454.986925652</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="C222" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="D222" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="E222" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="F222" t="n">
+        <v>14691.9361</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-2446454.986925652</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>25.94</v>
+      </c>
+      <c r="C223" t="n">
+        <v>25.94</v>
+      </c>
+      <c r="D223" t="n">
+        <v>25.94</v>
+      </c>
+      <c r="E223" t="n">
+        <v>25.94</v>
+      </c>
+      <c r="F223" t="n">
+        <v>17500</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-2428954.986925652</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
         <v>25.95</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C224" t="n">
         <v>25.95</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D224" t="n">
         <v>25.95</v>
       </c>
-      <c r="E153" t="n">
+      <c r="E224" t="n">
         <v>25.95</v>
       </c>
-      <c r="F153" t="n">
+      <c r="F224" t="n">
         <v>88352.74430000001</v>
       </c>
-      <c r="G153" t="n">
+      <c r="G224" t="n">
         <v>-2340602.242625652</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest HDAC.xlsx
+++ b/BackTest/2020-01-16 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N224"/>
+  <dimension ref="A1:M224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-146140.2993336901</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-186855.1304336901</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-158927.3725336901</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-158927.3725336901</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-160955.2174336901</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-37953.95613369007</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-87953.95613369007</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-87953.95613369007</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>-886453.8326336901</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>-760587.1874336901</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>-780669.93143369</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,15 @@
         <v>-900966.04953369</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>-900966.04953369</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>-903366.04953369</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2365,15 @@
         <v>-1004892.61113369</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>-1008106.81473369</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>-1008106.81473369</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>-1005701.32613369</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2695,15 @@
         <v>-1007416.32323369</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3157,19 @@
         <v>-1333230.25510454</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>25.89</v>
+      </c>
+      <c r="J84" t="n">
+        <v>25.89</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3196,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3235,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3274,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3313,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3352,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3391,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3430,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3469,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3508,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3547,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3586,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3625,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3664,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3703,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3742,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3781,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3820,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4056,18 +3857,21 @@
         <v>-1253950.87427028</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>0.991523754345307</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3898,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4128,18 +3929,15 @@
         <v>-1282693.611770279</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4164,18 +3962,15 @@
         <v>-1281130.448970279</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4200,18 +3995,15 @@
         <v>-1370358.789470279</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4236,18 +4028,15 @@
         <v>-1336125.284870279</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4272,18 +4061,15 @@
         <v>-1336125.284870279</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4308,18 +4094,15 @@
         <v>-1332262.789698399</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4129,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4162,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4195,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4228,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4261,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4294,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4327,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4360,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4393,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4426,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4459,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4492,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4525,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4558,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4591,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4624,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4657,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4690,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4992,22 +4721,19 @@
         <v>-1595068.776498399</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="J128" t="n">
         <v>25.5</v>
       </c>
-      <c r="K128" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5034,22 +4760,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
         <v>25.5</v>
       </c>
-      <c r="L129" t="inlineStr">
+      <c r="K129" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5074,26 +4797,21 @@
         <v>-1596017.9944984</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
         <v>25.5</v>
       </c>
-      <c r="K130" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="K130" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5120,22 +4838,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
         <v>25.5</v>
       </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5162,22 +4877,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
         <v>25.5</v>
       </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5204,22 +4916,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
         <v>25.5</v>
       </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5246,22 +4955,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
         <v>25.5</v>
       </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5288,22 +4994,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
         <v>25.5</v>
       </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5330,22 +5033,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
         <v>25.5</v>
       </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5372,22 +5072,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
         <v>25.5</v>
       </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5414,22 +5111,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
         <v>25.5</v>
       </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5456,22 +5150,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
         <v>25.5</v>
       </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5498,22 +5189,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
         <v>25.5</v>
       </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5540,22 +5228,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
         <v>25.5</v>
       </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5582,22 +5267,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
         <v>25.5</v>
       </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5624,22 +5306,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
         <v>25.5</v>
       </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5664,24 +5343,21 @@
         <v>-1622062.82906236</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
         <v>25.5</v>
       </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1.002843137254902</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5708,22 +5384,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5750,22 +5417,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5792,22 +5450,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5832,24 +5481,15 @@
         <v>-1610992.50245965</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5876,22 +5516,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5918,22 +5549,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5960,22 +5582,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6002,22 +5615,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6042,24 +5646,15 @@
         <v>-1649442.39365965</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6086,22 +5681,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6128,22 +5714,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6170,22 +5747,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6212,22 +5780,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6254,22 +5813,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6296,22 +5846,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6336,24 +5877,15 @@
         <v>-2222027.65125965</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6380,22 +5912,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6422,22 +5945,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6464,22 +5978,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6504,24 +6009,21 @@
         <v>-2199552.53685965</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>25.38</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6546,26 +6048,21 @@
         <v>-2192033.48115965</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
         <v>25.38</v>
       </c>
-      <c r="K165" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6590,24 +6087,21 @@
         <v>-2194033.48115965</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>25.58</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6634,22 +6128,17 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6674,26 +6163,21 @@
         <v>-2176857.69705965</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="n">
         <v>25.39</v>
       </c>
-      <c r="K168" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6720,22 +6204,17 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6762,22 +6241,17 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6804,22 +6278,17 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6846,22 +6315,17 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6888,22 +6352,17 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6930,22 +6389,17 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6972,22 +6426,17 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7012,26 +6461,21 @@
         <v>-2339552.877359651</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
         <v>25.49</v>
       </c>
-      <c r="K176" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7056,26 +6500,21 @@
         <v>-2339552.877359651</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
         <v>25.4</v>
       </c>
-      <c r="K177" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7100,26 +6539,19 @@
         <v>-2334295.78615965</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K178" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7144,26 +6576,19 @@
         <v>-2335439.94105965</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K179" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7188,26 +6613,19 @@
         <v>-2456239.495759651</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K180" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7234,22 +6652,17 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7276,22 +6689,17 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7318,22 +6726,17 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7358,26 +6761,19 @@
         <v>-2438597.291959651</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="n">
-        <v>25.39</v>
-      </c>
-      <c r="K184" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7404,22 +6800,17 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7446,22 +6837,17 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7488,22 +6874,17 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7530,22 +6911,17 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7572,22 +6948,17 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7614,22 +6985,17 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7654,24 +7020,21 @@
         <v>-2447158.812361211</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>25.51</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7696,26 +7059,19 @@
         <v>-2444790.044461211</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="n">
-        <v>25.51</v>
-      </c>
-      <c r="K192" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7742,22 +7098,17 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7784,22 +7135,17 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7826,22 +7172,17 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7868,22 +7209,17 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7910,22 +7246,17 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7952,22 +7283,17 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7994,22 +7320,17 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8036,22 +7357,17 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8078,22 +7394,17 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8120,22 +7431,17 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8162,22 +7468,17 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8204,22 +7505,17 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8246,22 +7542,17 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8288,22 +7579,17 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8330,22 +7616,17 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8372,22 +7653,17 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8412,24 +7688,21 @@
         <v>-2469900.241683011</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>25.6</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8456,22 +7729,17 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8498,22 +7766,17 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8540,22 +7803,17 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8582,22 +7840,17 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8624,22 +7877,17 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8666,22 +7914,17 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8708,22 +7951,17 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8748,24 +7986,21 @@
         <v>-2502040.661425652</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>25.61</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8792,22 +8027,17 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8834,22 +8064,17 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8876,22 +8101,17 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8918,22 +8138,17 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8960,22 +8175,17 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9002,22 +8212,17 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9044,24 +8249,19 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest HDAC.xlsx
+++ b/BackTest/2020-01-16 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-146140.2993336901</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-179522.7296336901</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-192870.6072336901</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-186855.1304336901</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-158927.3725336901</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-158927.3725336901</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-160955.2174336901</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-37953.95613369007</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-87953.95613369007</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-87953.95613369007</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-122553.1482336901</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-145647.2649336901</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-204296.3571336901</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-279286.8477336901</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-480667.9992336901</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-554233.1065336901</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-672957.9954336901</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-672957.9954336901</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-602113.9563336901</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-602113.9563336901</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-581070.2771336901</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-634527.0573336901</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-664507.6647336901</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-664507.6647336901</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-886453.8326336901</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-760587.1874336901</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-780669.93143369</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-900966.04953369</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-900966.04953369</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-903366.04953369</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-1004892.61113369</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1008106.81473369</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1008106.81473369</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1005701.32613369</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1007416.32323369</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3157,14 +3157,10 @@
         <v>-1333230.25510454</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="J84" t="n">
-        <v>25.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
@@ -3197,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3236,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3275,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3314,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3353,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3392,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3431,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3470,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3509,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3548,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3587,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3626,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3665,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3704,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3743,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3782,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3821,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3857,19 +3751,13 @@
         <v>-1253950.87427028</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>0.991523754345307</v>
+        <v>1</v>
       </c>
       <c r="M102" t="inlineStr"/>
     </row>
@@ -3929,7 +3817,7 @@
         <v>-1282693.611770279</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3962,7 +3850,7 @@
         <v>-1281130.448970279</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3995,7 +3883,7 @@
         <v>-1370358.789470279</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4028,7 +3916,7 @@
         <v>-1336125.284870279</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4061,7 +3949,7 @@
         <v>-1336125.284870279</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4094,7 +3982,7 @@
         <v>-1332262.789698399</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4721,14 +4609,10 @@
         <v>-1595068.776498399</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="J128" t="n">
-        <v>25.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
@@ -4761,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4800,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4839,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4878,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4917,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4956,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4995,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5034,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5073,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5112,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5151,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5190,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5229,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5268,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5307,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5343,19 +5137,13 @@
         <v>-1622062.82906236</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
-        <v>1.002843137254902</v>
+        <v>1</v>
       </c>
       <c r="M144" t="inlineStr"/>
     </row>
@@ -5481,7 +5269,7 @@
         <v>-1610992.50245965</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5646,7 +5434,7 @@
         <v>-1649442.39365965</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5877,7 +5665,7 @@
         <v>-2222027.65125965</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6009,95 +5797,89 @@
         <v>-2199552.53685965</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
-      </c>
-      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="C165" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="D165" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="E165" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="F165" t="n">
+        <v>7519.0557</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-2192033.48115965</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
         <v>25.38</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
+      <c r="J165" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="C166" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="D166" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="E166" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-2194033.48115965</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="J166" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="K166" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>25.58</v>
-      </c>
-      <c r="C165" t="n">
-        <v>25.58</v>
-      </c>
-      <c r="D165" t="n">
-        <v>25.58</v>
-      </c>
-      <c r="E165" t="n">
-        <v>25.58</v>
-      </c>
-      <c r="F165" t="n">
-        <v>7519.0557</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-2192033.48115965</v>
-      </c>
-      <c r="H165" t="n">
-        <v>2</v>
-      </c>
-      <c r="I165" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>25.48</v>
-      </c>
-      <c r="C166" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="D166" t="n">
-        <v>25.48</v>
-      </c>
-      <c r="E166" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="F166" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-2194033.48115965</v>
-      </c>
-      <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="n">
-        <v>25.58</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6126,10 +5908,14 @@
         <v>-2190282.48115965</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="J167" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6163,12 +5949,14 @@
         <v>-2176857.69705965</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>25.39</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6202,10 +5990,14 @@
         <v>-2174591.15795965</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="J169" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6242,7 +6034,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6279,7 +6073,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6316,7 +6112,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6353,7 +6151,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6390,7 +6190,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6427,7 +6229,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6461,12 +6265,12 @@
         <v>-2339552.877359651</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="n">
-        <v>25.49</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6500,12 +6304,12 @@
         <v>-2339552.877359651</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I177" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6542,7 +6346,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6579,7 +6385,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6616,7 +6424,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6653,7 +6463,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6690,7 +6502,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6727,7 +6541,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6764,7 +6580,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6801,7 +6619,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6838,7 +6658,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6875,7 +6697,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6912,7 +6736,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6949,7 +6775,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6986,7 +6814,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7020,12 +6850,12 @@
         <v>-2447158.812361211</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>25.51</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7062,7 +6892,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7099,7 +6931,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7136,7 +6970,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7173,7 +7009,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7210,7 +7048,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7247,7 +7087,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7284,7 +7126,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7321,7 +7165,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7358,7 +7204,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7395,7 +7243,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7432,7 +7282,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7469,7 +7321,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7506,7 +7360,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7543,7 +7399,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7580,7 +7438,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7617,7 +7477,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7654,7 +7516,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7688,12 +7552,12 @@
         <v>-2469900.241683011</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7730,7 +7594,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7767,7 +7633,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7804,7 +7672,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7841,7 +7711,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7878,7 +7750,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7915,7 +7789,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7952,7 +7828,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7986,12 +7864,12 @@
         <v>-2502040.661425652</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="n">
-        <v>25.61</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8028,7 +7906,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8065,7 +7945,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8102,7 +7984,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8139,7 +8023,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8176,7 +8062,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8213,7 +8101,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8250,7 +8140,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8262,6 +8154,6 @@
       <c r="M224" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest HDAC.xlsx
+++ b/BackTest/2020-01-16 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>-179522.7296336901</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-192870.6072336901</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-186855.1304336901</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-87953.95613369007</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-122553.1482336901</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-145647.2649336901</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-204296.3571336901</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-279286.8477336901</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-480667.9992336901</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-554233.1065336901</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-672957.9954336901</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-672957.9954336901</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-602113.9563336901</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-602113.9563336901</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-581070.2771336901</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-634527.0573336901</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-664507.6647336901</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-664507.6647336901</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-1293983.82061203</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-1293983.82061203</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1293983.82061203</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-1293983.82061203</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-1242446.97581203</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-1248836.381412029</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-1248836.381412029</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-1248836.381412029</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -5731,11 +5731,17 @@
         <v>-2223002.53685965</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>25.37</v>
+      </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5768,7 +5774,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5801,7 +5811,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,15 +5844,15 @@
         <v>-2192033.48115965</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="J165" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5867,17 +5881,13 @@
         <v>-2194033.48115965</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>25.58</v>
-      </c>
-      <c r="J166" t="n">
-        <v>25.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L166" t="n">
@@ -5908,14 +5918,10 @@
         <v>-2190282.48115965</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="J167" t="n">
-        <v>25.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5949,14 +5955,10 @@
         <v>-2176857.69705965</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>25.39</v>
-      </c>
-      <c r="J168" t="n">
-        <v>25.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5990,14 +5992,10 @@
         <v>-2174591.15795965</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="J169" t="n">
-        <v>25.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6034,9 +6032,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6073,9 +6069,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6112,9 +6106,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6151,9 +6143,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6190,9 +6180,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6229,9 +6217,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6268,9 +6254,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6307,9 +6291,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6346,9 +6328,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6385,9 +6365,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6424,9 +6402,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6463,9 +6439,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6502,9 +6476,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6541,9 +6513,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6580,9 +6550,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6619,9 +6587,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6658,9 +6624,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6697,9 +6661,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6736,9 +6698,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6775,9 +6735,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6814,9 +6772,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6853,9 +6809,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6892,9 +6846,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6931,9 +6883,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6970,9 +6920,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7009,9 +6957,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7048,9 +6994,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7087,9 +7031,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7126,9 +7068,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7165,9 +7105,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7204,9 +7142,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7243,9 +7179,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7282,9 +7216,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7321,9 +7253,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7360,9 +7290,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7399,9 +7327,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7438,9 +7364,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7477,9 +7401,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7516,9 +7438,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7555,9 +7475,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7594,9 +7512,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7630,20 +7546,16 @@
         <v>-2502753.997383012</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>25.38</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
@@ -7669,17 +7581,11 @@
         <v>-2494968.721456022</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7711,14 +7617,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7750,14 +7650,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7789,14 +7683,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7828,14 +7716,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7867,14 +7749,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7906,14 +7782,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7945,14 +7815,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7981,17 +7845,11 @@
         <v>-2497465.752448662</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8020,17 +7878,11 @@
         <v>-2446454.986925652</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8059,17 +7911,11 @@
         <v>-2446454.986925652</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8101,14 +7947,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8140,20 +7980,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
       <c r="M224" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest HDAC.xlsx
+++ b/BackTest/2020-01-16 BackTest HDAC.xlsx
@@ -451,7 +451,7 @@
         <v>-146140.2993336901</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-158927.3725336901</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-160955.2174336901</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-160955.2174336901</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-165794.0857336901</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-37953.95613369007</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-37953.95613369007</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-87953.95613369007</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-87953.95613369007</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-87953.95613369007</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-1293983.82061203</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-1293983.82061203</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1293983.82061203</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-1293983.82061203</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-1242446.97581203</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-1248836.381412029</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-1248836.381412029</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-1248836.381412029</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-1370358.789470279</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-1336125.284870279</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-1442426.882198399</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-1643240.275998399</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-1630494.06115965</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-1649442.39365965</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-1659573.45185965</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-2222027.65125965</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5731,165 +5731,153 @@
         <v>-2223002.53685965</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>25.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="C163" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="D163" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="E163" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="F163" t="n">
+        <v>23450</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-2199552.53685965</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="C164" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="D164" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="E164" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="F164" t="n">
+        <v>37118.7161</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-2199552.53685965</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="C165" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="D165" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="E165" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="F165" t="n">
+        <v>7519.0557</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-2192033.48115965</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="J165" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="C166" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="D166" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="E166" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-2194033.48115965</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="K166" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="C163" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="D163" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="E163" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="F163" t="n">
-        <v>23450</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-2199552.53685965</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>25.39</v>
-      </c>
-      <c r="C164" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="D164" t="n">
-        <v>25.39</v>
-      </c>
-      <c r="E164" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="F164" t="n">
-        <v>37118.7161</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-2199552.53685965</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>25.58</v>
-      </c>
-      <c r="C165" t="n">
-        <v>25.58</v>
-      </c>
-      <c r="D165" t="n">
-        <v>25.58</v>
-      </c>
-      <c r="E165" t="n">
-        <v>25.58</v>
-      </c>
-      <c r="F165" t="n">
-        <v>7519.0557</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-2192033.48115965</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>25.48</v>
-      </c>
-      <c r="C166" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="D166" t="n">
-        <v>25.48</v>
-      </c>
-      <c r="E166" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="F166" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-2194033.48115965</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5921,7 +5909,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5955,10 +5945,14 @@
         <v>-2176857.69705965</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J168" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5995,7 +5989,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6032,7 +6028,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6069,7 +6067,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6106,7 +6106,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6143,7 +6145,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6180,7 +6184,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6217,7 +6223,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6254,7 +6262,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6291,7 +6301,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6328,7 +6340,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6365,7 +6379,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6402,7 +6418,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6439,7 +6457,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6476,7 +6496,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6513,7 +6535,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6547,10 +6571,14 @@
         <v>-2438597.291959651</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J184" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6587,7 +6615,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6624,7 +6654,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6661,7 +6693,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6698,7 +6732,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6735,7 +6771,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6772,7 +6810,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6809,7 +6849,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6843,10 +6885,14 @@
         <v>-2444790.044461211</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="J192" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6883,7 +6929,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6920,7 +6968,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6957,7 +7007,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6994,7 +7046,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7031,7 +7085,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7068,7 +7124,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7105,7 +7163,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7142,7 +7202,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7179,7 +7241,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7216,7 +7280,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7253,7 +7319,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7290,7 +7358,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7324,10 +7394,14 @@
         <v>-2469933.675283012</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>25.54</v>
+      </c>
+      <c r="J205" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7361,10 +7435,14 @@
         <v>-2469900.241683011</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>25.43</v>
+      </c>
+      <c r="J206" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7398,10 +7476,14 @@
         <v>-2469900.241683011</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="J207" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7435,10 +7517,14 @@
         <v>-2469900.241683011</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="J208" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7475,7 +7561,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7509,10 +7597,14 @@
         <v>-2469871.997383012</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="J210" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7546,16 +7638,20 @@
         <v>-2502753.997383012</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>25.38</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
       <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
@@ -7581,11 +7677,19 @@
         <v>-2494968.721456022</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J212" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7614,11 +7718,19 @@
         <v>-2493031.487825652</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>25.71</v>
+      </c>
+      <c r="J213" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7647,11 +7759,19 @@
         <v>-2493031.487825652</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="J214" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7683,8 +7803,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7713,11 +7839,19 @@
         <v>-2503031.487825652</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="J216" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7746,11 +7880,19 @@
         <v>-2502040.661425652</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>25.61</v>
+      </c>
+      <c r="J217" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7779,11 +7921,19 @@
         <v>-2502040.661425652</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="J218" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7815,8 +7965,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7845,11 +8001,17 @@
         <v>-2497465.752448662</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7878,11 +8040,17 @@
         <v>-2446454.986925652</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7911,11 +8079,17 @@
         <v>-2446454.986925652</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7947,8 +8121,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7980,8 +8160,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-16 BackTest HDAC.xlsx
+++ b/BackTest/2020-01-16 BackTest HDAC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M224"/>
+  <dimension ref="A1:L224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>17481.9855</v>
       </c>
       <c r="G2" t="n">
-        <v>-146140.2993336901</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>35784.0548</v>
       </c>
       <c r="G3" t="n">
-        <v>-181924.3541336901</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>50000</v>
       </c>
       <c r="G4" t="n">
-        <v>-181924.3541336901</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>2401.6245</v>
       </c>
       <c r="G5" t="n">
-        <v>-179522.7296336901</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>13347.8776</v>
       </c>
       <c r="G6" t="n">
-        <v>-192870.6072336901</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>6015.4768</v>
       </c>
       <c r="G7" t="n">
-        <v>-186855.1304336901</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>27927.7579</v>
       </c>
       <c r="G8" t="n">
-        <v>-158927.3725336901</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>41253.5745</v>
       </c>
       <c r="G9" t="n">
-        <v>-158927.3725336901</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>2027.8449</v>
       </c>
       <c r="G10" t="n">
-        <v>-160955.2174336901</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>2358.2673</v>
       </c>
       <c r="G11" t="n">
-        <v>-160955.2174336901</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>4838.8683</v>
       </c>
       <c r="G12" t="n">
-        <v>-165794.0857336901</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>127840.1296</v>
       </c>
       <c r="G13" t="n">
-        <v>-37953.95613369007</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>397.5315</v>
       </c>
       <c r="G14" t="n">
-        <v>-37953.95613369007</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>50000</v>
       </c>
       <c r="G15" t="n">
-        <v>-87953.95613369007</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>72205.7153</v>
       </c>
       <c r="G16" t="n">
-        <v>-87953.95613369007</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>11198.1159</v>
       </c>
       <c r="G17" t="n">
-        <v>-87953.95613369007</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>315.9667</v>
       </c>
       <c r="G18" t="n">
-        <v>-88269.92283369007</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>66537.47659999999</v>
       </c>
       <c r="G19" t="n">
-        <v>-88269.92283369007</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>142.8089</v>
       </c>
       <c r="G20" t="n">
-        <v>-88269.92283369007</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>46665.0588</v>
       </c>
       <c r="G21" t="n">
-        <v>-134934.9816336901</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>2500.79</v>
       </c>
       <c r="G22" t="n">
-        <v>-134934.9816336901</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>12381.8334</v>
       </c>
       <c r="G23" t="n">
-        <v>-122553.1482336901</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>17952.1025</v>
       </c>
       <c r="G24" t="n">
-        <v>-140505.2507336901</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>5142.0142</v>
       </c>
       <c r="G25" t="n">
-        <v>-145647.2649336901</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>58649.0922</v>
       </c>
       <c r="G26" t="n">
-        <v>-204296.3571336901</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>74990.4906</v>
       </c>
       <c r="G27" t="n">
-        <v>-279286.8477336901</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>201381.1515</v>
       </c>
       <c r="G28" t="n">
-        <v>-480667.9992336901</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>73565.1073</v>
       </c>
       <c r="G29" t="n">
-        <v>-554233.1065336901</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>118724.8889</v>
       </c>
       <c r="G30" t="n">
-        <v>-672957.9954336901</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>60758.7445</v>
       </c>
       <c r="G31" t="n">
-        <v>-672957.9954336901</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>70844.03909999999</v>
       </c>
       <c r="G32" t="n">
-        <v>-602113.9563336901</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>29010.2479</v>
       </c>
       <c r="G33" t="n">
-        <v>-602113.9563336901</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>21043.6792</v>
       </c>
       <c r="G34" t="n">
-        <v>-581070.2771336901</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>3000</v>
       </c>
       <c r="G35" t="n">
-        <v>-581070.2771336901</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>53456.7802</v>
       </c>
       <c r="G36" t="n">
-        <v>-634527.0573336901</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>76350.2087</v>
       </c>
       <c r="G37" t="n">
-        <v>-634527.0573336901</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>29980.6074</v>
       </c>
       <c r="G38" t="n">
-        <v>-664507.6647336901</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>166314.6077</v>
       </c>
       <c r="G39" t="n">
-        <v>-664507.6647336901</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>218324.174</v>
       </c>
       <c r="G40" t="n">
-        <v>-882831.8387336901</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>3621.9939</v>
       </c>
       <c r="G41" t="n">
-        <v>-886453.8326336901</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>10519.6884</v>
       </c>
       <c r="G42" t="n">
-        <v>-886453.8326336901</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>16356.3674</v>
       </c>
       <c r="G43" t="n">
-        <v>-870097.4652336901</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>23800.8944</v>
       </c>
       <c r="G44" t="n">
-        <v>-870097.4652336901</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>49775.5084</v>
       </c>
       <c r="G45" t="n">
-        <v>-820321.9568336901</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,19 @@
         <v>70</v>
       </c>
       <c r="G46" t="n">
-        <v>-820251.9568336901</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>25.45</v>
+      </c>
+      <c r="I46" t="n">
+        <v>25.45</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1797,23 @@
         <v>9310.936299999999</v>
       </c>
       <c r="G47" t="n">
-        <v>-820251.9568336901</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>25.52</v>
+      </c>
+      <c r="I47" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1835,23 @@
         <v>32632.0798</v>
       </c>
       <c r="G48" t="n">
-        <v>-787619.8770336901</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>25.52</v>
+      </c>
+      <c r="I48" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1873,15 @@
         <v>1391</v>
       </c>
       <c r="G49" t="n">
-        <v>-787619.8770336901</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1903,19 @@
         <v>27032.6896</v>
       </c>
       <c r="G50" t="n">
-        <v>-760587.1874336901</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>25.55</v>
+      </c>
+      <c r="I50" t="n">
+        <v>25.55</v>
+      </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1937,21 @@
         <v>20082.744</v>
       </c>
       <c r="G51" t="n">
-        <v>-780669.93143369</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1973,21 @@
         <v>120296.1181</v>
       </c>
       <c r="G52" t="n">
-        <v>-900966.04953369</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2009,21 @@
         <v>9387</v>
       </c>
       <c r="G53" t="n">
-        <v>-900966.04953369</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2045,21 @@
         <v>2400</v>
       </c>
       <c r="G54" t="n">
-        <v>-903366.04953369</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2081,21 @@
         <v>101.9638</v>
       </c>
       <c r="G55" t="n">
-        <v>-903264.0857336899</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2117,21 @@
         <v>65770.0963</v>
       </c>
       <c r="G56" t="n">
-        <v>-903264.0857336899</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2153,21 @@
         <v>164.0153</v>
       </c>
       <c r="G57" t="n">
-        <v>-903264.0857336899</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2189,21 @@
         <v>100000</v>
       </c>
       <c r="G58" t="n">
-        <v>-1003264.08573369</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2225,21 @@
         <v>776.9632</v>
       </c>
       <c r="G59" t="n">
-        <v>-1002487.12253369</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2261,21 @@
         <v>2405.4886</v>
       </c>
       <c r="G60" t="n">
-        <v>-1004892.61113369</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2297,21 @@
         <v>1451.9018</v>
       </c>
       <c r="G61" t="n">
-        <v>-1004892.61113369</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2333,21 @@
         <v>1000</v>
       </c>
       <c r="G62" t="n">
-        <v>-1004892.61113369</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2369,21 @@
         <v>3214.2036</v>
       </c>
       <c r="G63" t="n">
-        <v>-1008106.81473369</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2405,21 @@
         <v>68119.2668</v>
       </c>
       <c r="G64" t="n">
-        <v>-1008106.81473369</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2441,21 @@
         <v>2405.4886</v>
       </c>
       <c r="G65" t="n">
-        <v>-1005701.32613369</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2477,21 @@
         <v>33000</v>
       </c>
       <c r="G66" t="n">
-        <v>-1005701.32613369</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2513,21 @@
         <v>1577.3384</v>
       </c>
       <c r="G67" t="n">
-        <v>-1004123.98773369</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2549,21 @@
         <v>3292.3355</v>
       </c>
       <c r="G68" t="n">
-        <v>-1007416.32323369</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2585,21 @@
         <v>5000</v>
       </c>
       <c r="G69" t="n">
-        <v>-1007416.32323369</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2621,21 @@
         <v>1500</v>
       </c>
       <c r="G70" t="n">
-        <v>-1007416.32323369</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2657,21 @@
         <v>4211.6249</v>
       </c>
       <c r="G71" t="n">
-        <v>-1007416.32323369</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2693,21 @@
         <v>101686.3379</v>
       </c>
       <c r="G72" t="n">
-        <v>-1007416.32323369</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2729,21 @@
         <v>100000</v>
       </c>
       <c r="G73" t="n">
-        <v>-1107416.32323369</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2765,21 @@
         <v>10545.8906</v>
       </c>
       <c r="G74" t="n">
-        <v>-1107416.32323369</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2801,21 @@
         <v>4043.4581</v>
       </c>
       <c r="G75" t="n">
-        <v>-1111459.78133369</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2837,21 @@
         <v>55935.5738</v>
       </c>
       <c r="G76" t="n">
-        <v>-1167395.35513369</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2873,21 @@
         <v>55935.5739</v>
       </c>
       <c r="G77" t="n">
-        <v>-1223330.92903369</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2909,21 @@
         <v>7791.5548803</v>
       </c>
       <c r="G78" t="n">
-        <v>-1215539.37415339</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2945,21 @@
         <v>17319.9848</v>
       </c>
       <c r="G79" t="n">
-        <v>-1232859.35895339</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2981,21 @@
         <v>51244.4744</v>
       </c>
       <c r="G80" t="n">
-        <v>-1181614.88455339</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3017,21 @@
         <v>177171.7724</v>
       </c>
       <c r="G81" t="n">
-        <v>-1358786.65695339</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3053,21 @@
         <v>47828.2276</v>
       </c>
       <c r="G82" t="n">
-        <v>-1358786.65695339</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3089,21 @@
         <v>34216.40184885</v>
       </c>
       <c r="G83" t="n">
-        <v>-1324570.25510454</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3125,21 @@
         <v>8660</v>
       </c>
       <c r="G84" t="n">
-        <v>-1333230.25510454</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3161,21 @@
         <v>10627.8545</v>
       </c>
       <c r="G85" t="n">
-        <v>-1333230.25510454</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3197,21 @@
         <v>39246.43449251</v>
       </c>
       <c r="G86" t="n">
-        <v>-1293983.82061203</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3233,21 @@
         <v>9370.3886</v>
       </c>
       <c r="G87" t="n">
-        <v>-1293983.82061203</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3269,21 @@
         <v>100</v>
       </c>
       <c r="G88" t="n">
-        <v>-1293983.82061203</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3305,21 @@
         <v>14.7426</v>
       </c>
       <c r="G89" t="n">
-        <v>-1293983.82061203</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3341,21 @@
         <v>3546.6081</v>
       </c>
       <c r="G90" t="n">
-        <v>-1293983.82061203</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3377,21 @@
         <v>17789.9203</v>
       </c>
       <c r="G91" t="n">
-        <v>-1293983.82061203</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3413,21 @@
         <v>46179.7245</v>
       </c>
       <c r="G92" t="n">
-        <v>-1293983.82061203</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3449,21 @@
         <v>50043.8793</v>
       </c>
       <c r="G93" t="n">
-        <v>-1293983.82061203</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3485,21 @@
         <v>51536.8448</v>
       </c>
       <c r="G94" t="n">
-        <v>-1242446.97581203</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1.011829745596869</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3521,15 @@
         <v>6389.4056</v>
       </c>
       <c r="G95" t="n">
-        <v>-1248836.381412029</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3551,15 @@
         <v>6867.5953</v>
       </c>
       <c r="G96" t="n">
-        <v>-1248836.381412029</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3581,15 @@
         <v>1644.3638</v>
       </c>
       <c r="G97" t="n">
-        <v>-1248836.381412029</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3611,15 @@
         <v>1225.6563</v>
       </c>
       <c r="G98" t="n">
-        <v>-1247610.72511203</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3641,15 @@
         <v>9943.401</v>
       </c>
       <c r="G99" t="n">
-        <v>-1257554.12611203</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3671,15 @@
         <v>22494.2292</v>
       </c>
       <c r="G100" t="n">
-        <v>-1257554.12611203</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3701,15 @@
         <v>3857.53534175</v>
       </c>
       <c r="G101" t="n">
-        <v>-1253696.59077028</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3731,15 @@
         <v>254.2835</v>
       </c>
       <c r="G102" t="n">
-        <v>-1253950.87427028</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3761,15 @@
         <v>36932.8064</v>
       </c>
       <c r="G103" t="n">
-        <v>-1290883.68067028</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3791,15 @@
         <v>8190.0689</v>
       </c>
       <c r="G104" t="n">
-        <v>-1282693.611770279</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3821,15 @@
         <v>1563.1628</v>
       </c>
       <c r="G105" t="n">
-        <v>-1281130.448970279</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3851,15 @@
         <v>89228.34050000001</v>
       </c>
       <c r="G106" t="n">
-        <v>-1370358.789470279</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3881,15 @@
         <v>34233.5046</v>
       </c>
       <c r="G107" t="n">
-        <v>-1336125.284870279</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3911,15 @@
         <v>8766.4954</v>
       </c>
       <c r="G108" t="n">
-        <v>-1336125.284870279</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3941,15 @@
         <v>3862.49517188</v>
       </c>
       <c r="G109" t="n">
-        <v>-1332262.789698399</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3971,15 @@
         <v>43482.1449</v>
       </c>
       <c r="G110" t="n">
-        <v>-1375744.934598399</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +4001,15 @@
         <v>66681.9476</v>
       </c>
       <c r="G111" t="n">
-        <v>-1442426.882198399</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4031,15 @@
         <v>60927.6648</v>
       </c>
       <c r="G112" t="n">
-        <v>-1442426.882198399</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4061,15 @@
         <v>200813.3938</v>
       </c>
       <c r="G113" t="n">
-        <v>-1643240.275998399</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4091,15 @@
         <v>56919.5195</v>
       </c>
       <c r="G114" t="n">
-        <v>-1643240.275998399</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4121,15 @@
         <v>50000</v>
       </c>
       <c r="G115" t="n">
-        <v>-1643240.275998399</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4151,15 @@
         <v>1930.502</v>
       </c>
       <c r="G116" t="n">
-        <v>-1643240.275998399</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4181,15 @@
         <v>10000</v>
       </c>
       <c r="G117" t="n">
-        <v>-1643240.275998399</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4211,15 @@
         <v>19162.1456</v>
       </c>
       <c r="G118" t="n">
-        <v>-1624078.130398399</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4241,15 @@
         <v>6746.9375</v>
       </c>
       <c r="G119" t="n">
-        <v>-1630825.067898399</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4271,15 @@
         <v>37900.2942</v>
       </c>
       <c r="G120" t="n">
-        <v>-1592924.7736984</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4301,15 @@
         <v>2826.3897</v>
       </c>
       <c r="G121" t="n">
-        <v>-1592924.7736984</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4331,15 @@
         <v>2144.0028</v>
       </c>
       <c r="G122" t="n">
-        <v>-1595068.776498399</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4361,15 @@
         <v>1205.7552</v>
       </c>
       <c r="G123" t="n">
-        <v>-1595068.776498399</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4391,15 @@
         <v>12000</v>
       </c>
       <c r="G124" t="n">
-        <v>-1595068.776498399</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4421,15 @@
         <v>11747.1555</v>
       </c>
       <c r="G125" t="n">
-        <v>-1595068.776498399</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4451,15 @@
         <v>1000</v>
       </c>
       <c r="G126" t="n">
-        <v>-1595068.776498399</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4481,15 @@
         <v>4096.539</v>
       </c>
       <c r="G127" t="n">
-        <v>-1595068.776498399</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4511,15 @@
         <v>73069.41280000001</v>
       </c>
       <c r="G128" t="n">
-        <v>-1595068.776498399</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4541,15 @@
         <v>8093</v>
       </c>
       <c r="G129" t="n">
-        <v>-1595068.776498399</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4571,15 @@
         <v>949.218</v>
       </c>
       <c r="G130" t="n">
-        <v>-1596017.9944984</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4601,15 @@
         <v>20</v>
       </c>
       <c r="G131" t="n">
-        <v>-1595997.9944984</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4631,15 @@
         <v>413.7364</v>
       </c>
       <c r="G132" t="n">
-        <v>-1595997.9944984</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4661,15 @@
         <v>25784.2358</v>
       </c>
       <c r="G133" t="n">
-        <v>-1595997.9944984</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4691,15 @@
         <v>13785.71123604</v>
       </c>
       <c r="G134" t="n">
-        <v>-1582212.283262359</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4721,15 @@
         <v>3465.6176</v>
       </c>
       <c r="G135" t="n">
-        <v>-1585677.900862359</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4751,15 @@
         <v>1000</v>
       </c>
       <c r="G136" t="n">
-        <v>-1585677.900862359</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4781,15 @@
         <v>15115.7344</v>
       </c>
       <c r="G137" t="n">
-        <v>-1600793.635262359</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4811,15 @@
         <v>10000</v>
       </c>
       <c r="G138" t="n">
-        <v>-1610793.635262359</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4841,15 @@
         <v>25225.6499</v>
       </c>
       <c r="G139" t="n">
-        <v>-1636019.285162359</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4871,15 @@
         <v>1225.6563</v>
       </c>
       <c r="G140" t="n">
-        <v>-1634793.62886236</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4901,15 @@
         <v>9603.114600000001</v>
       </c>
       <c r="G141" t="n">
-        <v>-1634793.62886236</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4931,15 @@
         <v>18496.7584</v>
       </c>
       <c r="G142" t="n">
-        <v>-1634793.62886236</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4961,15 @@
         <v>29748.3729</v>
       </c>
       <c r="G143" t="n">
-        <v>-1634793.62886236</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4991,15 @@
         <v>12730.7998</v>
       </c>
       <c r="G144" t="n">
-        <v>-1622062.82906236</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +5021,15 @@
         <v>3881.3472</v>
       </c>
       <c r="G145" t="n">
-        <v>-1622062.82906236</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +5051,15 @@
         <v>31070.32660271</v>
       </c>
       <c r="G146" t="n">
-        <v>-1590992.50245965</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +5081,15 @@
         <v>4100</v>
       </c>
       <c r="G147" t="n">
-        <v>-1590992.50245965</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +5111,15 @@
         <v>20000</v>
       </c>
       <c r="G148" t="n">
-        <v>-1610992.50245965</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5141,15 @@
         <v>20</v>
       </c>
       <c r="G149" t="n">
-        <v>-1610972.50245965</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5171,15 @@
         <v>3600.6513</v>
       </c>
       <c r="G150" t="n">
-        <v>-1614573.15375965</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5201,15 @@
         <v>15920.9074</v>
       </c>
       <c r="G151" t="n">
-        <v>-1630494.06115965</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5231,15 @@
         <v>28424.4286</v>
       </c>
       <c r="G152" t="n">
-        <v>-1658918.48975965</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5261,15 @@
         <v>9476.096100000001</v>
       </c>
       <c r="G153" t="n">
-        <v>-1649442.39365965</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5291,15 @@
         <v>38400</v>
       </c>
       <c r="G154" t="n">
-        <v>-1649442.39365965</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5321,15 @@
         <v>10131.0582</v>
       </c>
       <c r="G155" t="n">
-        <v>-1659573.45185965</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5351,15 @@
         <v>25562.8269</v>
       </c>
       <c r="G156" t="n">
-        <v>-1685136.27875965</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5381,15 @@
         <v>280</v>
       </c>
       <c r="G157" t="n">
-        <v>-1684856.27875965</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5411,15 @@
         <v>537633.6706</v>
       </c>
       <c r="G158" t="n">
-        <v>-2222489.94935965</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5441,15 @@
         <v>74742.53999999999</v>
       </c>
       <c r="G159" t="n">
-        <v>-2222489.94935965</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5471,15 @@
         <v>462.2981</v>
       </c>
       <c r="G160" t="n">
-        <v>-2222027.65125965</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5501,15 @@
         <v>974.8856</v>
       </c>
       <c r="G161" t="n">
-        <v>-2223002.53685965</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5531,15 @@
         <v>59124</v>
       </c>
       <c r="G162" t="n">
-        <v>-2223002.53685965</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5561,15 @@
         <v>23450</v>
       </c>
       <c r="G163" t="n">
-        <v>-2199552.53685965</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5591,15 @@
         <v>37118.7161</v>
       </c>
       <c r="G164" t="n">
-        <v>-2199552.53685965</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,22 +5621,15 @@
         <v>7519.0557</v>
       </c>
       <c r="G165" t="n">
-        <v>-2192033.48115965</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="J165" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5864,24 +5651,15 @@
         <v>2000</v>
       </c>
       <c r="G166" t="n">
-        <v>-2194033.48115965</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5903,24 +5681,15 @@
         <v>3751</v>
       </c>
       <c r="G167" t="n">
-        <v>-2190282.48115965</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5942,26 +5711,19 @@
         <v>13424.7841</v>
       </c>
       <c r="G168" t="n">
-        <v>-2176857.69705965</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>25.39</v>
       </c>
       <c r="I168" t="n">
         <v>25.39</v>
       </c>
-      <c r="J168" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5983,24 +5745,23 @@
         <v>2266.5391</v>
       </c>
       <c r="G169" t="n">
-        <v>-2174591.15795965</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>25.6</v>
+      </c>
+      <c r="I169" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6022,24 +5783,21 @@
         <v>70000</v>
       </c>
       <c r="G170" t="n">
-        <v>-2244591.15795965</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6061,24 +5819,21 @@
         <v>15735.8383</v>
       </c>
       <c r="G171" t="n">
-        <v>-2228855.31965965</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6100,24 +5855,21 @@
         <v>55049.149</v>
       </c>
       <c r="G172" t="n">
-        <v>-2283904.468659651</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6139,24 +5891,21 @@
         <v>2393.1387</v>
       </c>
       <c r="G173" t="n">
-        <v>-2281511.329959651</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6178,24 +5927,21 @@
         <v>562.0999</v>
       </c>
       <c r="G174" t="n">
-        <v>-2281511.329959651</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6217,24 +5963,21 @@
         <v>6125.3761</v>
       </c>
       <c r="G175" t="n">
-        <v>-2287636.706059651</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6256,24 +5999,21 @@
         <v>51916.1713</v>
       </c>
       <c r="G176" t="n">
-        <v>-2339552.877359651</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6295,24 +6035,21 @@
         <v>20000</v>
       </c>
       <c r="G177" t="n">
-        <v>-2339552.877359651</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6334,24 +6071,21 @@
         <v>5257.0912</v>
       </c>
       <c r="G178" t="n">
-        <v>-2334295.78615965</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6373,24 +6107,21 @@
         <v>1144.1549</v>
       </c>
       <c r="G179" t="n">
-        <v>-2335439.94105965</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6412,24 +6143,21 @@
         <v>120799.5547</v>
       </c>
       <c r="G180" t="n">
-        <v>-2456239.495759651</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6451,24 +6179,21 @@
         <v>1855.8451</v>
       </c>
       <c r="G181" t="n">
-        <v>-2458095.340859651</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6490,24 +6215,21 @@
         <v>21911.94</v>
       </c>
       <c r="G182" t="n">
-        <v>-2436183.400859651</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6529,24 +6251,21 @@
         <v>6594.7</v>
       </c>
       <c r="G183" t="n">
-        <v>-2442778.100859651</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6568,26 +6287,21 @@
         <v>4180.8089</v>
       </c>
       <c r="G184" t="n">
-        <v>-2438597.291959651</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="n">
         <v>25.39</v>
       </c>
-      <c r="J184" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6609,24 +6323,21 @@
         <v>10900</v>
       </c>
       <c r="G185" t="n">
-        <v>-2449497.291959651</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6648,24 +6359,21 @@
         <v>2474.0522</v>
       </c>
       <c r="G186" t="n">
-        <v>-2447023.239759651</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6687,24 +6395,21 @@
         <v>1947.04049844</v>
       </c>
       <c r="G187" t="n">
-        <v>-2445076.199261211</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6726,24 +6431,21 @@
         <v>5000</v>
       </c>
       <c r="G188" t="n">
-        <v>-2450076.199261211</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6765,24 +6467,21 @@
         <v>2917.3869</v>
       </c>
       <c r="G189" t="n">
-        <v>-2447158.812361211</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6804,24 +6503,21 @@
         <v>145.7233</v>
       </c>
       <c r="G190" t="n">
-        <v>-2447158.812361211</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6843,24 +6539,21 @@
         <v>3783.016</v>
       </c>
       <c r="G191" t="n">
-        <v>-2447158.812361211</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6882,26 +6575,21 @@
         <v>2368.7679</v>
       </c>
       <c r="G192" t="n">
-        <v>-2444790.044461211</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="n">
-        <v>25.51</v>
-      </c>
-      <c r="J192" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>25.39</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6923,24 +6611,21 @@
         <v>144.7976</v>
       </c>
       <c r="G193" t="n">
-        <v>-2444645.246861211</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6962,24 +6647,21 @@
         <v>12508</v>
       </c>
       <c r="G194" t="n">
-        <v>-2432137.246861211</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7001,24 +6683,21 @@
         <v>15344</v>
       </c>
       <c r="G195" t="n">
-        <v>-2416793.246861211</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7040,24 +6719,21 @@
         <v>9850.5461782</v>
       </c>
       <c r="G196" t="n">
-        <v>-2406942.700683011</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7079,24 +6755,21 @@
         <v>14040</v>
       </c>
       <c r="G197" t="n">
-        <v>-2406942.700683011</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7118,24 +6791,21 @@
         <v>20</v>
       </c>
       <c r="G198" t="n">
-        <v>-2406962.700683011</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7157,24 +6827,21 @@
         <v>16140</v>
       </c>
       <c r="G199" t="n">
-        <v>-2390822.700683011</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7196,24 +6863,21 @@
         <v>1160</v>
       </c>
       <c r="G200" t="n">
-        <v>-2389662.700683011</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7235,24 +6899,21 @@
         <v>20813.4873</v>
       </c>
       <c r="G201" t="n">
-        <v>-2410476.187983011</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7274,24 +6935,21 @@
         <v>678</v>
       </c>
       <c r="G202" t="n">
-        <v>-2409798.187983011</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7313,24 +6971,21 @@
         <v>20135.4873</v>
       </c>
       <c r="G203" t="n">
-        <v>-2429933.675283012</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7352,24 +7007,21 @@
         <v>17624.3129</v>
       </c>
       <c r="G204" t="n">
-        <v>-2429933.675283012</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7391,26 +7043,21 @@
         <v>40000</v>
       </c>
       <c r="G205" t="n">
-        <v>-2469933.675283012</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="n">
-        <v>25.54</v>
-      </c>
-      <c r="J205" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>25.39</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7432,26 +7079,21 @@
         <v>33.4336</v>
       </c>
       <c r="G206" t="n">
-        <v>-2469900.241683011</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="n">
-        <v>25.43</v>
-      </c>
-      <c r="J206" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>25.39</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7473,26 +7115,21 @@
         <v>68358.6966</v>
       </c>
       <c r="G207" t="n">
-        <v>-2469900.241683011</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="J207" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>25.39</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7514,26 +7151,21 @@
         <v>6357.4884</v>
       </c>
       <c r="G208" t="n">
-        <v>-2469900.241683011</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="J208" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>25.39</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7555,24 +7187,21 @@
         <v>11498.5559</v>
       </c>
       <c r="G209" t="n">
-        <v>-2469900.241683011</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7594,26 +7223,21 @@
         <v>28.2443</v>
       </c>
       <c r="G210" t="n">
-        <v>-2469871.997383012</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="J210" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>25.39</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7635,24 +7259,21 @@
         <v>32882</v>
       </c>
       <c r="G211" t="n">
-        <v>-2502753.997383012</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7674,26 +7295,21 @@
         <v>7785.27592699</v>
       </c>
       <c r="G212" t="n">
-        <v>-2494968.721456022</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="J212" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>25.39</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7715,26 +7331,21 @@
         <v>1937.23363037</v>
       </c>
       <c r="G213" t="n">
-        <v>-2493031.487825652</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="n">
-        <v>25.71</v>
-      </c>
-      <c r="J213" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>25.39</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7756,26 +7367,21 @@
         <v>10595.61496963</v>
       </c>
       <c r="G214" t="n">
-        <v>-2493031.487825652</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="n">
-        <v>25.81</v>
-      </c>
-      <c r="J214" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>25.39</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7797,24 +7403,21 @@
         <v>10000</v>
       </c>
       <c r="G215" t="n">
-        <v>-2493031.487825652</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7836,26 +7439,21 @@
         <v>10000</v>
       </c>
       <c r="G216" t="n">
-        <v>-2503031.487825652</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="n">
-        <v>25.81</v>
-      </c>
-      <c r="J216" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>25.39</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7877,26 +7475,21 @@
         <v>990.8264</v>
       </c>
       <c r="G217" t="n">
-        <v>-2502040.661425652</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="n">
-        <v>25.61</v>
-      </c>
-      <c r="J217" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>25.39</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7918,26 +7511,21 @@
         <v>4969.1736</v>
       </c>
       <c r="G218" t="n">
-        <v>-2502040.661425652</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="n">
-        <v>25.74</v>
-      </c>
-      <c r="J218" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>25.39</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7959,24 +7547,21 @@
         <v>1444.2777</v>
       </c>
       <c r="G219" t="n">
-        <v>-2502040.661425652</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7998,24 +7583,21 @@
         <v>4574.90897699</v>
       </c>
       <c r="G220" t="n">
-        <v>-2497465.752448662</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8037,24 +7619,21 @@
         <v>51010.76552301</v>
       </c>
       <c r="G221" t="n">
-        <v>-2446454.986925652</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8076,24 +7655,21 @@
         <v>14691.9361</v>
       </c>
       <c r="G222" t="n">
-        <v>-2446454.986925652</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8115,24 +7691,21 @@
         <v>17500</v>
       </c>
       <c r="G223" t="n">
-        <v>-2428954.986925652</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8154,24 +7727,21 @@
         <v>88352.74430000001</v>
       </c>
       <c r="G224" t="n">
-        <v>-2340602.242625652</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
